--- a/data/df_glucose.xlsx
+++ b/data/df_glucose.xlsx
@@ -381,13 +381,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>6.235527692432515</v>
+        <v>6.652593325613998</v>
       </c>
       <c r="B2">
-        <v>6.316480133937782</v>
+        <v>8.044167870197779</v>
       </c>
       <c r="C2">
-        <v>6.372163411416113</v>
+        <v>10.01629811562598</v>
       </c>
       <c r="D2">
         <v>9046</v>
@@ -395,13 +395,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>5.579621794400737</v>
+        <v>4.493921964685432</v>
       </c>
       <c r="B3">
-        <v>7.678553751101684</v>
+        <v>5.401959858683615</v>
       </c>
       <c r="C3">
-        <v>9.176071157306433</v>
+        <v>6.215719745028764</v>
       </c>
       <c r="D3">
         <v>51676</v>
@@ -409,13 +409,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>5.397017052676529</v>
+        <v>5.762153896689415</v>
       </c>
       <c r="B4">
-        <v>6.339313897542173</v>
+        <v>6.519212713832617</v>
       </c>
       <c r="C4">
-        <v>6.848377978522331</v>
+        <v>7.222893630247563</v>
       </c>
       <c r="D4">
         <v>1665</v>
@@ -423,13 +423,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>6.325752423633821</v>
+        <v>6.125918782851659</v>
       </c>
       <c r="B5">
-        <v>8.813418155408371</v>
+        <v>6.935944208939382</v>
       </c>
       <c r="C5">
-        <v>10.43777493014932</v>
+        <v>8.085097009688615</v>
       </c>
       <c r="D5">
         <v>12095</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>6.835050323605538</v>
+        <v>6.836577712814323</v>
       </c>
       <c r="B6">
-        <v>7.750531233528705</v>
+        <v>6.921861182738784</v>
       </c>
       <c r="C6">
-        <v>8.369158908445387</v>
+        <v>7.012906140554696</v>
       </c>
       <c r="D6">
         <v>12175</v>
@@ -451,13 +451,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>5.227215959155001</v>
+        <v>6.842833706969396</v>
       </c>
       <c r="B7">
-        <v>6.174549772094403</v>
+        <v>7.615443304868128</v>
       </c>
       <c r="C7">
-        <v>6.728535122051834</v>
+        <v>8.41794866817072</v>
       </c>
       <c r="D7">
         <v>8213</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>6.434391586645506</v>
+        <v>5.444903090596199</v>
       </c>
       <c r="B8">
-        <v>6.434391586645506</v>
+        <v>7.676152305927228</v>
       </c>
       <c r="C8">
-        <v>6.434391586645506</v>
+        <v>9.805146022792906</v>
       </c>
       <c r="D8">
         <v>5317</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>6.543647119519301</v>
+        <v>5.717466708528809</v>
       </c>
       <c r="B9">
-        <v>6.543647119519301</v>
+        <v>7.445752087452076</v>
       </c>
       <c r="C9">
-        <v>6.543647119519301</v>
+        <v>8.189537723362445</v>
       </c>
       <c r="D9">
         <v>58202</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4.807085085427389</v>
+        <v>5.833007580763661</v>
       </c>
       <c r="B10">
-        <v>8.125463421552478</v>
+        <v>5.833007580763661</v>
       </c>
       <c r="C10">
-        <v>11.11996834659949</v>
+        <v>5.833007580763661</v>
       </c>
       <c r="D10">
         <v>34120</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>5.75914981069509</v>
+        <v>5.273756317608059</v>
       </c>
       <c r="B11">
-        <v>7.123380535475596</v>
+        <v>6.687020330892543</v>
       </c>
       <c r="C11">
-        <v>8.851566094718873</v>
+        <v>8.782123097218573</v>
       </c>
       <c r="D11">
         <v>27458</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4.118831691914238</v>
+        <v>5.652955069346353</v>
       </c>
       <c r="B12">
-        <v>7.450895170630383</v>
+        <v>5.652955069346353</v>
       </c>
       <c r="C12">
-        <v>9.226872908044607</v>
+        <v>5.652955069346353</v>
       </c>
       <c r="D12">
         <v>25226</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>5.977095601754263</v>
+        <v>3.951113850343972</v>
       </c>
       <c r="B13">
-        <v>7.823585530397704</v>
+        <v>5.15491170700592</v>
       </c>
       <c r="C13">
-        <v>10.25487243821844</v>
+        <v>6.110597308818251</v>
       </c>
       <c r="D13">
         <v>70630</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>5.324717895803042</v>
+        <v>4.637882747570984</v>
       </c>
       <c r="B14">
-        <v>5.324717895803042</v>
+        <v>4.786519181345421</v>
       </c>
       <c r="C14">
-        <v>5.324717895803042</v>
+        <v>4.980926950741559</v>
       </c>
       <c r="D14">
         <v>68794</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>4.083201247616671</v>
+        <v>4.500568263721652</v>
       </c>
       <c r="B15">
-        <v>7.569100411048128</v>
+        <v>5.547497261337014</v>
       </c>
       <c r="C15">
-        <v>10.85425198068842</v>
+        <v>5.998556027654558</v>
       </c>
       <c r="D15">
         <v>70822</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>6.44998260284774</v>
+        <v>4.212725647864863</v>
       </c>
       <c r="B16">
-        <v>7.775358327347239</v>
+        <v>6.96086140797482</v>
       </c>
       <c r="C16">
-        <v>8.627232764102517</v>
+        <v>8.16814337996766</v>
       </c>
       <c r="D16">
         <v>43717</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>5.933175902208314</v>
+        <v>5.638206373224966</v>
       </c>
       <c r="B17">
-        <v>5.933175902208314</v>
+        <v>5.638206373224966</v>
       </c>
       <c r="C17">
-        <v>5.933175902208314</v>
+        <v>5.638206373224966</v>
       </c>
       <c r="D17">
         <v>54401</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>4.830491710803472</v>
+        <v>6.557529477053322</v>
       </c>
       <c r="B18">
-        <v>5.104762718097951</v>
+        <v>6.650834397106789</v>
       </c>
       <c r="C18">
-        <v>5.295897370018065</v>
+        <v>6.695158097427338</v>
       </c>
       <c r="D18">
         <v>14248</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>6.388181795366108</v>
+        <v>4.079480973165483</v>
       </c>
       <c r="B19">
-        <v>6.833638898397776</v>
+        <v>4.464729419441573</v>
       </c>
       <c r="C19">
-        <v>7.0975506269373</v>
+        <v>4.830737733840943</v>
       </c>
       <c r="D19">
         <v>47269</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>4.732953235018067</v>
+        <v>4.554168198024854</v>
       </c>
       <c r="B20">
-        <v>6.483406134620995</v>
+        <v>7.603252711807459</v>
       </c>
       <c r="C20">
-        <v>7.927605443075299</v>
+        <v>9.420366484951227</v>
       </c>
       <c r="D20">
         <v>24977</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>5.93163568561431</v>
+        <v>5.034171880362555</v>
       </c>
       <c r="B21">
-        <v>7.83799685250644</v>
+        <v>5.749443595372545</v>
       </c>
       <c r="C21">
-        <v>9.41597238983959</v>
+        <v>6.350850502774119</v>
       </c>
       <c r="D21">
         <v>62602</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>6.866468860022723</v>
+        <v>4.51861681190785</v>
       </c>
       <c r="B22">
-        <v>6.866468860022723</v>
+        <v>8.500854925854442</v>
       </c>
       <c r="C22">
-        <v>6.866468860022723</v>
+        <v>11.48984643062577</v>
       </c>
       <c r="D22">
         <v>4651</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>6.271838969038799</v>
+        <v>4.964515447057783</v>
       </c>
       <c r="B23">
-        <v>6.271838969038799</v>
+        <v>7.065628241546245</v>
       </c>
       <c r="C23">
-        <v>6.271838969038799</v>
+        <v>8.067930490896105</v>
       </c>
       <c r="D23">
         <v>61960</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>6.81481378886383</v>
+        <v>6.765561863943003</v>
       </c>
       <c r="B24">
-        <v>6.81481378886383</v>
+        <v>6.765561863943003</v>
       </c>
       <c r="C24">
-        <v>6.81481378886383</v>
+        <v>6.765561863943003</v>
       </c>
       <c r="D24">
         <v>7937</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6.401681540696882</v>
+        <v>5.482982771517709</v>
       </c>
       <c r="B25">
-        <v>6.401681540696882</v>
+        <v>9.332942517469546</v>
       </c>
       <c r="C25">
-        <v>6.401681540696882</v>
+        <v>11.10084339641035</v>
       </c>
       <c r="D25">
         <v>19824</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>6.931930744857527</v>
+        <v>4.408993125427514</v>
       </c>
       <c r="B26">
-        <v>8.933203398909354</v>
+        <v>6.018468457342731</v>
       </c>
       <c r="C26">
-        <v>10.51342595042661</v>
+        <v>6.837284849118442</v>
       </c>
       <c r="D26">
         <v>18587</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4.207753033167682</v>
+        <v>6.754072724631987</v>
       </c>
       <c r="B27">
-        <v>4.567514558656574</v>
+        <v>7.247757847041139</v>
       </c>
       <c r="C27">
-        <v>4.810250846203417</v>
+        <v>7.605653267353773</v>
       </c>
       <c r="D27">
         <v>59190</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6.663019277364947</v>
+        <v>5.796340710879304</v>
       </c>
       <c r="B28">
-        <v>6.871069560310247</v>
+        <v>7.010659641442158</v>
       </c>
       <c r="C28">
-        <v>6.970600983779877</v>
+        <v>7.771496941894293</v>
       </c>
       <c r="D28">
         <v>25831</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>6.182313393848017</v>
+        <v>6.844746052706614</v>
       </c>
       <c r="B29">
-        <v>8.178176804550509</v>
+        <v>6.853580970721192</v>
       </c>
       <c r="C29">
-        <v>9.369238492660225</v>
+        <v>6.864475058577955</v>
       </c>
       <c r="D29">
         <v>66400</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>5.627067244984209</v>
+        <v>5.830770063120871</v>
       </c>
       <c r="B30">
-        <v>6.127649793218477</v>
+        <v>7.885983351634119</v>
       </c>
       <c r="C30">
-        <v>6.445383266080171</v>
+        <v>9.269389277417213</v>
       </c>
       <c r="D30">
         <v>5111</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>6.364570320141501</v>
+        <v>4.902128519304097</v>
       </c>
       <c r="B31">
-        <v>6.454201969735235</v>
+        <v>4.902128519304097</v>
       </c>
       <c r="C31">
-        <v>6.553779012709856</v>
+        <v>4.902128519304097</v>
       </c>
       <c r="D31">
         <v>55927</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>6.452277401997708</v>
+        <v>6.801407133741304</v>
       </c>
       <c r="B32">
-        <v>8.732868925646661</v>
+        <v>6.976731575015848</v>
       </c>
       <c r="C32">
-        <v>10.14815363064408</v>
+        <v>7.096065218187869</v>
       </c>
       <c r="D32">
         <v>65842</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>5.261350407847203</v>
+        <v>6.84734457116574</v>
       </c>
       <c r="B33">
-        <v>6.221450533895327</v>
+        <v>9.023656680460904</v>
       </c>
       <c r="C33">
-        <v>7.163656273577362</v>
+        <v>10.64536528903991</v>
       </c>
       <c r="D33">
         <v>19557</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>4.93419622448273</v>
+        <v>4.545908093824982</v>
       </c>
       <c r="B34">
-        <v>8.561524858607147</v>
+        <v>7.255918964374841</v>
       </c>
       <c r="C34">
-        <v>10.88091724645346</v>
+        <v>10.5437540105544</v>
       </c>
       <c r="D34">
         <v>17004</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.987611073511653</v>
+        <v>6.048455186584033</v>
       </c>
       <c r="B35">
-        <v>4.80227255002173</v>
+        <v>6.613133286655609</v>
       </c>
       <c r="C35">
-        <v>5.833616501651704</v>
+        <v>6.955741026811301</v>
       </c>
       <c r="D35">
         <v>72366</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>4.144730438175611</v>
+        <v>5.513119610934519</v>
       </c>
       <c r="B36">
-        <v>6.686469944268392</v>
+        <v>8.984074598046437</v>
       </c>
       <c r="C36">
-        <v>7.977386667951942</v>
+        <v>11.34629376120865</v>
       </c>
       <c r="D36">
         <v>6118</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>6.58531638525892</v>
+        <v>6.884698634361849</v>
       </c>
       <c r="B37">
-        <v>6.598871581926645</v>
+        <v>6.884698634361849</v>
       </c>
       <c r="C37">
-        <v>6.609578577429057</v>
+        <v>6.884698634361849</v>
       </c>
       <c r="D37">
         <v>7371</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>3.999912010482512</v>
+        <v>4.869460147921927</v>
       </c>
       <c r="B38">
-        <v>5.672174377643793</v>
+        <v>7.249688629678056</v>
       </c>
       <c r="C38">
-        <v>7.862797355465591</v>
+        <v>10.46826653042808</v>
       </c>
       <c r="D38">
         <v>27169</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>6.570123034599237</v>
+        <v>5.795542884618044</v>
       </c>
       <c r="B39">
-        <v>9.75890515442083</v>
+        <v>5.795542884618044</v>
       </c>
       <c r="C39">
-        <v>11.4749959600158</v>
+        <v>5.795542884618044</v>
       </c>
       <c r="D39">
         <v>50784</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>4.557764239842072</v>
+        <v>4.179633994423784</v>
       </c>
       <c r="B40">
-        <v>5.621931115008338</v>
+        <v>4.481396128549941</v>
       </c>
       <c r="C40">
-        <v>6.910024201404303</v>
+        <v>4.807387638092041</v>
       </c>
       <c r="D40">
         <v>66159</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>5.603785744355991</v>
+        <v>5.452242391789332</v>
       </c>
       <c r="B41">
-        <v>7.565971550139056</v>
+        <v>5.452242391789332</v>
       </c>
       <c r="C41">
-        <v>8.611344983801246</v>
+        <v>5.452242391789332</v>
       </c>
       <c r="D41">
         <v>36236</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>6.072350900410674</v>
+        <v>4.441565166553483</v>
       </c>
       <c r="B42">
-        <v>6.072350900410674</v>
+        <v>5.984647475583319</v>
       </c>
       <c r="C42">
-        <v>6.072350900410674</v>
+        <v>6.806278563011437</v>
       </c>
       <c r="D42">
         <v>71673</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>6.073661389015615</v>
+        <v>6.115808342769742</v>
       </c>
       <c r="B43">
-        <v>7.396886186200001</v>
+        <v>8.630340449992328</v>
       </c>
       <c r="C43">
-        <v>8.325065212976186</v>
+        <v>10.8983725762926</v>
       </c>
       <c r="D43">
         <v>45805</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>6.526315979589708</v>
+        <v>4.491513568977825</v>
       </c>
       <c r="B44">
-        <v>9.316263194107449</v>
+        <v>4.551801856882402</v>
       </c>
       <c r="C44">
-        <v>10.55706884125247</v>
+        <v>4.615723056253046</v>
       </c>
       <c r="D44">
         <v>42117</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>5.378255426161923</v>
+        <v>4.522107784938998</v>
       </c>
       <c r="B45">
-        <v>5.378255426161923</v>
+        <v>5.140771766201959</v>
       </c>
       <c r="C45">
-        <v>5.378255426161923</v>
+        <v>5.759047644678503</v>
       </c>
       <c r="D45">
         <v>57419</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>4.00464801795315</v>
+        <v>4.528030272130854</v>
       </c>
       <c r="B46">
-        <v>5.845477876002978</v>
+        <v>6.283668044787401</v>
       </c>
       <c r="C46">
-        <v>8.56803042255342</v>
+        <v>7.11276255948469</v>
       </c>
       <c r="D46">
         <v>26015</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>6.355728149157949</v>
+        <v>6.108232189668342</v>
       </c>
       <c r="B47">
-        <v>8.0402688167484</v>
+        <v>8.64684629581282</v>
       </c>
       <c r="C47">
-        <v>9.821053407527506</v>
+        <v>10.28674989445135</v>
       </c>
       <c r="D47">
         <v>26727</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>5.262499225349165</v>
+        <v>5.188488308340311</v>
       </c>
       <c r="B48">
-        <v>6.238171621987252</v>
+        <v>5.188488308340311</v>
       </c>
       <c r="C48">
-        <v>6.755023542698472</v>
+        <v>5.188488308340311</v>
       </c>
       <c r="D48">
         <v>66638</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4.390833907481283</v>
+        <v>6.112124600959942</v>
       </c>
       <c r="B49">
-        <v>4.836462338970479</v>
+        <v>8.425455494709491</v>
       </c>
       <c r="C49">
-        <v>5.120244245044887</v>
+        <v>9.817182999756186</v>
       </c>
       <c r="D49">
         <v>32399</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>4.882622969406657</v>
+        <v>5.267036822647787</v>
       </c>
       <c r="B50">
-        <v>4.882622969406657</v>
+        <v>7.691042756521261</v>
       </c>
       <c r="C50">
-        <v>4.882622969406657</v>
+        <v>11.07846207888797</v>
       </c>
       <c r="D50">
         <v>3253</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>4.572324056830257</v>
+        <v>4.542404823191464</v>
       </c>
       <c r="B51">
-        <v>8.703732096644474</v>
+        <v>7.499325299433161</v>
       </c>
       <c r="C51">
-        <v>10.68433893788606</v>
+        <v>9.173965831566601</v>
       </c>
       <c r="D51">
         <v>71796</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>6.510115322633647</v>
+        <v>5.356308667222038</v>
       </c>
       <c r="B52">
-        <v>8.625873311083316</v>
+        <v>5.356308667222038</v>
       </c>
       <c r="C52">
-        <v>10.46130740782246</v>
+        <v>5.356308667222038</v>
       </c>
       <c r="D52">
         <v>28291</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>5.633870833227411</v>
+        <v>5.832081865356304</v>
       </c>
       <c r="B53">
-        <v>6.4420665056493</v>
+        <v>6.73094313099275</v>
       </c>
       <c r="C53">
-        <v>7.517186712753027</v>
+        <v>7.333705137111247</v>
       </c>
       <c r="D53">
         <v>51169</v>
@@ -1109,13 +1109,13 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>5.687750080018304</v>
+        <v>4.727550419326872</v>
       </c>
       <c r="B54">
-        <v>6.211030300023498</v>
+        <v>6.262688521877755</v>
       </c>
       <c r="C54">
-        <v>6.687940997537225</v>
+        <v>7.278927505016327</v>
       </c>
       <c r="D54">
         <v>66315</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>5.782286798255518</v>
+        <v>4.982391384197399</v>
       </c>
       <c r="B55">
-        <v>8.638983998435597</v>
+        <v>8.015288540749507</v>
       </c>
       <c r="C55">
-        <v>10.40191051363945</v>
+        <v>10.16595582040027</v>
       </c>
       <c r="D55">
         <v>37726</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>5.073551765317097</v>
+        <v>5.992222890513949</v>
       </c>
       <c r="B56">
-        <v>5.073551765317097</v>
+        <v>7.203866419575355</v>
       </c>
       <c r="C56">
-        <v>5.073551765317097</v>
+        <v>7.770503378100694</v>
       </c>
       <c r="D56">
         <v>54385</v>
@@ -1151,13 +1151,13 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>6.383831593231298</v>
+        <v>5.727051038155333</v>
       </c>
       <c r="B57">
-        <v>6.74047722533195</v>
+        <v>5.727051038155333</v>
       </c>
       <c r="C57">
-        <v>6.975308725051582</v>
+        <v>5.727051038155333</v>
       </c>
       <c r="D57">
         <v>2458</v>
@@ -1165,13 +1165,13 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>6.817325671948493</v>
+        <v>6.602472237800248</v>
       </c>
       <c r="B58">
-        <v>7.475627773668407</v>
+        <v>9.543702785836395</v>
       </c>
       <c r="C58">
-        <v>8.165317301545292</v>
+        <v>11.41839716471732</v>
       </c>
       <c r="D58">
         <v>35512</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>5.525563717749901</v>
+        <v>6.635701453615911</v>
       </c>
       <c r="B59">
-        <v>5.606540252847949</v>
+        <v>6.635701453615911</v>
       </c>
       <c r="C59">
-        <v>5.705688498355448</v>
+        <v>6.635701453615911</v>
       </c>
       <c r="D59">
         <v>8154</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>5.280414840625599</v>
+        <v>4.205835639336146</v>
       </c>
       <c r="B60">
-        <v>5.844824212930839</v>
+        <v>4.913074347346177</v>
       </c>
       <c r="C60">
-        <v>6.646956099104136</v>
+        <v>5.565925527457148</v>
       </c>
       <c r="D60">
         <v>63973</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>6.925050543085672</v>
+        <v>6.525850939960219</v>
       </c>
       <c r="B61">
-        <v>9.469134071764966</v>
+        <v>8.250622356459408</v>
       </c>
       <c r="C61">
-        <v>10.71843901555985</v>
+        <v>8.990442918334155</v>
       </c>
       <c r="D61">
         <v>45277</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>4.585533582209609</v>
+        <v>5.619451760919764</v>
       </c>
       <c r="B62">
-        <v>4.585533582209609</v>
+        <v>8.900915814214802</v>
       </c>
       <c r="C62">
-        <v>4.585533582209609</v>
+        <v>11.05879930825904</v>
       </c>
       <c r="D62">
         <v>33175</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>3.974214152246713</v>
+        <v>6.927714225556701</v>
       </c>
       <c r="B63">
-        <v>6.591809125896057</v>
+        <v>7.921402206241536</v>
       </c>
       <c r="C63">
-        <v>8.092537100054324</v>
+        <v>9.028026844840497</v>
       </c>
       <c r="D63">
         <v>2346</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>5.449893258861266</v>
+        <v>5.247990258131177</v>
       </c>
       <c r="B64">
-        <v>5.854784747864083</v>
+        <v>5.88017277276838</v>
       </c>
       <c r="C64">
-        <v>6.103239906020463</v>
+        <v>6.660374632105231</v>
       </c>
       <c r="D64">
         <v>42072</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>5.070719487755559</v>
+        <v>5.112497986922972</v>
       </c>
       <c r="B65">
-        <v>6.465527286206762</v>
+        <v>5.825142115541864</v>
       </c>
       <c r="C65">
-        <v>8.290188552718609</v>
+        <v>6.858122887741774</v>
       </c>
       <c r="D65">
         <v>53401</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>4.091168786096387</v>
+        <v>5.426866653794423</v>
       </c>
       <c r="B66">
-        <v>6.993631819154918</v>
+        <v>7.524536185557239</v>
       </c>
       <c r="C66">
-        <v>8.38506042547524</v>
+        <v>9.193794265761971</v>
       </c>
       <c r="D66">
         <v>7547</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>5.914896730310284</v>
+        <v>5.828747539152391</v>
       </c>
       <c r="B67">
-        <v>7.56163374457502</v>
+        <v>5.828747539152391</v>
       </c>
       <c r="C67">
-        <v>9.529096616432071</v>
+        <v>5.828747539152391</v>
       </c>
       <c r="D67">
         <v>31720</v>
@@ -1305,13 +1305,13 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>5.333348662499338</v>
+        <v>5.1863701794995</v>
       </c>
       <c r="B68">
-        <v>7.028116980585745</v>
+        <v>7.458319528510863</v>
       </c>
       <c r="C68">
-        <v>8.123949151393026</v>
+        <v>8.621634200494736</v>
       </c>
       <c r="D68">
         <v>5563</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>6.906215874385088</v>
+        <v>3.940820952760987</v>
       </c>
       <c r="B69">
-        <v>7.266216538701566</v>
+        <v>4.603137314155547</v>
       </c>
       <c r="C69">
-        <v>7.525786826759576</v>
+        <v>5.168437121529132</v>
       </c>
       <c r="D69">
         <v>13491</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>4.379880104353651</v>
+        <v>6.544464889145456</v>
       </c>
       <c r="B70">
-        <v>4.927149838069841</v>
+        <v>6.544464889145456</v>
       </c>
       <c r="C70">
-        <v>5.267321094032377</v>
+        <v>6.544464889145456</v>
       </c>
       <c r="D70">
         <v>44033</v>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>3.926785300322808</v>
+        <v>5.204408707283437</v>
       </c>
       <c r="B71">
-        <v>6.605525230848188</v>
+        <v>5.638492350644758</v>
       </c>
       <c r="C71">
-        <v>10.23593805572018</v>
+        <v>6.203704733029008</v>
       </c>
       <c r="D71">
         <v>37132</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>5.506318577053025</v>
+        <v>4.016012681392022</v>
       </c>
       <c r="B72">
-        <v>7.454627848957188</v>
+        <v>7.67853643887726</v>
       </c>
       <c r="C72">
-        <v>9.549429593607783</v>
+        <v>11.37949863700196</v>
       </c>
       <c r="D72">
         <v>48796</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>6.963595042051748</v>
+        <v>5.236108307214454</v>
       </c>
       <c r="B73">
-        <v>9.045198202155754</v>
+        <v>8.913909297957279</v>
       </c>
       <c r="C73">
-        <v>10.84817423829809</v>
+        <v>10.57506201453507</v>
       </c>
       <c r="D73">
         <v>53440</v>
@@ -1389,13 +1389,13 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>6.96450909790583</v>
+        <v>5.166086276108399</v>
       </c>
       <c r="B74">
-        <v>6.96450909790583</v>
+        <v>6.583946996402279</v>
       </c>
       <c r="C74">
-        <v>6.96450909790583</v>
+        <v>7.256667162012309</v>
       </c>
       <c r="D74">
         <v>16817</v>
@@ -1403,13 +1403,13 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>6.625689686671831</v>
+        <v>5.212838661740534</v>
       </c>
       <c r="B75">
-        <v>8.768504845362298</v>
+        <v>7.481562769513148</v>
       </c>
       <c r="C75">
-        <v>9.758200095500797</v>
+        <v>10.37554688611999</v>
       </c>
       <c r="D75">
         <v>31563</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>5.641321310144849</v>
+        <v>6.134599193232134</v>
       </c>
       <c r="B76">
-        <v>6.226640880128429</v>
+        <v>9.476796252996559</v>
       </c>
       <c r="C76">
-        <v>7.066099525988102</v>
+        <v>11.0195828362368</v>
       </c>
       <c r="D76">
         <v>20387</v>
@@ -1431,13 +1431,13 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>6.167216360452585</v>
+        <v>5.010383573151193</v>
       </c>
       <c r="B77">
-        <v>6.167216360452585</v>
+        <v>5.229186593104269</v>
       </c>
       <c r="C77">
-        <v>6.167216360452585</v>
+        <v>5.530730285868048</v>
       </c>
       <c r="D77">
         <v>71279</v>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>4.658743590977974</v>
+        <v>4.993978685629554</v>
       </c>
       <c r="B78">
-        <v>4.694485577150722</v>
+        <v>6.361688951457464</v>
       </c>
       <c r="C78">
-        <v>4.729100369196385</v>
+        <v>8.013601794838905</v>
       </c>
       <c r="D78">
         <v>55824</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>5.97986552445218</v>
+        <v>6.078031081240624</v>
       </c>
       <c r="B79">
-        <v>8.376802820050315</v>
+        <v>6.649819784076528</v>
       </c>
       <c r="C79">
-        <v>10.05118266437203</v>
+        <v>7.106854446139186</v>
       </c>
       <c r="D79">
         <v>29281</v>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>5.524969287682325</v>
+        <v>5.167394006089308</v>
       </c>
       <c r="B80">
-        <v>5.524969287682325</v>
+        <v>5.167394006089308</v>
       </c>
       <c r="C80">
-        <v>5.524969287682325</v>
+        <v>5.167394006089308</v>
       </c>
       <c r="D80">
         <v>30683</v>
@@ -1487,13 +1487,13 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>5.278963337396272</v>
+        <v>4.773819766426459</v>
       </c>
       <c r="B81">
-        <v>8.452435910985667</v>
+        <v>7.234965940074392</v>
       </c>
       <c r="C81">
-        <v>10.7456882506609</v>
+        <v>9.567570630926639</v>
       </c>
       <c r="D81">
         <v>8045</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>6.545134601788595</v>
+        <v>4.452418762771413</v>
       </c>
       <c r="B82">
-        <v>8.156072129386903</v>
+        <v>5.119501034963048</v>
       </c>
       <c r="C82">
-        <v>8.951105537265539</v>
+        <v>5.422715476434678</v>
       </c>
       <c r="D82">
         <v>17308</v>
@@ -1515,13 +1515,13 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>6.84625963724684</v>
+        <v>3.919857795583084</v>
       </c>
       <c r="B83">
-        <v>6.84625963724684</v>
+        <v>3.919857795583084</v>
       </c>
       <c r="C83">
-        <v>6.84625963724684</v>
+        <v>3.919857795583084</v>
       </c>
       <c r="D83">
         <v>67981</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>4.353059223410673</v>
+        <v>4.745313265873119</v>
       </c>
       <c r="B84">
-        <v>4.353059223410673</v>
+        <v>7.383170660998877</v>
       </c>
       <c r="C84">
-        <v>4.353059223410673</v>
+        <v>8.78456559125334</v>
       </c>
       <c r="D84">
         <v>62861</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6.185685170791112</v>
+        <v>6.933621238614433</v>
       </c>
       <c r="B85">
-        <v>7.528437706507555</v>
+        <v>6.933621238614433</v>
       </c>
       <c r="C85">
-        <v>8.911238698475062</v>
+        <v>6.933621238614433</v>
       </c>
       <c r="D85">
         <v>72081</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>4.822834329865873</v>
+        <v>5.529466278641484</v>
       </c>
       <c r="B86">
-        <v>5.411424649688506</v>
+        <v>6.970602539897477</v>
       </c>
       <c r="C86">
-        <v>5.999342025816441</v>
+        <v>8.813641060981899</v>
       </c>
       <c r="D86">
         <v>11933</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>5.104177804337814</v>
+        <v>6.398373517417349</v>
       </c>
       <c r="B87">
-        <v>5.104177804337814</v>
+        <v>6.398373517417349</v>
       </c>
       <c r="C87">
-        <v>5.104177804337814</v>
+        <v>6.398373517417349</v>
       </c>
       <c r="D87">
         <v>12482</v>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>6.395594490971416</v>
+        <v>4.690668289433233</v>
       </c>
       <c r="B88">
-        <v>6.395594490971416</v>
+        <v>8.171682820726508</v>
       </c>
       <c r="C88">
-        <v>6.395594490971416</v>
+        <v>11.20015257755294</v>
       </c>
       <c r="D88">
         <v>56939</v>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>4.365389387216419</v>
+        <v>5.555669441446662</v>
       </c>
       <c r="B89">
-        <v>4.365389387216419</v>
+        <v>8.528758506516862</v>
       </c>
       <c r="C89">
-        <v>4.365389387216419</v>
+        <v>11.2664669116959</v>
       </c>
       <c r="D89">
         <v>24669</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>6.714051663130522</v>
+        <v>4.352193102077581</v>
       </c>
       <c r="B90">
-        <v>8.547868576673432</v>
+        <v>6.708331577932279</v>
       </c>
       <c r="C90">
-        <v>10.88860565787181</v>
+        <v>8.828990286495536</v>
       </c>
       <c r="D90">
         <v>43054</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>6.099363986426033</v>
+        <v>6.582102362345904</v>
       </c>
       <c r="B91">
-        <v>6.883671346495487</v>
+        <v>6.582102362345904</v>
       </c>
       <c r="C91">
-        <v>7.377826861664653</v>
+        <v>6.582102362345904</v>
       </c>
       <c r="D91">
         <v>66258</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6.32301259029191</v>
+        <v>4.094186204718426</v>
       </c>
       <c r="B92">
-        <v>6.32301259029191</v>
+        <v>4.88030094750039</v>
       </c>
       <c r="C92">
-        <v>6.32301259029191</v>
+        <v>6.011859352979808</v>
       </c>
       <c r="D92">
         <v>34567</v>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>5.147522520599887</v>
+        <v>6.628551085689105</v>
       </c>
       <c r="B93">
-        <v>8.593203736138012</v>
+        <v>8.25677333752507</v>
       </c>
       <c r="C93">
-        <v>10.47232660520822</v>
+        <v>9.25357608916238</v>
       </c>
       <c r="D93">
         <v>20426</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>5.209275418100878</v>
+        <v>5.939329534233548</v>
       </c>
       <c r="B94">
-        <v>8.354516295421668</v>
+        <v>5.939329534233548</v>
       </c>
       <c r="C94">
-        <v>11.48259393870831</v>
+        <v>5.939329534233548</v>
       </c>
       <c r="D94">
         <v>3512</v>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>5.656108302925714</v>
+        <v>6.258276027254761</v>
       </c>
       <c r="B95">
-        <v>7.111589410684815</v>
+        <v>7.258311758096263</v>
       </c>
       <c r="C95">
-        <v>8.388026505988091</v>
+        <v>7.847354648355394</v>
       </c>
       <c r="D95">
         <v>42899</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>5.946059124660678</v>
+        <v>5.876376519072801</v>
       </c>
       <c r="B96">
-        <v>8.539286980432205</v>
+        <v>7.487095856893136</v>
       </c>
       <c r="C96">
-        <v>10.36617529457435</v>
+        <v>8.324311101436615</v>
       </c>
       <c r="D96">
         <v>43364</v>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>6.130732138617896</v>
+        <v>4.588218035921455</v>
       </c>
       <c r="B97">
-        <v>6.130732138617896</v>
+        <v>6.200453806292252</v>
       </c>
       <c r="C97">
-        <v>6.130732138617896</v>
+        <v>6.902845775987952</v>
       </c>
       <c r="D97">
         <v>60739</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>6.653722511557862</v>
+        <v>4.029413396306336</v>
       </c>
       <c r="B98">
-        <v>6.653722511557862</v>
+        <v>5.825145906792454</v>
       </c>
       <c r="C98">
-        <v>6.653722511557862</v>
+        <v>7.64570838054642</v>
       </c>
       <c r="D98">
         <v>2182</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>4.786164232925512</v>
+        <v>4.51808095604647</v>
       </c>
       <c r="B99">
-        <v>5.068468030502952</v>
+        <v>4.51808095604647</v>
       </c>
       <c r="C99">
-        <v>5.223684154078365</v>
+        <v>4.51808095604647</v>
       </c>
       <c r="D99">
         <v>40899</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>4.155370835773647</v>
+        <v>5.217902056965977</v>
       </c>
       <c r="B100">
-        <v>4.607176725092331</v>
+        <v>7.477974788909908</v>
       </c>
       <c r="C100">
-        <v>4.875878262519836</v>
+        <v>10.28633677158505</v>
       </c>
       <c r="D100">
         <v>14431</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>6.70196728608571</v>
+        <v>3.964804567233659</v>
       </c>
       <c r="B101">
-        <v>6.70196728608571</v>
+        <v>5.311999094643553</v>
       </c>
       <c r="C101">
-        <v>6.70196728608571</v>
+        <v>5.930344697833061</v>
       </c>
       <c r="D101">
         <v>65105</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>6.514444943354465</v>
+        <v>4.150438274536282</v>
       </c>
       <c r="B102">
-        <v>6.514444943354465</v>
+        <v>7.719936103312933</v>
       </c>
       <c r="C102">
-        <v>6.514444943354465</v>
+        <v>9.535578301455825</v>
       </c>
       <c r="D102">
         <v>8003</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>3.971799851697869</v>
+        <v>6.662717021815479</v>
       </c>
       <c r="B103">
-        <v>4.121045075715254</v>
+        <v>6.662717021815479</v>
       </c>
       <c r="C103">
-        <v>4.220535684190691</v>
+        <v>6.662717021815479</v>
       </c>
       <c r="D103">
         <v>41081</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4.444416701071896</v>
+        <v>5.66751539662946</v>
       </c>
       <c r="B104">
-        <v>4.453172633561545</v>
+        <v>7.611699629396381</v>
       </c>
       <c r="C104">
-        <v>4.461228819750249</v>
+        <v>8.766111652739346</v>
       </c>
       <c r="D104">
         <v>24905</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>4.709539610589855</v>
+        <v>4.594233685499058</v>
       </c>
       <c r="B105">
-        <v>4.709539610589855</v>
+        <v>6.402517434585495</v>
       </c>
       <c r="C105">
-        <v>4.709539610589855</v>
+        <v>7.496981241367758</v>
       </c>
       <c r="D105">
         <v>66071</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>4.091119574033655</v>
+        <v>5.991479841200634</v>
       </c>
       <c r="B106">
-        <v>5.537654592449973</v>
+        <v>7.808573686265029</v>
       </c>
       <c r="C106">
-        <v>6.349664978682995</v>
+        <v>9.654704441502689</v>
       </c>
       <c r="D106">
         <v>36255</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>6.811866266932339</v>
+        <v>6.481961737573147</v>
       </c>
       <c r="B107">
-        <v>6.811866266932339</v>
+        <v>6.772311666042875</v>
       </c>
       <c r="C107">
-        <v>6.811866266932339</v>
+        <v>7.133937311638146</v>
       </c>
       <c r="D107">
         <v>69112</v>
@@ -1865,13 +1865,13 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>5.77187993384432</v>
+        <v>4.509907153039239</v>
       </c>
       <c r="B108">
-        <v>7.232137928925606</v>
+        <v>4.9310542471606</v>
       </c>
       <c r="C108">
-        <v>9.258848611172288</v>
+        <v>5.30772023415193</v>
       </c>
       <c r="D108">
         <v>64373</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5.921954634529539</v>
+        <v>4.31240382057149</v>
       </c>
       <c r="B109">
-        <v>7.088157247591876</v>
+        <v>6.019517660907753</v>
       </c>
       <c r="C109">
-        <v>8.592963326349855</v>
+        <v>7.150075895618647</v>
       </c>
       <c r="D109">
         <v>35684</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>4.281092570954934</v>
+        <v>6.451603407063521</v>
       </c>
       <c r="B110">
-        <v>6.64244145559977</v>
+        <v>8.87329315416855</v>
       </c>
       <c r="C110">
-        <v>9.202504491247236</v>
+        <v>10.20007087523118</v>
       </c>
       <c r="D110">
         <v>491</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>6.304035596223548</v>
+        <v>5.00352704920806</v>
       </c>
       <c r="B111">
-        <v>8.672112367329941</v>
+        <v>5.779021237776769</v>
       </c>
       <c r="C111">
-        <v>11.29970834739506</v>
+        <v>6.853610442299395</v>
       </c>
       <c r="D111">
         <v>54695</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>5.547240055748262</v>
+        <v>5.4847952170996</v>
       </c>
       <c r="B112">
-        <v>7.170060879915264</v>
+        <v>8.62516680102248</v>
       </c>
       <c r="C112">
-        <v>8.440314182173461</v>
+        <v>10.28858352918178</v>
       </c>
       <c r="D112">
         <v>68627</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>6.332024127221667</v>
+        <v>6.07125572306104</v>
       </c>
       <c r="B113">
-        <v>8.524655068890301</v>
+        <v>6.575748253869052</v>
       </c>
       <c r="C113">
-        <v>9.953557406552136</v>
+        <v>6.971281120833009</v>
       </c>
       <c r="D113">
         <v>62019</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>6.597260082582943</v>
+        <v>5.881145138503053</v>
       </c>
       <c r="B114">
-        <v>7.737883035711228</v>
+        <v>7.619342678253872</v>
       </c>
       <c r="C114">
-        <v>9.229162578098476</v>
+        <v>10.1141495808959</v>
       </c>
       <c r="D114">
         <v>51314</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>5.904370945529081</v>
+        <v>4.947988890646957</v>
       </c>
       <c r="B115">
-        <v>6.461619048537907</v>
+        <v>4.947988890646957</v>
       </c>
       <c r="C115">
-        <v>7.160987357981503</v>
+        <v>4.947988890646957</v>
       </c>
       <c r="D115">
         <v>54921</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>6.926889254059643</v>
+        <v>6.685604589199647</v>
       </c>
       <c r="B116">
-        <v>6.926889254059643</v>
+        <v>6.685604589199647</v>
       </c>
       <c r="C116">
-        <v>6.926889254059643</v>
+        <v>6.685604589199647</v>
       </c>
       <c r="D116">
         <v>33454</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>6.976846393570304</v>
+        <v>6.174758047354407</v>
       </c>
       <c r="B117">
-        <v>7.087374506734816</v>
+        <v>7.807679923884817</v>
       </c>
       <c r="C117">
-        <v>7.229905410017818</v>
+        <v>9.16698179775849</v>
       </c>
       <c r="D117">
         <v>33943</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>4.729254640522413</v>
+        <v>4.953917774208821</v>
       </c>
       <c r="B118">
-        <v>7.796621775677075</v>
+        <v>7.047287861516061</v>
       </c>
       <c r="C118">
-        <v>10.00295212911442</v>
+        <v>9.724279322568327</v>
       </c>
       <c r="D118">
         <v>62439</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>6.180795763037167</v>
+        <v>6.227519668149762</v>
       </c>
       <c r="B119">
-        <v>7.416877488823638</v>
+        <v>7.644330270421978</v>
       </c>
       <c r="C119">
-        <v>8.650621889997273</v>
+        <v>8.96796778831631</v>
       </c>
       <c r="D119">
         <v>31179</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>5.931469495478086</v>
+        <v>5.071615713601932</v>
       </c>
       <c r="B120">
-        <v>8.06530596906827</v>
+        <v>7.709369615345796</v>
       </c>
       <c r="C120">
-        <v>10.34606427978724</v>
+        <v>11.43526218682528</v>
       </c>
       <c r="D120">
         <v>2548</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>6.656244666222483</v>
+        <v>6.243727882090025</v>
       </c>
       <c r="B121">
-        <v>6.656244666222483</v>
+        <v>6.243727882090025</v>
       </c>
       <c r="C121">
-        <v>6.656244666222483</v>
+        <v>6.243727882090025</v>
       </c>
       <c r="D121">
         <v>68025</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>5.653578388458118</v>
+        <v>6.226096857641823</v>
       </c>
       <c r="B122">
-        <v>5.653578388458118</v>
+        <v>8.322154468624367</v>
       </c>
       <c r="C122">
-        <v>5.653578388458118</v>
+        <v>10.08902675351128</v>
       </c>
       <c r="D122">
         <v>29552</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>5.277469868003391</v>
+        <v>5.833674492919817</v>
       </c>
       <c r="B123">
-        <v>7.313048034655241</v>
+        <v>7.294732081890341</v>
       </c>
       <c r="C123">
-        <v>10.14809845192358</v>
+        <v>8.600471074040978</v>
       </c>
       <c r="D123">
         <v>25904</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>3.916043162043206</v>
+        <v>6.388506942009553</v>
       </c>
       <c r="B124">
-        <v>6.300810309016754</v>
+        <v>6.967825248365483</v>
       </c>
       <c r="C124">
-        <v>8.802854168787599</v>
+        <v>7.572306289058178</v>
       </c>
       <c r="D124">
         <v>20463</v>
@@ -2103,13 +2103,13 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>6.755614325590432</v>
+        <v>6.716861014952883</v>
       </c>
       <c r="B125">
-        <v>6.755614325590432</v>
+        <v>7.605752357969097</v>
       </c>
       <c r="C125">
-        <v>6.755614325590432</v>
+        <v>8.614831759408116</v>
       </c>
       <c r="D125">
         <v>12689</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>6.213950313394889</v>
+        <v>5.782328002946452</v>
       </c>
       <c r="B126">
-        <v>7.726534131180236</v>
+        <v>5.782328002946452</v>
       </c>
       <c r="C126">
-        <v>8.878437623754143</v>
+        <v>5.782328002946452</v>
       </c>
       <c r="D126">
         <v>8899</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>6.851572223845869</v>
+        <v>6.151668800879269</v>
       </c>
       <c r="B127">
-        <v>7.833465330222561</v>
+        <v>7.901180971235704</v>
       </c>
       <c r="C127">
-        <v>9.161847756057977</v>
+        <v>8.80640714187175</v>
       </c>
       <c r="D127">
         <v>39186</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>6.509914371091872</v>
+        <v>5.501429089182056</v>
       </c>
       <c r="B128">
-        <v>7.35567032413157</v>
+        <v>7.917271149572608</v>
       </c>
       <c r="C128">
-        <v>8.021320587024093</v>
+        <v>9.150030320789664</v>
       </c>
       <c r="D128">
         <v>39105</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>6.724409386934712</v>
+        <v>6.33395040682517</v>
       </c>
       <c r="B129">
-        <v>6.724409386934712</v>
+        <v>6.704188439058242</v>
       </c>
       <c r="C129">
-        <v>6.724409386934712</v>
+        <v>6.97649980187416</v>
       </c>
       <c r="D129">
         <v>68356</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>4.484614380914718</v>
+        <v>5.242014325666242</v>
       </c>
       <c r="B130">
-        <v>4.738646517314213</v>
+        <v>5.572220335258104</v>
       </c>
       <c r="C130">
-        <v>4.872806166950613</v>
+        <v>5.729728268831968</v>
       </c>
       <c r="D130">
         <v>36857</v>
@@ -2187,13 +2187,13 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>5.829262531385757</v>
+        <v>4.118694347515702</v>
       </c>
       <c r="B131">
-        <v>7.95235601867336</v>
+        <v>7.542166517194675</v>
       </c>
       <c r="C131">
-        <v>9.542122867889702</v>
+        <v>10.12034422438592</v>
       </c>
       <c r="D131">
         <v>32221</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>4.642537704040296</v>
+        <v>6.826072461088188</v>
       </c>
       <c r="B132">
-        <v>6.387156149498265</v>
+        <v>8.277400786471057</v>
       </c>
       <c r="C132">
-        <v>7.68073545647785</v>
+        <v>8.943054768536239</v>
       </c>
       <c r="D132">
         <v>10548</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>5.766801124392077</v>
+        <v>4.086314318748191</v>
       </c>
       <c r="B133">
-        <v>8.823504460254895</v>
+        <v>6.601281170214776</v>
       </c>
       <c r="C133">
-        <v>11.17433959236369</v>
+        <v>9.704953989200293</v>
       </c>
       <c r="D133">
         <v>52282</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>5.908653251733631</v>
+        <v>6.7481743555516</v>
       </c>
       <c r="B134">
-        <v>7.066472692749365</v>
+        <v>8.561706536642516</v>
       </c>
       <c r="C134">
-        <v>7.652826352324336</v>
+        <v>11.16736290380359</v>
       </c>
       <c r="D134">
         <v>45535</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>4.14797883850988</v>
+        <v>6.541139062563889</v>
       </c>
       <c r="B135">
-        <v>8.585509971169238</v>
+        <v>7.065692764258565</v>
       </c>
       <c r="C135">
-        <v>11.3158534290269</v>
+        <v>7.536847319267689</v>
       </c>
       <c r="D135">
         <v>43424</v>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>5.881540287937969</v>
+        <v>4.358224125462584</v>
       </c>
       <c r="B136">
-        <v>7.827510115607523</v>
+        <v>7.900778716199333</v>
       </c>
       <c r="C136">
-        <v>10.2783531576395</v>
+        <v>10.69870244031772</v>
       </c>
       <c r="D136">
         <v>30468</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>6.367609114130028</v>
+        <v>5.587024475377985</v>
       </c>
       <c r="B137">
-        <v>7.234553153561533</v>
+        <v>8.436003794843021</v>
       </c>
       <c r="C137">
-        <v>8.527378006745129</v>
+        <v>11.38100524097681</v>
       </c>
       <c r="D137">
         <v>16523</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>5.735903714573942</v>
+        <v>5.594156854506582</v>
       </c>
       <c r="B138">
-        <v>8.256422207350576</v>
+        <v>7.748693156658735</v>
       </c>
       <c r="C138">
-        <v>10.10465373061597</v>
+        <v>10.75570848369971</v>
       </c>
       <c r="D138">
         <v>32257</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>4.907935360819101</v>
+        <v>5.117727521760389</v>
       </c>
       <c r="B139">
-        <v>6.610280018283793</v>
+        <v>7.777277886905706</v>
       </c>
       <c r="C139">
-        <v>7.533135132491589</v>
+        <v>10.2154579824768</v>
       </c>
       <c r="D139">
         <v>28674</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>6.64325538543053</v>
+        <v>5.580389318382368</v>
       </c>
       <c r="B140">
-        <v>6.64325538543053</v>
+        <v>5.580389318382368</v>
       </c>
       <c r="C140">
-        <v>6.64325538543053</v>
+        <v>5.580389318382368</v>
       </c>
       <c r="D140">
         <v>67855</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>3.966335847531445</v>
+        <v>6.768064407981001</v>
       </c>
       <c r="B141">
-        <v>4.086258169096403</v>
+        <v>6.768064407981001</v>
       </c>
       <c r="C141">
-        <v>4.146815795265138</v>
+        <v>6.768064407981001</v>
       </c>
       <c r="D141">
         <v>49589</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>5.631807488552295</v>
+        <v>5.365931663778611</v>
       </c>
       <c r="B142">
-        <v>5.631807488552295</v>
+        <v>6.575982391687267</v>
       </c>
       <c r="C142">
-        <v>5.631807488552295</v>
+        <v>7.338525543268769</v>
       </c>
       <c r="D142">
         <v>17986</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>5.598158304346725</v>
+        <v>6.440350100514479</v>
       </c>
       <c r="B143">
-        <v>9.509864858223519</v>
+        <v>6.440350100514479</v>
       </c>
       <c r="C143">
-        <v>11.45208836989477</v>
+        <v>6.440350100514479</v>
       </c>
       <c r="D143">
         <v>29217</v>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>3.971446098946035</v>
+        <v>5.066193962865509</v>
       </c>
       <c r="B144">
-        <v>5.872406568772584</v>
+        <v>6.819779506112869</v>
       </c>
       <c r="C144">
-        <v>8.447170736733824</v>
+        <v>7.99719936940819</v>
       </c>
       <c r="D144">
         <v>47175</v>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>5.670506092975847</v>
+        <v>6.151155231986195</v>
       </c>
       <c r="B145">
-        <v>8.017266741152106</v>
+        <v>9.396341263999791</v>
       </c>
       <c r="C145">
-        <v>10.15836238050833</v>
+        <v>10.99256027042866</v>
       </c>
       <c r="D145">
         <v>4057</v>
@@ -2397,13 +2397,13 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>6.299616974871606</v>
+        <v>6.025191475544124</v>
       </c>
       <c r="B146">
-        <v>6.299616974871606</v>
+        <v>7.233782985036256</v>
       </c>
       <c r="C146">
-        <v>6.299616974871606</v>
+        <v>8.96227119192481</v>
       </c>
       <c r="D146">
         <v>48588</v>
@@ -2411,13 +2411,13 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>5.160565699939616</v>
+        <v>6.280175410327502</v>
       </c>
       <c r="B147">
-        <v>6.347426151381716</v>
+        <v>6.280175410327502</v>
       </c>
       <c r="C147">
-        <v>7.892773188743741</v>
+        <v>6.280175410327502</v>
       </c>
       <c r="D147">
         <v>45801</v>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>4.912257654801943</v>
+        <v>6.056821915716864</v>
       </c>
       <c r="B148">
-        <v>7.6838212805533</v>
+        <v>6.056821915716864</v>
       </c>
       <c r="C148">
-        <v>9.128345756046473</v>
+        <v>6.056821915716864</v>
       </c>
       <c r="D148">
         <v>36275</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>5.724157427763567</v>
+        <v>6.755000313045457</v>
       </c>
       <c r="B149">
-        <v>6.09126313328204</v>
+        <v>7.574818008079345</v>
       </c>
       <c r="C149">
-        <v>6.295621632505208</v>
+        <v>8.169674081169068</v>
       </c>
       <c r="D149">
         <v>29908</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>5.509638981660828</v>
+        <v>4.431747538316995</v>
       </c>
       <c r="B150">
-        <v>6.922612833846863</v>
+        <v>4.431747538316995</v>
       </c>
       <c r="C150">
-        <v>7.80433408813551</v>
+        <v>4.431747538316995</v>
       </c>
       <c r="D150">
         <v>40311</v>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>4.903199389437214</v>
+        <v>6.675945973047055</v>
       </c>
       <c r="B151">
-        <v>7.926431395991997</v>
+        <v>7.08530524858484</v>
       </c>
       <c r="C151">
-        <v>9.444823375623672</v>
+        <v>7.574145812727511</v>
       </c>
       <c r="D151">
         <v>71750</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>6.774670713464729</v>
+        <v>6.315924226446077</v>
       </c>
       <c r="B152">
-        <v>6.774670713464729</v>
+        <v>7.315976928841653</v>
       </c>
       <c r="C152">
-        <v>6.774670713464729</v>
+        <v>8.201441049017012</v>
       </c>
       <c r="D152">
         <v>42203</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>3.995794152049348</v>
+        <v>6.7981952148024</v>
       </c>
       <c r="B153">
-        <v>4.985679720898434</v>
+        <v>6.886520265383274</v>
       </c>
       <c r="C153">
-        <v>6.349812352564186</v>
+        <v>6.944437640346587</v>
       </c>
       <c r="D153">
         <v>55680</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>5.704632444796152</v>
+        <v>5.826320500718429</v>
       </c>
       <c r="B154">
-        <v>5.704632444796152</v>
+        <v>7.598537990758496</v>
       </c>
       <c r="C154">
-        <v>5.704632444796152</v>
+        <v>8.810079201404005</v>
       </c>
       <c r="D154">
         <v>11014</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>4.916892875055782</v>
+        <v>4.249210527958349</v>
       </c>
       <c r="B155">
-        <v>4.916892875055782</v>
+        <v>8.427394467358432</v>
       </c>
       <c r="C155">
-        <v>4.916892875055782</v>
+        <v>10.5003560397774</v>
       </c>
       <c r="D155">
         <v>71379</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>4.015385955502279</v>
+        <v>5.82251302213408</v>
       </c>
       <c r="B156">
-        <v>6.370782636698491</v>
+        <v>5.82251302213408</v>
       </c>
       <c r="C156">
-        <v>8.455722946487366</v>
+        <v>5.82251302213408</v>
       </c>
       <c r="D156">
         <v>58261</v>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>5.02770951341372</v>
+        <v>6.193481283378787</v>
       </c>
       <c r="B157">
-        <v>7.019248721382169</v>
+        <v>7.636512269567644</v>
       </c>
       <c r="C157">
-        <v>8.842445635981857</v>
+        <v>9.303584073577076</v>
       </c>
       <c r="D157">
         <v>43454</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>5.684050405747257</v>
+        <v>5.142113387933932</v>
       </c>
       <c r="B158">
-        <v>5.684050405747257</v>
+        <v>7.458533303676141</v>
       </c>
       <c r="C158">
-        <v>5.684050405747257</v>
+        <v>9.529410030785948</v>
       </c>
       <c r="D158">
         <v>18518</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>6.26082773716189</v>
+        <v>6.261278806836344</v>
       </c>
       <c r="B159">
-        <v>6.26082773716189</v>
+        <v>6.91885512217901</v>
       </c>
       <c r="C159">
-        <v>6.26082773716189</v>
+        <v>7.493711393885315</v>
       </c>
       <c r="D159">
         <v>41648</v>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>6.377099834592082</v>
+        <v>5.596742074261419</v>
       </c>
       <c r="B160">
-        <v>6.377099834592082</v>
+        <v>6.346708234369281</v>
       </c>
       <c r="C160">
-        <v>6.377099834592082</v>
+        <v>6.975012674927711</v>
       </c>
       <c r="D160">
         <v>42807</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>5.25035975954961</v>
+        <v>5.881231156038121</v>
       </c>
       <c r="B161">
-        <v>6.879041554024569</v>
+        <v>8.969801441985995</v>
       </c>
       <c r="C161">
-        <v>8.849849562812595</v>
+        <v>10.35030922619626</v>
       </c>
       <c r="D161">
         <v>45538</v>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>5.24331356829498</v>
+        <v>4.095430803927593</v>
       </c>
       <c r="B162">
-        <v>6.708987608688823</v>
+        <v>4.198820333665752</v>
       </c>
       <c r="C162">
-        <v>8.604921542294322</v>
+        <v>4.261620246898383</v>
       </c>
       <c r="D162">
         <v>68249</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>4.470684555848129</v>
+        <v>3.961636624601669</v>
       </c>
       <c r="B163">
-        <v>5.02530161997762</v>
+        <v>6.01145100794376</v>
       </c>
       <c r="C163">
-        <v>5.717341595422477</v>
+        <v>8.491787489596755</v>
       </c>
       <c r="D163">
         <v>41940</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>4.264889862714336</v>
+        <v>6.070981039316393</v>
       </c>
       <c r="B164">
-        <v>4.424220960369216</v>
+        <v>6.359693506916551</v>
       </c>
       <c r="C164">
-        <v>4.523952115047723</v>
+        <v>6.696897624153644</v>
       </c>
       <c r="D164">
         <v>22284</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>4.746554223727435</v>
+        <v>5.788900825288147</v>
       </c>
       <c r="B165">
-        <v>8.20749482764951</v>
+        <v>7.595033988223354</v>
       </c>
       <c r="C165">
-        <v>10.27912050513551</v>
+        <v>8.488990602828562</v>
       </c>
       <c r="D165">
         <v>39038</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>5.539752043643967</v>
+        <v>6.399648868571967</v>
       </c>
       <c r="B166">
-        <v>8.153295649630413</v>
+        <v>6.399648868571967</v>
       </c>
       <c r="C166">
-        <v>10.79720826083794</v>
+        <v>6.399648868571967</v>
       </c>
       <c r="D166">
         <v>4480</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>4.778588813147508</v>
+        <v>4.658376954542473</v>
       </c>
       <c r="B167">
-        <v>5.595917456843582</v>
+        <v>6.552895950730391</v>
       </c>
       <c r="C167">
-        <v>6.632902249041944</v>
+        <v>7.506707869749516</v>
       </c>
       <c r="D167">
         <v>54918</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>6.439269362273626</v>
+        <v>5.36174295230303</v>
       </c>
       <c r="B168">
-        <v>6.439269362273626</v>
+        <v>7.149218539264611</v>
       </c>
       <c r="C168">
-        <v>6.439269362273626</v>
+        <v>9.581561762373894</v>
       </c>
       <c r="D168">
         <v>59368</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>5.167428605817259</v>
+        <v>4.451520787342451</v>
       </c>
       <c r="B169">
-        <v>7.004738041903121</v>
+        <v>6.226959747469421</v>
       </c>
       <c r="C169">
-        <v>9.356156198959797</v>
+        <v>8.321238521020859</v>
       </c>
       <c r="D169">
         <v>21130</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>5.814588463190011</v>
+        <v>5.656056687352248</v>
       </c>
       <c r="B170">
-        <v>7.031186699447282</v>
+        <v>6.811611677741555</v>
       </c>
       <c r="C170">
-        <v>7.979482891317456</v>
+        <v>7.831058572418987</v>
       </c>
       <c r="D170">
         <v>1703</v>
@@ -2747,13 +2747,13 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>4.861210456769913</v>
+        <v>6.866435012384318</v>
       </c>
       <c r="B171">
-        <v>7.551264375649911</v>
+        <v>8.324502770253295</v>
       </c>
       <c r="C171">
-        <v>11.04157086182386</v>
+        <v>8.950414310675114</v>
       </c>
       <c r="D171">
         <v>16934</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>4.525042903167195</v>
+        <v>5.925609492347576</v>
       </c>
       <c r="B172">
-        <v>5.152921812556471</v>
+        <v>6.224512727195675</v>
       </c>
       <c r="C172">
-        <v>5.742673278413713</v>
+        <v>6.508442165423185</v>
       </c>
       <c r="D172">
         <v>56357</v>
@@ -2775,13 +2775,13 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>6.905040735914372</v>
+        <v>5.956155505287461</v>
       </c>
       <c r="B173">
-        <v>7.85434806907038</v>
+        <v>5.956155505287461</v>
       </c>
       <c r="C173">
-        <v>8.837007926404477</v>
+        <v>5.956155505287461</v>
       </c>
       <c r="D173">
         <v>18051</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>6.662814056524075</v>
+        <v>4.824364930973388</v>
       </c>
       <c r="B174">
-        <v>6.662814056524075</v>
+        <v>4.824364930973388</v>
       </c>
       <c r="C174">
-        <v>6.662814056524075</v>
+        <v>4.824364930973388</v>
       </c>
       <c r="D174">
         <v>40840</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>6.183963225688785</v>
+        <v>6.964994790405035</v>
       </c>
       <c r="B175">
-        <v>6.183963225688785</v>
+        <v>7.924574547728262</v>
       </c>
       <c r="C175">
-        <v>6.183963225688785</v>
+        <v>8.75010451702401</v>
       </c>
       <c r="D175">
         <v>38805</v>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>6.896089465753175</v>
+        <v>4.490500536840409</v>
       </c>
       <c r="B176">
-        <v>8.004141435971256</v>
+        <v>4.754646799336391</v>
       </c>
       <c r="C176">
-        <v>8.903687732201069</v>
+        <v>4.91279948875308</v>
       </c>
       <c r="D176">
         <v>31091</v>
@@ -2831,13 +2831,13 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>5.7120505082421</v>
+        <v>4.673693919996731</v>
       </c>
       <c r="B177">
-        <v>7.607770483253474</v>
+        <v>5.277239078789372</v>
       </c>
       <c r="C177">
-        <v>9.369399613887071</v>
+        <v>5.937864955980331</v>
       </c>
       <c r="D177">
         <v>45053</v>
@@ -2845,13 +2845,13 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>5.890426127030514</v>
+        <v>4.266044107964262</v>
       </c>
       <c r="B178">
-        <v>5.890426127030514</v>
+        <v>4.315138785038434</v>
       </c>
       <c r="C178">
-        <v>5.890426127030514</v>
+        <v>4.366039595473557</v>
       </c>
       <c r="D178">
         <v>61837</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>6.776085777883418</v>
+        <v>6.003727598511614</v>
       </c>
       <c r="B179">
-        <v>7.16295567950386</v>
+        <v>8.060823514569279</v>
       </c>
       <c r="C179">
-        <v>7.676505577471107</v>
+        <v>9.12447408484295</v>
       </c>
       <c r="D179">
         <v>9487</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>4.776485524722375</v>
+        <v>4.761371736763977</v>
       </c>
       <c r="B180">
-        <v>5.934250663933127</v>
+        <v>7.202852346193097</v>
       </c>
       <c r="C180">
-        <v>7.626885468512773</v>
+        <v>8.415457388665526</v>
       </c>
       <c r="D180">
         <v>49713</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>5.687578133004718</v>
+        <v>6.241037357528694</v>
       </c>
       <c r="B181">
-        <v>5.843564823953036</v>
+        <v>8.007054670006543</v>
       </c>
       <c r="C181">
-        <v>6.075393361225724</v>
+        <v>9.732918755151331</v>
       </c>
       <c r="D181">
         <v>1506</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>4.549653994175605</v>
+        <v>5.67252375795506</v>
       </c>
       <c r="B182">
-        <v>5.120977498790232</v>
+        <v>7.501548219289301</v>
       </c>
       <c r="C182">
-        <v>5.843834146857262</v>
+        <v>9.238189783506096</v>
       </c>
       <c r="D182">
         <v>62608</v>
@@ -2915,13 +2915,13 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.440685416245833</v>
+        <v>6.362041040835902</v>
       </c>
       <c r="B183">
-        <v>8.661764149615758</v>
+        <v>6.362041040835902</v>
       </c>
       <c r="C183">
-        <v>9.748922562412917</v>
+        <v>6.362041040835902</v>
       </c>
       <c r="D183">
         <v>40670</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>6.803321657073684</v>
+        <v>5.629523421474732</v>
       </c>
       <c r="B184">
-        <v>7.370347190588776</v>
+        <v>8.885216932807861</v>
       </c>
       <c r="C184">
-        <v>8.20694994609803</v>
+        <v>11.13066319935024</v>
       </c>
       <c r="D184">
         <v>42996</v>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>6.341884935647249</v>
+        <v>4.632890489045531</v>
       </c>
       <c r="B185">
-        <v>8.48153131118211</v>
+        <v>5.230655725500361</v>
       </c>
       <c r="C185">
-        <v>10.53113759597763</v>
+        <v>6.065008589066565</v>
       </c>
       <c r="D185">
         <v>49916</v>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>6.666240449459292</v>
+        <v>6.302747690514662</v>
       </c>
       <c r="B186">
-        <v>6.810105090529177</v>
+        <v>7.6272276064076</v>
       </c>
       <c r="C186">
-        <v>6.944737700186669</v>
+        <v>9.283287058211863</v>
       </c>
       <c r="D186">
         <v>71038</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>5.87456720743794</v>
+        <v>6.303540634689853</v>
       </c>
       <c r="B187">
-        <v>6.710564532180709</v>
+        <v>7.828178014715351</v>
       </c>
       <c r="C187">
-        <v>7.303589951153844</v>
+        <v>9.842377311922609</v>
       </c>
       <c r="D187">
         <v>58617</v>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>6.67450963286683</v>
+        <v>5.484344013174995</v>
       </c>
       <c r="B188">
-        <v>6.67450963286683</v>
+        <v>6.419279958891389</v>
       </c>
       <c r="C188">
-        <v>6.67450963286683</v>
+        <v>7.57034145379439</v>
       </c>
       <c r="D188">
         <v>69064</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>5.251972042489797</v>
+        <v>4.66962182498537</v>
       </c>
       <c r="B189">
-        <v>5.251972042489797</v>
+        <v>6.447080220775328</v>
       </c>
       <c r="C189">
-        <v>5.251972042489797</v>
+        <v>7.226389205642045</v>
       </c>
       <c r="D189">
         <v>9404</v>
@@ -3013,13 +3013,13 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>5.405302818864584</v>
+        <v>5.628337730653584</v>
       </c>
       <c r="B190">
-        <v>5.405302818864584</v>
+        <v>5.674172014639839</v>
       </c>
       <c r="C190">
-        <v>5.405302818864584</v>
+        <v>5.711972866766155</v>
       </c>
       <c r="D190">
         <v>28286</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>4.250297527597286</v>
+        <v>4.950634431303479</v>
       </c>
       <c r="B191">
-        <v>7.980801315553689</v>
+        <v>4.950634431303479</v>
       </c>
       <c r="C191">
-        <v>9.607310340832919</v>
+        <v>4.950634431303479</v>
       </c>
       <c r="D191">
         <v>34402</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>5.040846332232467</v>
+        <v>5.15893942322582</v>
       </c>
       <c r="B192">
-        <v>5.777049676846464</v>
+        <v>8.033954290672771</v>
       </c>
       <c r="C192">
-        <v>6.225759023334831</v>
+        <v>10.21990461088717</v>
       </c>
       <c r="D192">
         <v>58282</v>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>6.870879576494917</v>
+        <v>4.598504205117933</v>
       </c>
       <c r="B193">
-        <v>6.982677030335958</v>
+        <v>4.598504205117933</v>
       </c>
       <c r="C193">
-        <v>7.142212054692209</v>
+        <v>4.598504205117933</v>
       </c>
       <c r="D193">
         <v>28637</v>
@@ -3069,13 +3069,13 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>5.021032495633699</v>
+        <v>4.609239206486381</v>
       </c>
       <c r="B194">
-        <v>5.842839413261295</v>
+        <v>5.794176074056199</v>
       </c>
       <c r="C194">
-        <v>6.221076621487736</v>
+        <v>6.447383659705519</v>
       </c>
       <c r="D194">
         <v>64553</v>
@@ -3083,13 +3083,13 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>4.207571979518979</v>
+        <v>5.689519575657323</v>
       </c>
       <c r="B195">
-        <v>5.665026498643402</v>
+        <v>9.308684216785286</v>
       </c>
       <c r="C195">
-        <v>7.047013651952147</v>
+        <v>11.42613154454157</v>
       </c>
       <c r="D195">
         <v>31741</v>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>4.281092119845562</v>
+        <v>5.769043786125257</v>
       </c>
       <c r="B196">
-        <v>6.344842761656239</v>
+        <v>6.902194787254606</v>
       </c>
       <c r="C196">
-        <v>9.158844138868153</v>
+        <v>7.574639536906034</v>
       </c>
       <c r="D196">
         <v>69936</v>
@@ -3111,13 +3111,13 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>6.891109506995417</v>
+        <v>5.143560902634635</v>
       </c>
       <c r="B197">
-        <v>7.004611246837247</v>
+        <v>5.981080311066885</v>
       </c>
       <c r="C197">
-        <v>7.144187528267503</v>
+        <v>6.347789933811873</v>
       </c>
       <c r="D197">
         <v>13547</v>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>5.520552032650448</v>
+        <v>5.965200775093399</v>
       </c>
       <c r="B198">
-        <v>6.420699284759886</v>
+        <v>6.829292208917296</v>
       </c>
       <c r="C198">
-        <v>7.006306375935674</v>
+        <v>7.398261550441385</v>
       </c>
       <c r="D198">
         <v>63732</v>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>5.471194856334478</v>
+        <v>4.057554308441468</v>
       </c>
       <c r="B199">
-        <v>6.563373237797351</v>
+        <v>6.735805931748108</v>
       </c>
       <c r="C199">
-        <v>7.5525867825374</v>
+        <v>9.279917457979172</v>
       </c>
       <c r="D199">
         <v>60148</v>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>6.451321549597196</v>
+        <v>6.817741941963322</v>
       </c>
       <c r="B200">
-        <v>6.603811553585665</v>
+        <v>6.817741941963322</v>
       </c>
       <c r="C200">
-        <v>6.734553812257945</v>
+        <v>6.817741941963322</v>
       </c>
       <c r="D200">
         <v>23462</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>4.621512303152121</v>
+        <v>6.08690376887098</v>
       </c>
       <c r="B201">
-        <v>5.032470547908332</v>
+        <v>7.670643297342929</v>
       </c>
       <c r="C201">
-        <v>5.615980584453791</v>
+        <v>8.949675324931741</v>
       </c>
       <c r="D201">
         <v>11091</v>
@@ -3181,13 +3181,13 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>5.016530834068544</v>
+        <v>6.791952183004469</v>
       </c>
       <c r="B202">
-        <v>6.076474592041702</v>
+        <v>8.972128962496411</v>
       </c>
       <c r="C202">
-        <v>6.949595416523517</v>
+        <v>10.55913858031854</v>
       </c>
       <c r="D202">
         <v>70374</v>
@@ -3195,13 +3195,13 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>5.202623250312172</v>
+        <v>4.787204828928225</v>
       </c>
       <c r="B203">
-        <v>5.474558458932288</v>
+        <v>4.787204828928225</v>
       </c>
       <c r="C203">
-        <v>5.750515255238861</v>
+        <v>4.787204828928225</v>
       </c>
       <c r="D203">
         <v>65357</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>5.356242242269218</v>
+        <v>4.616342747095041</v>
       </c>
       <c r="B204">
-        <v>6.605421270533256</v>
+        <v>7.48422735825404</v>
       </c>
       <c r="C204">
-        <v>7.540943265613168</v>
+        <v>8.953593544941395</v>
       </c>
       <c r="D204">
         <v>49465</v>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>6.887523577245884</v>
+        <v>5.480966191366315</v>
       </c>
       <c r="B205">
-        <v>7.551723498977973</v>
+        <v>6.056371835867</v>
       </c>
       <c r="C205">
-        <v>7.850692326575517</v>
+        <v>6.378067292086779</v>
       </c>
       <c r="D205">
         <v>66972</v>
@@ -3237,13 +3237,13 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>4.667312204185873</v>
+        <v>5.760090948268771</v>
       </c>
       <c r="B206">
-        <v>7.087159696805534</v>
+        <v>5.760090948268771</v>
       </c>
       <c r="C206">
-        <v>8.368024132214487</v>
+        <v>5.760090948268771</v>
       </c>
       <c r="D206">
         <v>55810</v>
@@ -3251,13 +3251,13 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>3.99148061464075</v>
+        <v>5.967173149413429</v>
       </c>
       <c r="B207">
-        <v>4.047212788428827</v>
+        <v>5.967173149413429</v>
       </c>
       <c r="C207">
-        <v>4.10042267087847</v>
+        <v>5.967173149413429</v>
       </c>
       <c r="D207">
         <v>36007</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>5.792201498732902</v>
+        <v>4.542210916895419</v>
       </c>
       <c r="B208">
-        <v>8.047438399548987</v>
+        <v>7.375644547182292</v>
       </c>
       <c r="C208">
-        <v>9.409787800721825</v>
+        <v>9.384030861314386</v>
       </c>
       <c r="D208">
         <v>14123</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>4.468311912543141</v>
+        <v>5.665843982272781</v>
       </c>
       <c r="B209">
-        <v>7.651297695169696</v>
+        <v>5.665843982272781</v>
       </c>
       <c r="C209">
-        <v>9.246464586723596</v>
+        <v>5.665843982272781</v>
       </c>
       <c r="D209">
         <v>27213</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>6.836192516656593</v>
+        <v>6.659012572281062</v>
       </c>
       <c r="B210">
-        <v>9.006424042478557</v>
+        <v>6.659012572281062</v>
       </c>
       <c r="C210">
-        <v>10.54926414275542</v>
+        <v>6.659012572281062</v>
       </c>
       <c r="D210">
         <v>45719</v>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>5.012175872549415</v>
+        <v>4.938817815459333</v>
       </c>
       <c r="B211">
-        <v>8.688106530495158</v>
+        <v>6.293391202121635</v>
       </c>
       <c r="C211">
-        <v>10.84074789881706</v>
+        <v>8.213082162942737</v>
       </c>
       <c r="D211">
         <v>129</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>4.702849605912343</v>
+        <v>6.185066647874192</v>
       </c>
       <c r="B212">
-        <v>6.134192537770661</v>
+        <v>6.185066647874192</v>
       </c>
       <c r="C212">
-        <v>7.361036148481071</v>
+        <v>6.185066647874192</v>
       </c>
       <c r="D212">
         <v>20546</v>
@@ -3335,13 +3335,13 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>5.691646122559905</v>
+        <v>4.796949555003084</v>
       </c>
       <c r="B213">
-        <v>7.11154653133861</v>
+        <v>7.273206933620829</v>
       </c>
       <c r="C213">
-        <v>9.150928065460175</v>
+        <v>8.913609693571924</v>
       </c>
       <c r="D213">
         <v>6107</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>4.29046473049093</v>
+        <v>6.193758208956569</v>
       </c>
       <c r="B214">
-        <v>6.500408018038001</v>
+        <v>6.689651037552871</v>
       </c>
       <c r="C214">
-        <v>8.484806400258094</v>
+        <v>7.284669588506222</v>
       </c>
       <c r="D214">
         <v>59906</v>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>6.357680759835057</v>
+        <v>5.283708779187873</v>
       </c>
       <c r="B215">
-        <v>6.357680759835057</v>
+        <v>5.283708779187873</v>
       </c>
       <c r="C215">
-        <v>6.357680759835057</v>
+        <v>5.283708779187873</v>
       </c>
       <c r="D215">
         <v>59729</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>5.192607919243164</v>
+        <v>4.528801469225437</v>
       </c>
       <c r="B216">
-        <v>8.391435373440949</v>
+        <v>8.45757227423654</v>
       </c>
       <c r="C216">
-        <v>9.91853517908603</v>
+        <v>10.30050198417157</v>
       </c>
       <c r="D216">
         <v>3655</v>
@@ -3391,13 +3391,13 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>6.555830830126069</v>
+        <v>6.083325134823099</v>
       </c>
       <c r="B217">
-        <v>7.775663185688852</v>
+        <v>8.339934298020882</v>
       </c>
       <c r="C217">
-        <v>9.568249032087623</v>
+        <v>9.398319559358059</v>
       </c>
       <c r="D217">
         <v>11999</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>4.384186408855021</v>
+        <v>5.739828949305229</v>
       </c>
       <c r="B218">
-        <v>4.471933843031402</v>
+        <v>6.260187028203592</v>
       </c>
       <c r="C218">
-        <v>4.525814599916339</v>
+        <v>6.600505938008427</v>
       </c>
       <c r="D218">
         <v>12985</v>
@@ -3419,13 +3419,13 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>5.548555064829998</v>
+        <v>5.035980400932021</v>
       </c>
       <c r="B219">
-        <v>8.503484216037911</v>
+        <v>6.350879696095658</v>
       </c>
       <c r="C219">
-        <v>11.11573944790289</v>
+        <v>7.59766748752445</v>
       </c>
       <c r="D219">
         <v>38119</v>
@@ -3433,13 +3433,13 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>5.284478348679841</v>
+        <v>5.38547202849295</v>
       </c>
       <c r="B220">
-        <v>5.909232247994394</v>
+        <v>7.840892550759474</v>
       </c>
       <c r="C220">
-        <v>6.716348246112466</v>
+        <v>10.83468559542671</v>
       </c>
       <c r="D220">
         <v>3355</v>
@@ -3447,13 +3447,13 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>6.27944036910776</v>
+        <v>5.950245961686596</v>
       </c>
       <c r="B221">
-        <v>6.808614678988801</v>
+        <v>5.950245961686596</v>
       </c>
       <c r="C221">
-        <v>7.086132360156626</v>
+        <v>5.950245961686596</v>
       </c>
       <c r="D221">
         <v>67177</v>
@@ -3461,13 +3461,13 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>5.29496998989489</v>
+        <v>6.442945956345648</v>
       </c>
       <c r="B222">
-        <v>9.293253071908349</v>
+        <v>7.870428824034081</v>
       </c>
       <c r="C222">
-        <v>11.23622208414599</v>
+        <v>8.601628397405147</v>
       </c>
       <c r="D222">
         <v>56681</v>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>6.781944535230286</v>
+        <v>5.83260602846276</v>
       </c>
       <c r="B223">
-        <v>6.781944535230286</v>
+        <v>7.382209196770157</v>
       </c>
       <c r="C223">
-        <v>6.781944535230286</v>
+        <v>8.526481037121266</v>
       </c>
       <c r="D223">
         <v>56716</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>4.242611747700721</v>
+        <v>5.003051578486338</v>
       </c>
       <c r="B224">
-        <v>5.639970507684972</v>
+        <v>6.615835110278383</v>
       </c>
       <c r="C224">
-        <v>6.972455535922199</v>
+        <v>8.761680380161851</v>
       </c>
       <c r="D224">
         <v>17291</v>
@@ -3503,13 +3503,13 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>4.592747148755007</v>
+        <v>6.940384810208343</v>
       </c>
       <c r="B225">
-        <v>4.727070994654359</v>
+        <v>6.966789052995791</v>
       </c>
       <c r="C225">
-        <v>4.817571296263486</v>
+        <v>6.993423964641988</v>
       </c>
       <c r="D225">
         <v>61465</v>
@@ -3517,13 +3517,13 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>4.127180938213132</v>
+        <v>5.773925439128652</v>
       </c>
       <c r="B226">
-        <v>5.857743509045436</v>
+        <v>8.286010599403664</v>
       </c>
       <c r="C226">
-        <v>7.471733020991087</v>
+        <v>9.816792684141546</v>
       </c>
       <c r="D226">
         <v>8233</v>
@@ -3531,13 +3531,13 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>6.569773943792097</v>
+        <v>5.639719944773242</v>
       </c>
       <c r="B227">
-        <v>6.569773943792097</v>
+        <v>5.639719944773242</v>
       </c>
       <c r="C227">
-        <v>6.569773943792097</v>
+        <v>5.639719944773242</v>
       </c>
       <c r="D227">
         <v>46436</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>6.160743608605117</v>
+        <v>4.924183318577707</v>
       </c>
       <c r="B228">
-        <v>8.875561423529545</v>
+        <v>7.728460695055392</v>
       </c>
       <c r="C228">
-        <v>11.16633967058733</v>
+        <v>10.12536586131901</v>
       </c>
       <c r="D228">
         <v>23221</v>
@@ -3559,13 +3559,13 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>6.38927663420327</v>
+        <v>5.355093504162506</v>
       </c>
       <c r="B229">
-        <v>7.563230036329125</v>
+        <v>7.388421734881008</v>
       </c>
       <c r="C229">
-        <v>8.76830078260973</v>
+        <v>8.869688994530588</v>
       </c>
       <c r="D229">
         <v>7351</v>
@@ -3573,13 +3573,13 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>5.195252004079521</v>
+        <v>4.281938739540055</v>
       </c>
       <c r="B230">
-        <v>7.760041330328241</v>
+        <v>4.75961996026384</v>
       </c>
       <c r="C230">
-        <v>10.09555533947423</v>
+        <v>5.243680688459426</v>
       </c>
       <c r="D230">
         <v>17718</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>5.667670727660879</v>
+        <v>6.350875884667039</v>
       </c>
       <c r="B231">
-        <v>5.667670727660879</v>
+        <v>6.350875884667039</v>
       </c>
       <c r="C231">
-        <v>5.667670727660879</v>
+        <v>6.350875884667039</v>
       </c>
       <c r="D231">
         <v>31164</v>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>4.671876238659024</v>
+        <v>5.127191688120365</v>
       </c>
       <c r="B232">
-        <v>4.761230444507914</v>
+        <v>5.127191688120365</v>
       </c>
       <c r="C232">
-        <v>4.865689134784043</v>
+        <v>5.127191688120365</v>
       </c>
       <c r="D232">
         <v>48272</v>
@@ -3615,13 +3615,13 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>5.942996848444454</v>
+        <v>6.522602033661679</v>
       </c>
       <c r="B233">
-        <v>5.942996848444454</v>
+        <v>6.522602033661679</v>
       </c>
       <c r="C233">
-        <v>5.942996848444454</v>
+        <v>6.522602033661679</v>
       </c>
       <c r="D233">
         <v>8595</v>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>6.108832873916254</v>
+        <v>4.857115499535576</v>
       </c>
       <c r="B234">
-        <v>8.431181495518015</v>
+        <v>8.675843836879963</v>
       </c>
       <c r="C234">
-        <v>11.43633149107918</v>
+        <v>10.34888129122555</v>
       </c>
       <c r="D234">
         <v>1307</v>
@@ -3643,13 +3643,13 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>5.32287618368864</v>
+        <v>4.985324203572236</v>
       </c>
       <c r="B235">
-        <v>6.297594701510517</v>
+        <v>7.386809577661285</v>
       </c>
       <c r="C235">
-        <v>7.46674522953108</v>
+        <v>9.730997540149838</v>
       </c>
       <c r="D235">
         <v>35846</v>
@@ -3657,13 +3657,13 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>5.985006418102421</v>
+        <v>6.365144894900732</v>
       </c>
       <c r="B236">
-        <v>7.675793683179458</v>
+        <v>7.802223528820813</v>
       </c>
       <c r="C236">
-        <v>8.807099961023777</v>
+        <v>8.442562348302454</v>
       </c>
       <c r="D236">
         <v>69687</v>
@@ -3671,13 +3671,13 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>5.338638813444414</v>
+        <v>5.087146310741081</v>
       </c>
       <c r="B237">
-        <v>7.009432896151645</v>
+        <v>5.087146310741081</v>
       </c>
       <c r="C237">
-        <v>9.197807480301707</v>
+        <v>5.087146310741081</v>
       </c>
       <c r="D237">
         <v>11838</v>
@@ -3685,13 +3685,13 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>6.525357973412611</v>
+        <v>4.821316877333447</v>
       </c>
       <c r="B238">
-        <v>6.525357973412611</v>
+        <v>8.307967941135399</v>
       </c>
       <c r="C238">
-        <v>6.525357973412611</v>
+        <v>10.41970604648814</v>
       </c>
       <c r="D238">
         <v>9179</v>
@@ -3699,13 +3699,13 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>5.385088403639384</v>
+        <v>3.99181415985804</v>
       </c>
       <c r="B239">
-        <v>6.977223907196343</v>
+        <v>6.93523651008783</v>
       </c>
       <c r="C239">
-        <v>7.794028965290636</v>
+        <v>8.559922105725855</v>
       </c>
       <c r="D239">
         <v>38165</v>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>6.391042396822013</v>
+        <v>4.990441129961982</v>
       </c>
       <c r="B240">
-        <v>6.391042396822013</v>
+        <v>7.023250027937402</v>
       </c>
       <c r="C240">
-        <v>6.391042396822013</v>
+        <v>8.255559341143817</v>
       </c>
       <c r="D240">
         <v>15649</v>
@@ -3727,13 +3727,13 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>4.55815301889088</v>
+        <v>5.146243455912918</v>
       </c>
       <c r="B241">
-        <v>8.761925176236543</v>
+        <v>6.10915819508531</v>
       </c>
       <c r="C241">
-        <v>11.37388961557299</v>
+        <v>6.655355309695006</v>
       </c>
       <c r="D241">
         <v>3009</v>
@@ -3741,13 +3741,13 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>4.609053201461211</v>
+        <v>4.271599451312795</v>
       </c>
       <c r="B242">
-        <v>9.255370352468976</v>
+        <v>6.988649022245751</v>
       </c>
       <c r="C242">
-        <v>11.43564211893827</v>
+        <v>8.917965284083039</v>
       </c>
       <c r="D242">
         <v>32361</v>
@@ -3755,13 +3755,13 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>6.727860801643692</v>
+        <v>4.00097275339067</v>
       </c>
       <c r="B243">
-        <v>6.727860801643692</v>
+        <v>7.138005404533517</v>
       </c>
       <c r="C243">
-        <v>6.727860801643692</v>
+        <v>9.75580635862425</v>
       </c>
       <c r="D243">
         <v>41523</v>
@@ -3769,13 +3769,13 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>6.112233912339434</v>
+        <v>3.908793734828941</v>
       </c>
       <c r="B244">
-        <v>8.805083983095612</v>
+        <v>6.648710958910457</v>
       </c>
       <c r="C244">
-        <v>10.13307422399521</v>
+        <v>10.38197918580845</v>
       </c>
       <c r="D244">
         <v>67548</v>
@@ -3783,13 +3783,13 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>3.963494282169267</v>
+        <v>5.759821287356317</v>
       </c>
       <c r="B245">
-        <v>7.006988485367601</v>
+        <v>5.759821287356317</v>
       </c>
       <c r="C245">
-        <v>9.632022296171636</v>
+        <v>5.759821287356317</v>
       </c>
       <c r="D245">
         <v>12982</v>
@@ -3797,13 +3797,13 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>6.250651268381626</v>
+        <v>5.141844852268695</v>
       </c>
       <c r="B246">
-        <v>6.250651268381626</v>
+        <v>8.285122838074827</v>
       </c>
       <c r="C246">
-        <v>6.250651268381626</v>
+        <v>10.16400238433853</v>
       </c>
       <c r="D246">
         <v>66570</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>5.267686180514284</v>
+        <v>6.915673659532331</v>
       </c>
       <c r="B247">
-        <v>7.095504807854932</v>
+        <v>8.456397374550345</v>
       </c>
       <c r="C247">
-        <v>8.638974533230066</v>
+        <v>9.318141157180071</v>
       </c>
       <c r="D247">
         <v>29158</v>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>6.770592081337236</v>
+        <v>6.851702654361725</v>
       </c>
       <c r="B248">
-        <v>8.552950847711291</v>
+        <v>6.851702654361725</v>
       </c>
       <c r="C248">
-        <v>9.914302913006395</v>
+        <v>6.851702654361725</v>
       </c>
       <c r="D248">
         <v>54375</v>
@@ -3839,13 +3839,13 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>6.388373597688042</v>
+        <v>4.234516462986358</v>
       </c>
       <c r="B249">
-        <v>8.943382839259163</v>
+        <v>7.030060607456117</v>
       </c>
       <c r="C249">
-        <v>10.1842341683805</v>
+        <v>10.76600495362654</v>
       </c>
       <c r="D249">
         <v>37832</v>
@@ -3853,13 +3853,13 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>6.70455215938855</v>
+        <v>5.341235926607624</v>
       </c>
       <c r="B250">
-        <v>6.70455215938855</v>
+        <v>6.202939009734565</v>
       </c>
       <c r="C250">
-        <v>6.70455215938855</v>
+        <v>6.702423572260886</v>
       </c>
       <c r="D250">
         <v>34668</v>
@@ -3867,13 +3867,13 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>5.938608809420839</v>
+        <v>6.113762379880063</v>
       </c>
       <c r="B251">
-        <v>6.907072410242715</v>
+        <v>7.333637056743087</v>
       </c>
       <c r="C251">
-        <v>7.855371587537229</v>
+        <v>9.087011608853937</v>
       </c>
       <c r="D251">
         <v>68483</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>4.236813958687708</v>
+        <v>4.22916654474102</v>
       </c>
       <c r="B252">
-        <v>4.682420447357902</v>
+        <v>6.833750906802267</v>
       </c>
       <c r="C252">
-        <v>4.997265870124101</v>
+        <v>9.42231672173366</v>
       </c>
       <c r="D252">
         <v>6072</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>5.959695170703344</v>
+        <v>5.203718108637259</v>
       </c>
       <c r="B253">
-        <v>8.513161612007467</v>
+        <v>5.655772554418353</v>
       </c>
       <c r="C253">
-        <v>9.989406122174113</v>
+        <v>5.867253004107624</v>
       </c>
       <c r="D253">
         <v>63958</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>6.838466565497219</v>
+        <v>5.953880907176062</v>
       </c>
       <c r="B254">
-        <v>8.353993414198353</v>
+        <v>9.052393355221488</v>
       </c>
       <c r="C254">
-        <v>9.66361366463825</v>
+        <v>10.80373864816502</v>
       </c>
       <c r="D254">
         <v>34511</v>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>4.166997469612397</v>
+        <v>4.542899898043833</v>
       </c>
       <c r="B255">
-        <v>6.034598660286754</v>
+        <v>5.921674098299862</v>
       </c>
       <c r="C255">
-        <v>6.947789690550417</v>
+        <v>7.383687723707407</v>
       </c>
       <c r="D255">
         <v>29496</v>
@@ -3937,13 +3937,13 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>5.057222510431894</v>
+        <v>6.935522871045396</v>
       </c>
       <c r="B256">
-        <v>5.53065033178854</v>
+        <v>6.935522871045396</v>
       </c>
       <c r="C256">
-        <v>5.840357245132327</v>
+        <v>6.935522871045396</v>
       </c>
       <c r="D256">
         <v>19939</v>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>5.95588230479043</v>
+        <v>6.839872090215795</v>
       </c>
       <c r="B257">
-        <v>6.97813022752558</v>
+        <v>8.042422018826072</v>
       </c>
       <c r="C257">
-        <v>7.448819347284735</v>
+        <v>9.673361210431903</v>
       </c>
       <c r="D257">
         <v>27832</v>
@@ -3965,13 +3965,13 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>4.121967359655537</v>
+        <v>4.131658481666818</v>
       </c>
       <c r="B258">
-        <v>4.626195724260959</v>
+        <v>6.402610446402853</v>
       </c>
       <c r="C258">
-        <v>4.851198045164347</v>
+        <v>9.237209147773683</v>
       </c>
       <c r="D258">
         <v>31279</v>
@@ -3979,13 +3979,13 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>6.334896692098118</v>
+        <v>6.91622135466896</v>
       </c>
       <c r="B259">
-        <v>8.287339412302115</v>
+        <v>9.761387535546966</v>
       </c>
       <c r="C259">
-        <v>9.623100302461534</v>
+        <v>11.41076671723276</v>
       </c>
       <c r="D259">
         <v>25099</v>
@@ -3993,13 +3993,13 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>4.92689119677525</v>
+        <v>6.919795986474492</v>
       </c>
       <c r="B260">
-        <v>6.736040789622552</v>
+        <v>8.281951227572145</v>
       </c>
       <c r="C260">
-        <v>7.902116867993026</v>
+        <v>9.000035139825195</v>
       </c>
       <c r="D260">
         <v>67733</v>
@@ -4007,13 +4007,13 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>6.154336741822772</v>
+        <v>6.068486105673946</v>
       </c>
       <c r="B261">
-        <v>6.154336741822772</v>
+        <v>7.070307795739899</v>
       </c>
       <c r="C261">
-        <v>6.154336741822772</v>
+        <v>8.557923819590359</v>
       </c>
       <c r="D261">
         <v>33123</v>
@@ -4021,13 +4021,13 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>6.174421477178112</v>
+        <v>4.146116534876637</v>
       </c>
       <c r="B262">
-        <v>6.255060904234693</v>
+        <v>6.613870471666966</v>
       </c>
       <c r="C262">
-        <v>6.329953493364155</v>
+        <v>8.275971919856966</v>
       </c>
       <c r="D262">
         <v>21713</v>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>5.834636162105016</v>
+        <v>4.006437355908565</v>
       </c>
       <c r="B263">
-        <v>7.577882093552087</v>
+        <v>6.061892666130199</v>
       </c>
       <c r="C263">
-        <v>8.327098537236452</v>
+        <v>8.581857053004205</v>
       </c>
       <c r="D263">
         <v>22622</v>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>6.653186390083283</v>
+        <v>5.25875681550242</v>
       </c>
       <c r="B264">
-        <v>7.597304968628184</v>
+        <v>6.090259993773795</v>
       </c>
       <c r="C264">
-        <v>8.541014205757529</v>
+        <v>6.489184174407273</v>
       </c>
       <c r="D264">
         <v>16380</v>
@@ -4063,13 +4063,13 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>6.479728137003258</v>
+        <v>4.270875389012508</v>
       </c>
       <c r="B265">
-        <v>8.347599457532096</v>
+        <v>7.475663589366356</v>
       </c>
       <c r="C265">
-        <v>9.840089176036416</v>
+        <v>10.8991908875294</v>
       </c>
       <c r="D265">
         <v>9729</v>
@@ -4077,13 +4077,13 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>5.55227314652875</v>
+        <v>4.859735378925689</v>
       </c>
       <c r="B266">
-        <v>6.141915841807427</v>
+        <v>5.298243449741396</v>
       </c>
       <c r="C266">
-        <v>6.44470714405179</v>
+        <v>5.757885184418409</v>
       </c>
       <c r="D266">
         <v>29933</v>
@@ -4091,13 +4091,13 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>5.803368388605304</v>
+        <v>6.785471066506579</v>
       </c>
       <c r="B267">
-        <v>9.614773973544931</v>
+        <v>6.785471066506579</v>
       </c>
       <c r="C267">
-        <v>11.49709911718965</v>
+        <v>6.785471066506579</v>
       </c>
       <c r="D267">
         <v>65574</v>
@@ -4105,13 +4105,13 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>6.171805547340773</v>
+        <v>6.511033555399626</v>
       </c>
       <c r="B268">
-        <v>6.171805547340773</v>
+        <v>9.545544462362649</v>
       </c>
       <c r="C268">
-        <v>6.171805547340773</v>
+        <v>11.26407690318301</v>
       </c>
       <c r="D268">
         <v>7621</v>
@@ -4119,13 +4119,13 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>8.213146965717897</v>
+        <v>12.87100403546356</v>
       </c>
       <c r="B269">
-        <v>13.12364519703569</v>
+        <v>12.87100403546356</v>
       </c>
       <c r="C269">
-        <v>16.01014006184414</v>
+        <v>12.87100403546356</v>
       </c>
       <c r="D269">
         <v>31112</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>6.343270771438256</v>
+        <v>12.88784704450518</v>
       </c>
       <c r="B270">
-        <v>10.97060091313389</v>
+        <v>14.32582079049346</v>
       </c>
       <c r="C270">
-        <v>13.6920383857796</v>
+        <v>16.29282309324481</v>
       </c>
       <c r="D270">
         <v>60182</v>
@@ -4147,13 +4147,13 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>13.02256303536706</v>
+        <v>10.82685950794257</v>
       </c>
       <c r="B271">
-        <v>13.02256303536706</v>
+        <v>16.23437813094765</v>
       </c>
       <c r="C271">
-        <v>13.02256303536706</v>
+        <v>18.56336104276124</v>
       </c>
       <c r="D271">
         <v>56669</v>
@@ -4161,13 +4161,13 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>7.686459566932172</v>
+        <v>11.1371108405292</v>
       </c>
       <c r="B272">
-        <v>9.058972185229976</v>
+        <v>12.76203591271091</v>
       </c>
       <c r="C272">
-        <v>9.928764203796163</v>
+        <v>14.65706569026224</v>
       </c>
       <c r="D272">
         <v>53882</v>
@@ -4175,13 +4175,13 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>10.53978443727829</v>
+        <v>10.44942008634098</v>
       </c>
       <c r="B273">
-        <v>13.10757674129964</v>
+        <v>14.72390304466345</v>
       </c>
       <c r="C273">
-        <v>16.47867139428854</v>
+        <v>17.10101031232625</v>
       </c>
       <c r="D273">
         <v>10434</v>
@@ -4189,13 +4189,13 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>7.584516941104084</v>
+        <v>6.790831635938957</v>
       </c>
       <c r="B274">
-        <v>11.17936168895492</v>
+        <v>10.12260451913497</v>
       </c>
       <c r="C274">
-        <v>13.82179638778325</v>
+        <v>13.34475996147376</v>
       </c>
       <c r="D274">
         <v>27419</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>11.88111833226867</v>
+        <v>7.394294308964163</v>
       </c>
       <c r="B275">
-        <v>13.15092138230522</v>
+        <v>10.32569634856001</v>
       </c>
       <c r="C275">
-        <v>14.55784929450601</v>
+        <v>14.49486857629381</v>
       </c>
       <c r="D275">
         <v>60491</v>
@@ -4217,13 +4217,13 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>6.501856612041593</v>
+        <v>11.61189405620098</v>
       </c>
       <c r="B276">
-        <v>7.158092747800956</v>
+        <v>12.99201481179688</v>
       </c>
       <c r="C276">
-        <v>7.664425850380212</v>
+        <v>14.43805386836175</v>
       </c>
       <c r="D276">
         <v>12109</v>
@@ -4231,13 +4231,13 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>11.5891505938489</v>
+        <v>8.306864239275455</v>
       </c>
       <c r="B277">
-        <v>11.96155300703635</v>
+        <v>14.16845125018832</v>
       </c>
       <c r="C277">
-        <v>12.38087560224812</v>
+        <v>18.00118699786253</v>
       </c>
       <c r="D277">
         <v>56112</v>
@@ -4245,13 +4245,13 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>14.89353881590068</v>
+        <v>14.70010639261454</v>
       </c>
       <c r="B278">
-        <v>14.89353881590068</v>
+        <v>15.64654492511943</v>
       </c>
       <c r="C278">
-        <v>14.89353881590068</v>
+        <v>16.52544379059691</v>
       </c>
       <c r="D278">
         <v>13861</v>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>12.91570682055317</v>
+        <v>6.616241259500384</v>
       </c>
       <c r="B279">
-        <v>14.75258433605196</v>
+        <v>12.72959125895787</v>
       </c>
       <c r="C279">
-        <v>16.90875165106263</v>
+        <v>18.55590516526718</v>
       </c>
       <c r="D279">
         <v>64778</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>12.6769816162996</v>
+        <v>10.29062160733156</v>
       </c>
       <c r="B280">
-        <v>12.6769816162996</v>
+        <v>10.29062160733156</v>
       </c>
       <c r="C280">
-        <v>12.6769816162996</v>
+        <v>10.29062160733156</v>
       </c>
       <c r="D280">
         <v>4219</v>
@@ -4287,13 +4287,13 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>9.326606342336163</v>
+        <v>14.99333793763071</v>
       </c>
       <c r="B281">
-        <v>15.75282321997221</v>
+        <v>14.99333793763071</v>
       </c>
       <c r="C281">
-        <v>19.5243420737097</v>
+        <v>14.99333793763071</v>
       </c>
       <c r="D281">
         <v>38047</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>13.90207203431055</v>
+        <v>14.00391649757512</v>
       </c>
       <c r="B282">
-        <v>14.90619161589794</v>
+        <v>15.11694945681858</v>
       </c>
       <c r="C282">
-        <v>15.4232897318434</v>
+        <v>15.95487130281981</v>
       </c>
       <c r="D282">
         <v>54827</v>
@@ -4315,13 +4315,13 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>13.2936829123646</v>
+        <v>6.541069206548855</v>
       </c>
       <c r="B283">
-        <v>16.23615660015661</v>
+        <v>8.561420951859361</v>
       </c>
       <c r="C283">
-        <v>19.33053908171132</v>
+        <v>10.00043937703595</v>
       </c>
       <c r="D283">
         <v>69160</v>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>8.28000746271573</v>
+        <v>13.32326431036927</v>
       </c>
       <c r="B284">
-        <v>8.28000746271573</v>
+        <v>13.76083132464552</v>
       </c>
       <c r="C284">
-        <v>8.28000746271573</v>
+        <v>14.02070382493548</v>
       </c>
       <c r="D284">
         <v>33879</v>
@@ -4343,13 +4343,13 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>14.10657782759517</v>
+        <v>7.116542450152338</v>
       </c>
       <c r="B285">
-        <v>14.10657782759517</v>
+        <v>13.51975563002964</v>
       </c>
       <c r="C285">
-        <v>14.10657782759517</v>
+        <v>18.55293108848855</v>
       </c>
       <c r="D285">
         <v>39373</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>12.64029311668128</v>
+        <v>14.60222204751335</v>
       </c>
       <c r="B286">
-        <v>12.64029311668128</v>
+        <v>14.60222204751335</v>
       </c>
       <c r="C286">
-        <v>12.64029311668128</v>
+        <v>14.60222204751335</v>
       </c>
       <c r="D286">
         <v>712</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>12.25968181109056</v>
+        <v>10.73336865263991</v>
       </c>
       <c r="B287">
-        <v>12.25968181109056</v>
+        <v>16.08423567667385</v>
       </c>
       <c r="C287">
-        <v>12.25968181109056</v>
+        <v>19.23427643952891</v>
       </c>
       <c r="D287">
         <v>47306</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>12.74207902187482</v>
+        <v>6.717448804993182</v>
       </c>
       <c r="B288">
-        <v>16.51502409252637</v>
+        <v>8.375889241316541</v>
       </c>
       <c r="C288">
-        <v>18.72291387582663</v>
+        <v>10.10013418446761</v>
       </c>
       <c r="D288">
         <v>1261</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>9.924786165822297</v>
+        <v>8.040345147019252</v>
       </c>
       <c r="B289">
-        <v>12.68807338798894</v>
+        <v>8.521664338669943</v>
       </c>
       <c r="C289">
-        <v>16.07953278755303</v>
+        <v>9.239267032826319</v>
       </c>
       <c r="D289">
         <v>1845</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>8.594353910302743</v>
+        <v>9.811131672235206</v>
       </c>
       <c r="B290">
-        <v>11.63958142513232</v>
+        <v>11.70252845126421</v>
       </c>
       <c r="C290">
-        <v>14.05106416088529</v>
+        <v>13.92798260087147</v>
       </c>
       <c r="D290">
         <v>37937</v>
@@ -4427,13 +4427,13 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>8.15296956547536</v>
+        <v>13.62148028612137</v>
       </c>
       <c r="B291">
-        <v>14.14004382281452</v>
+        <v>13.62148028612137</v>
       </c>
       <c r="C291">
-        <v>19.46451791911386</v>
+        <v>13.62148028612137</v>
       </c>
       <c r="D291">
         <v>47472</v>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>8.450565833598375</v>
+        <v>14.28573639364913</v>
       </c>
       <c r="B292">
-        <v>15.447815841023</v>
+        <v>16.23532443968752</v>
       </c>
       <c r="C292">
-        <v>18.87711220071651</v>
+        <v>17.89837970456574</v>
       </c>
       <c r="D292">
         <v>35626</v>
@@ -4455,13 +4455,13 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>12.79558955482207</v>
+        <v>11.80798362870701</v>
       </c>
       <c r="B293">
-        <v>12.79558955482207</v>
+        <v>12.89230371151837</v>
       </c>
       <c r="C293">
-        <v>12.79558955482207</v>
+        <v>13.9077253191499</v>
       </c>
       <c r="D293">
         <v>36338</v>
@@ -4469,13 +4469,13 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>9.081897842232138</v>
+        <v>13.55588805908337</v>
       </c>
       <c r="B294">
-        <v>12.90657729508376</v>
+        <v>13.55588805908337</v>
       </c>
       <c r="C294">
-        <v>16.55260153231211</v>
+        <v>13.55588805908337</v>
       </c>
       <c r="D294">
         <v>15102</v>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>11.82052466995083</v>
+        <v>12.93927530315705</v>
       </c>
       <c r="B295">
-        <v>12.74408728211031</v>
+        <v>12.93927530315705</v>
       </c>
       <c r="C295">
-        <v>13.43428975262213</v>
+        <v>12.93927530315705</v>
       </c>
       <c r="D295">
         <v>47167</v>
@@ -4497,13 +4497,13 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>14.7845831962768</v>
+        <v>13.45286793331616</v>
       </c>
       <c r="B296">
-        <v>17.503608810494</v>
+        <v>13.45286793331616</v>
       </c>
       <c r="C296">
-        <v>18.74695503967814</v>
+        <v>13.45286793331616</v>
       </c>
       <c r="D296">
         <v>8752</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>11.89092757506296</v>
+        <v>10.22382489661686</v>
       </c>
       <c r="B297">
-        <v>13.65853356226295</v>
+        <v>10.22382489661686</v>
       </c>
       <c r="C297">
-        <v>15.01581393997185</v>
+        <v>10.22382489661686</v>
       </c>
       <c r="D297">
         <v>38829</v>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>12.80221112002619</v>
+        <v>8.887993226526305</v>
       </c>
       <c r="B298">
-        <v>14.09353696255182</v>
+        <v>8.887993226526305</v>
       </c>
       <c r="C298">
-        <v>15.22473052784335</v>
+        <v>8.887993226526305</v>
       </c>
       <c r="D298">
         <v>58631</v>
@@ -4539,13 +4539,13 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>9.078741619829088</v>
+        <v>11.37212842516601</v>
       </c>
       <c r="B299">
-        <v>13.47854682669167</v>
+        <v>11.37212842516601</v>
       </c>
       <c r="C299">
-        <v>15.7662460161373</v>
+        <v>11.37212842516601</v>
       </c>
       <c r="D299">
         <v>10710</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>10.33197423373349</v>
+        <v>13.70322970859706</v>
       </c>
       <c r="B300">
-        <v>10.33197423373349</v>
+        <v>13.70322970859706</v>
       </c>
       <c r="C300">
-        <v>10.33197423373349</v>
+        <v>13.70322970859706</v>
       </c>
       <c r="D300">
         <v>7356</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>10.24545059865341</v>
+        <v>9.598123295232654</v>
       </c>
       <c r="B301">
-        <v>10.24545059865341</v>
+        <v>13.50143729132836</v>
       </c>
       <c r="C301">
-        <v>10.24545059865341</v>
+        <v>17.28326215699781</v>
       </c>
       <c r="D301">
         <v>17013</v>
@@ -4581,13 +4581,13 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>9.007237196434289</v>
+        <v>13.88298273389228</v>
       </c>
       <c r="B302">
-        <v>13.45612832119523</v>
+        <v>13.88298273389228</v>
       </c>
       <c r="C302">
-        <v>17.92948913527653</v>
+        <v>13.88298273389228</v>
       </c>
       <c r="D302">
         <v>70676</v>
@@ -4595,13 +4595,13 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>12.12650542287156</v>
+        <v>14.15529831242748</v>
       </c>
       <c r="B303">
-        <v>12.12650542287156</v>
+        <v>14.71998930106001</v>
       </c>
       <c r="C303">
-        <v>12.12650542287156</v>
+        <v>15.25818661495578</v>
       </c>
       <c r="D303">
         <v>2326</v>
@@ -4609,13 +4609,13 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>12.18508109170943</v>
+        <v>8.815741543890908</v>
       </c>
       <c r="B304">
-        <v>12.18508109170943</v>
+        <v>10.74173526487865</v>
       </c>
       <c r="C304">
-        <v>12.18508109170943</v>
+        <v>13.13501438009553</v>
       </c>
       <c r="D304">
         <v>19773</v>
@@ -4623,13 +4623,13 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>9.188368493691087</v>
+        <v>7.213092117570341</v>
       </c>
       <c r="B305">
-        <v>10.69149119532399</v>
+        <v>11.70588865286829</v>
       </c>
       <c r="C305">
-        <v>11.56881565577351</v>
+        <v>16.0780370660359</v>
       </c>
       <c r="D305">
         <v>70042</v>
@@ -4637,13 +4637,13 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>14.45256829191931</v>
+        <v>9.153151562903076</v>
       </c>
       <c r="B306">
-        <v>14.45256829191931</v>
+        <v>10.0635453733834</v>
       </c>
       <c r="C306">
-        <v>14.45256829191931</v>
+        <v>10.97215986112133</v>
       </c>
       <c r="D306">
         <v>14499</v>
@@ -4651,13 +4651,13 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>11.54282030719332</v>
+        <v>10.60572827677242</v>
       </c>
       <c r="B307">
-        <v>16.77374847883252</v>
+        <v>13.47975279295081</v>
       </c>
       <c r="C307">
-        <v>19.41681830096059</v>
+        <v>17.50913687457796</v>
       </c>
       <c r="D307">
         <v>49130</v>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>14.99712474318221</v>
+        <v>11.24815594078973</v>
       </c>
       <c r="B308">
-        <v>14.99712474318221</v>
+        <v>13.80958368467294</v>
       </c>
       <c r="C308">
-        <v>14.99712474318221</v>
+        <v>15.29935075261164</v>
       </c>
       <c r="D308">
         <v>56841</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>14.56818229635246</v>
+        <v>7.818471149308607</v>
       </c>
       <c r="B309">
-        <v>14.56818229635246</v>
+        <v>14.16317695039783</v>
       </c>
       <c r="C309">
-        <v>14.56818229635246</v>
+        <v>19.45449775259476</v>
       </c>
       <c r="D309">
         <v>4639</v>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>14.82159613212571</v>
+        <v>14.99697868851945</v>
       </c>
       <c r="B310">
-        <v>16.75628108434846</v>
+        <v>14.99697868851945</v>
       </c>
       <c r="C310">
-        <v>17.71164235717151</v>
+        <v>14.99697868851945</v>
       </c>
       <c r="D310">
         <v>12363</v>
@@ -4707,13 +4707,13 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>9.80392995569855</v>
+        <v>12.23328024102375</v>
       </c>
       <c r="B311">
-        <v>15.71189584662569</v>
+        <v>12.23328024102375</v>
       </c>
       <c r="C311">
-        <v>18.85000335634686</v>
+        <v>12.23328024102375</v>
       </c>
       <c r="D311">
         <v>4712</v>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>8.949584155110642</v>
+        <v>12.98790714726783</v>
       </c>
       <c r="B312">
-        <v>13.07995518615735</v>
+        <v>14.12605378271772</v>
       </c>
       <c r="C312">
-        <v>17.1047651313711</v>
+        <v>14.75831890595146</v>
       </c>
       <c r="D312">
         <v>12062</v>
@@ -4735,13 +4735,13 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>12.84593780315481</v>
+        <v>6.161783695919439</v>
       </c>
       <c r="B313">
-        <v>16.15672088591061</v>
+        <v>9.721946450401495</v>
       </c>
       <c r="C313">
-        <v>18.86887057218701</v>
+        <v>14.42508768988773</v>
       </c>
       <c r="D313">
         <v>30456</v>
@@ -4749,13 +4749,13 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>10.07617601472884</v>
+        <v>8.066935467068106</v>
       </c>
       <c r="B314">
-        <v>10.42320417210793</v>
+        <v>9.478435954865086</v>
       </c>
       <c r="C314">
-        <v>10.59506451012567</v>
+        <v>10.59096602431964</v>
       </c>
       <c r="D314">
         <v>59125</v>
@@ -4763,13 +4763,13 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>10.81272718543187</v>
+        <v>10.16125903744251</v>
       </c>
       <c r="B315">
-        <v>12.46805468844384</v>
+        <v>11.7703623250009</v>
       </c>
       <c r="C315">
-        <v>13.39776799897663</v>
+        <v>12.95136109285522</v>
       </c>
       <c r="D315">
         <v>56546</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>13.14434771519154</v>
+        <v>11.99610088183545</v>
       </c>
       <c r="B316">
-        <v>13.14434771519154</v>
+        <v>11.99610088183545</v>
       </c>
       <c r="C316">
-        <v>13.14434771519154</v>
+        <v>11.99610088183545</v>
       </c>
       <c r="D316">
         <v>48405</v>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>14.14812021609396</v>
+        <v>13.60354198655114</v>
       </c>
       <c r="B317">
-        <v>14.14812021609396</v>
+        <v>13.60354198655114</v>
       </c>
       <c r="C317">
-        <v>14.14812021609396</v>
+        <v>13.60354198655114</v>
       </c>
       <c r="D317">
         <v>36706</v>
@@ -4805,13 +4805,13 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>8.400654623983428</v>
+        <v>12.27139118104242</v>
       </c>
       <c r="B318">
-        <v>11.07399077611816</v>
+        <v>15.55938904733961</v>
       </c>
       <c r="C318">
-        <v>13.51733422081452</v>
+        <v>19.68410348810721</v>
       </c>
       <c r="D318">
         <v>41069</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>10.86589206336066</v>
+        <v>10.21521346340887</v>
       </c>
       <c r="B319">
-        <v>14.63311527618936</v>
+        <v>10.74355594889593</v>
       </c>
       <c r="C319">
-        <v>18.65281439269893</v>
+        <v>11.26076083630323</v>
       </c>
       <c r="D319">
         <v>71639</v>
@@ -4833,13 +4833,13 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>10.28428434580564</v>
+        <v>13.45995613792911</v>
       </c>
       <c r="B320">
-        <v>12.34940306755356</v>
+        <v>15.78002979768411</v>
       </c>
       <c r="C320">
-        <v>13.50957107089926</v>
+        <v>17.92743562429678</v>
       </c>
       <c r="D320">
         <v>60744</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>11.73031340399757</v>
+        <v>9.593805806245655</v>
       </c>
       <c r="B321">
-        <v>13.50380515295608</v>
+        <v>13.90747739241616</v>
       </c>
       <c r="C321">
-        <v>14.47636816767044</v>
+        <v>18.55632299731951</v>
       </c>
       <c r="D321">
         <v>68798</v>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>7.315410437062383</v>
+        <v>13.69031744753011</v>
       </c>
       <c r="B322">
-        <v>8.554991395040377</v>
+        <v>13.69031744753011</v>
       </c>
       <c r="C322">
-        <v>9.280156826134771</v>
+        <v>13.69031744753011</v>
       </c>
       <c r="D322">
         <v>72918</v>
@@ -4875,13 +4875,13 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>14.41003552079201</v>
+        <v>13.04325788095593</v>
       </c>
       <c r="B323">
-        <v>14.9900965545209</v>
+        <v>13.04325788095593</v>
       </c>
       <c r="C323">
-        <v>15.68615097086877</v>
+        <v>13.04325788095593</v>
       </c>
       <c r="D323">
         <v>14164</v>
@@ -4889,13 +4889,13 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>13.44240762619302</v>
+        <v>10.05766357365064</v>
       </c>
       <c r="B324">
-        <v>13.66548503245454</v>
+        <v>10.05766357365064</v>
       </c>
       <c r="C324">
-        <v>13.87357607774902</v>
+        <v>10.05766357365064</v>
       </c>
       <c r="D324">
         <v>50522</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>12.88516542850994</v>
+        <v>13.97727033938281</v>
       </c>
       <c r="B325">
-        <v>17.00649293455998</v>
+        <v>13.97727033938281</v>
       </c>
       <c r="C325">
-        <v>19.37981270486489</v>
+        <v>13.97727033938281</v>
       </c>
       <c r="D325">
         <v>3352</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>9.157952251844108</v>
+        <v>10.53486397513188</v>
       </c>
       <c r="B326">
-        <v>15.0260094867981</v>
+        <v>13.50953281116198</v>
       </c>
       <c r="C326">
-        <v>19.04018659435678</v>
+        <v>15.83129874081351</v>
       </c>
       <c r="D326">
         <v>70943</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>8.965194425079972</v>
+        <v>7.63780229841359</v>
       </c>
       <c r="B327">
-        <v>13.16109517947802</v>
+        <v>11.71480459658128</v>
       </c>
       <c r="C327">
-        <v>15.32060501223896</v>
+        <v>15.74570787372068</v>
       </c>
       <c r="D327">
         <v>69551</v>
@@ -4945,13 +4945,13 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>8.83638922451064</v>
+        <v>10.86717314925045</v>
       </c>
       <c r="B328">
-        <v>11.41534490393961</v>
+        <v>14.74376600091196</v>
       </c>
       <c r="C328">
-        <v>14.89139414217789</v>
+        <v>18.15709953836631</v>
       </c>
       <c r="D328">
         <v>11762</v>
@@ -4959,13 +4959,13 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>14.3320901747793</v>
+        <v>6.722496889997274</v>
       </c>
       <c r="B329">
-        <v>14.3320901747793</v>
+        <v>8.899907055762895</v>
       </c>
       <c r="C329">
-        <v>14.3320901747793</v>
+        <v>12.11123496643268</v>
       </c>
       <c r="D329">
         <v>20439</v>
@@ -4973,13 +4973,13 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>8.784602561965585</v>
+        <v>13.63757583685219</v>
       </c>
       <c r="B330">
-        <v>9.71877188368526</v>
+        <v>15.63068742703637</v>
       </c>
       <c r="C330">
-        <v>10.78178621421102</v>
+        <v>17.72436633647885</v>
       </c>
       <c r="D330">
         <v>45965</v>
@@ -4987,13 +4987,13 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>7.758409335510805</v>
+        <v>10.24392390623689</v>
       </c>
       <c r="B331">
-        <v>9.134822931568403</v>
+        <v>10.24392390623689</v>
       </c>
       <c r="C331">
-        <v>10.04495363042224</v>
+        <v>10.24392390623689</v>
       </c>
       <c r="D331">
         <v>37651</v>
@@ -5001,13 +5001,13 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>14.25061231548898</v>
+        <v>12.64200691622682</v>
       </c>
       <c r="B332">
-        <v>14.25061231548898</v>
+        <v>13.24681276594612</v>
       </c>
       <c r="C332">
-        <v>14.25061231548898</v>
+        <v>13.62146955390926</v>
       </c>
       <c r="D332">
         <v>41241</v>
@@ -5015,13 +5015,13 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>8.577470898628235</v>
+        <v>13.67286554770544</v>
       </c>
       <c r="B333">
-        <v>11.29457522339718</v>
+        <v>13.90968583827215</v>
       </c>
       <c r="C333">
-        <v>14.44463322579395</v>
+        <v>14.0583996794885</v>
       </c>
       <c r="D333">
         <v>58978</v>
@@ -5029,13 +5029,13 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>6.941383948316798</v>
+        <v>7.241502249380574</v>
       </c>
       <c r="B334">
-        <v>12.72332751108442</v>
+        <v>10.27545214969366</v>
       </c>
       <c r="C334">
-        <v>19.59669776144437</v>
+        <v>13.23152498400304</v>
       </c>
       <c r="D334">
         <v>46703</v>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>7.834961382905021</v>
+        <v>9.553415690548718</v>
       </c>
       <c r="B335">
-        <v>14.21970020228768</v>
+        <v>9.553415690548718</v>
       </c>
       <c r="C335">
-        <v>18.16863218438812</v>
+        <v>9.553415690548718</v>
       </c>
       <c r="D335">
         <v>32503</v>
@@ -5057,13 +5057,13 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>10.88063498446718</v>
+        <v>12.34954176424071</v>
       </c>
       <c r="B336">
-        <v>12.42733505511655</v>
+        <v>12.34954176424071</v>
       </c>
       <c r="C336">
-        <v>14.49795515683945</v>
+        <v>12.34954176424071</v>
       </c>
       <c r="D336">
         <v>59437</v>
@@ -5071,13 +5071,13 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>7.048172590322793</v>
+        <v>13.47860872023739</v>
       </c>
       <c r="B337">
-        <v>7.914363467701066</v>
+        <v>17.49190820571845</v>
       </c>
       <c r="C337">
-        <v>8.988137288833968</v>
+        <v>19.24044609651901</v>
       </c>
       <c r="D337">
         <v>50931</v>
@@ -5085,13 +5085,13 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>9.971553977346048</v>
+        <v>7.108194338623434</v>
       </c>
       <c r="B338">
-        <v>16.09672529479531</v>
+        <v>7.806657251750693</v>
       </c>
       <c r="C338">
-        <v>19.82470585382544</v>
+        <v>8.153814154793508</v>
       </c>
       <c r="D338">
         <v>16590</v>
@@ -5099,13 +5099,13 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>14.75532683799975</v>
+        <v>7.46566300210543</v>
       </c>
       <c r="B339">
-        <v>14.75532683799975</v>
+        <v>11.70492075771834</v>
       </c>
       <c r="C339">
-        <v>14.75532683799975</v>
+        <v>16.62422555265948</v>
       </c>
       <c r="D339">
         <v>69768</v>
@@ -5113,13 +5113,13 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>6.020388853736222</v>
+        <v>8.902096233330667</v>
       </c>
       <c r="B340">
-        <v>10.53362781468697</v>
+        <v>10.93322374361723</v>
       </c>
       <c r="C340">
-        <v>14.7600640822202</v>
+        <v>11.98092217557132</v>
       </c>
       <c r="D340">
         <v>63453</v>
@@ -5127,13 +5127,13 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>14.21651390357874</v>
+        <v>7.879346688743681</v>
       </c>
       <c r="B341">
-        <v>14.21651390357874</v>
+        <v>12.49843702751346</v>
       </c>
       <c r="C341">
-        <v>14.21651390357874</v>
+        <v>14.48645554366522</v>
       </c>
       <c r="D341">
         <v>44993</v>
@@ -5141,13 +5141,13 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>14.88983592577279</v>
+        <v>6.704944790806621</v>
       </c>
       <c r="B342">
-        <v>14.88983592577279</v>
+        <v>10.8795347977175</v>
       </c>
       <c r="C342">
-        <v>14.88983592577279</v>
+        <v>15.52197273587808</v>
       </c>
       <c r="D342">
         <v>210</v>
@@ -5155,13 +5155,13 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>7.342241131234914</v>
+        <v>6.101291398052126</v>
       </c>
       <c r="B343">
-        <v>12.63283336391714</v>
+        <v>8.722528561578608</v>
       </c>
       <c r="C343">
-        <v>14.90939891547896</v>
+        <v>11.34089327126276</v>
       </c>
       <c r="D343">
         <v>28939</v>
@@ -5169,13 +5169,13 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>8.648097064113244</v>
+        <v>6.173185012070462</v>
       </c>
       <c r="B344">
-        <v>9.430454358434307</v>
+        <v>8.903412155784274</v>
       </c>
       <c r="C344">
-        <v>10.11366705817636</v>
+        <v>12.2158218891127</v>
       </c>
       <c r="D344">
         <v>67432</v>
@@ -5183,13 +5183,13 @@
     </row>
     <row r="345">
       <c r="A345">
-        <v>13.76422305358574</v>
+        <v>14.48585169576108</v>
       </c>
       <c r="B345">
-        <v>13.76422305358574</v>
+        <v>14.48585169576108</v>
       </c>
       <c r="C345">
-        <v>13.76422305358574</v>
+        <v>14.48585169576108</v>
       </c>
       <c r="D345">
         <v>62466</v>
@@ -5197,13 +5197,13 @@
     </row>
     <row r="346">
       <c r="A346">
-        <v>13.79209163691849</v>
+        <v>14.73551478493027</v>
       </c>
       <c r="B346">
-        <v>13.79209163691849</v>
+        <v>14.73551478493027</v>
       </c>
       <c r="C346">
-        <v>13.79209163691849</v>
+        <v>14.73551478493027</v>
       </c>
       <c r="D346">
         <v>36841</v>
@@ -5211,13 +5211,13 @@
     </row>
     <row r="347">
       <c r="A347">
-        <v>6.704552630893886</v>
+        <v>7.489357167156413</v>
       </c>
       <c r="B347">
-        <v>8.680438228266718</v>
+        <v>10.74637793790097</v>
       </c>
       <c r="C347">
-        <v>10.15430102590472</v>
+        <v>14.08511274959892</v>
       </c>
       <c r="D347">
         <v>33486</v>
@@ -5225,13 +5225,13 @@
     </row>
     <row r="348">
       <c r="A348">
-        <v>8.366703148931265</v>
+        <v>10.37168324645609</v>
       </c>
       <c r="B348">
-        <v>9.867158630673707</v>
+        <v>12.74217044467265</v>
       </c>
       <c r="C348">
-        <v>11.64346772595309</v>
+        <v>13.84213209850714</v>
       </c>
       <c r="D348">
         <v>54567</v>
@@ -5239,13 +5239,13 @@
     </row>
     <row r="349">
       <c r="A349">
-        <v>7.957791967084631</v>
+        <v>7.365712017053738</v>
       </c>
       <c r="B349">
-        <v>10.98384090203564</v>
+        <v>11.34704561207083</v>
       </c>
       <c r="C349">
-        <v>13.32848854537588</v>
+        <v>15.63291010563262</v>
       </c>
       <c r="D349">
         <v>66204</v>
@@ -5253,13 +5253,13 @@
     </row>
     <row r="350">
       <c r="A350">
-        <v>11.25178281962872</v>
+        <v>11.14834957709536</v>
       </c>
       <c r="B350">
-        <v>11.25178281962872</v>
+        <v>14.87140307716326</v>
       </c>
       <c r="C350">
-        <v>11.25178281962872</v>
+        <v>19.25904745759908</v>
       </c>
       <c r="D350">
         <v>39912</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>7.23242535861209</v>
+        <v>8.455062559107319</v>
       </c>
       <c r="B351">
-        <v>11.67016298785733</v>
+        <v>14.79221797828756</v>
       </c>
       <c r="C351">
-        <v>17.86136469047051</v>
+        <v>18.51542978431098</v>
       </c>
       <c r="D351">
         <v>28378</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="352">
       <c r="A352">
-        <v>10.02306917728856</v>
+        <v>9.215655006235465</v>
       </c>
       <c r="B352">
-        <v>10.02306917728856</v>
+        <v>13.02264169658941</v>
       </c>
       <c r="C352">
-        <v>10.02306917728856</v>
+        <v>15.50239383243024</v>
       </c>
       <c r="D352">
         <v>16077</v>
@@ -5295,13 +5295,13 @@
     </row>
     <row r="353">
       <c r="A353">
-        <v>11.83044181088917</v>
+        <v>12.90236141206697</v>
       </c>
       <c r="B353">
-        <v>12.45450366137507</v>
+        <v>14.22442743205316</v>
       </c>
       <c r="C353">
-        <v>13.02250285109039</v>
+        <v>16.1818731360836</v>
       </c>
       <c r="D353">
         <v>67895</v>
@@ -5309,13 +5309,13 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>8.135309599572793</v>
+        <v>6.499022189760581</v>
       </c>
       <c r="B354">
-        <v>12.24007388486936</v>
+        <v>11.8319298425201</v>
       </c>
       <c r="C354">
-        <v>14.26641589670908</v>
+        <v>15.65092113334686</v>
       </c>
       <c r="D354">
         <v>30184</v>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>13.67789172870107</v>
+        <v>8.935150656150654</v>
       </c>
       <c r="B355">
-        <v>14.25709893940228</v>
+        <v>11.07053313430322</v>
       </c>
       <c r="C355">
-        <v>14.8974708415335</v>
+        <v>12.81018363253679</v>
       </c>
       <c r="D355">
         <v>66955</v>
@@ -5337,13 +5337,13 @@
     </row>
     <row r="356">
       <c r="A356">
-        <v>6.509397736983374</v>
+        <v>14.79015164240263</v>
       </c>
       <c r="B356">
-        <v>7.789334531842155</v>
+        <v>14.79015164240263</v>
       </c>
       <c r="C356">
-        <v>9.158670033793896</v>
+        <v>14.79015164240263</v>
       </c>
       <c r="D356">
         <v>23410</v>
@@ -5351,13 +5351,13 @@
     </row>
     <row r="357">
       <c r="A357">
-        <v>12.34488956700079</v>
+        <v>9.544328873511404</v>
       </c>
       <c r="B357">
-        <v>14.47483119602153</v>
+        <v>10.35047087505843</v>
       </c>
       <c r="C357">
-        <v>17.21749277960043</v>
+        <v>10.71354751940817</v>
       </c>
       <c r="D357">
         <v>58267</v>
@@ -5365,13 +5365,13 @@
     </row>
     <row r="358">
       <c r="A358">
-        <v>7.242966513382271</v>
+        <v>11.18048365646973</v>
       </c>
       <c r="B358">
-        <v>11.11223963771625</v>
+        <v>11.18048365646973</v>
       </c>
       <c r="C358">
-        <v>16.38939032156486</v>
+        <v>11.18048365646973</v>
       </c>
       <c r="D358">
         <v>18937</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="359">
       <c r="A359">
-        <v>13.77952300035395</v>
+        <v>12.74751643370837</v>
       </c>
       <c r="B359">
-        <v>14.51201692587509</v>
+        <v>12.74751643370837</v>
       </c>
       <c r="C359">
-        <v>15.34012791700661</v>
+        <v>12.74751643370837</v>
       </c>
       <c r="D359">
         <v>8580</v>
@@ -5393,13 +5393,13 @@
     </row>
     <row r="360">
       <c r="A360">
-        <v>12.68370400113054</v>
+        <v>13.6813445049338</v>
       </c>
       <c r="B360">
-        <v>14.79875096508643</v>
+        <v>13.6813445049338</v>
       </c>
       <c r="C360">
-        <v>16.56019040266983</v>
+        <v>13.6813445049338</v>
       </c>
       <c r="D360">
         <v>28484</v>
@@ -5407,13 +5407,13 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>9.583264412591234</v>
+        <v>8.418649553786963</v>
       </c>
       <c r="B361">
-        <v>9.583264412591234</v>
+        <v>12.30953606651522</v>
       </c>
       <c r="C361">
-        <v>9.583264412591234</v>
+        <v>16.78236817126162</v>
       </c>
       <c r="D361">
         <v>37060</v>
@@ -5421,13 +5421,13 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>6.699569350574166</v>
+        <v>14.6936421347782</v>
       </c>
       <c r="B362">
-        <v>10.34523799289582</v>
+        <v>14.6936421347782</v>
       </c>
       <c r="C362">
-        <v>14.17406766442582</v>
+        <v>14.6936421347782</v>
       </c>
       <c r="D362">
         <v>35578</v>
@@ -5435,13 +5435,13 @@
     </row>
     <row r="363">
       <c r="A363">
-        <v>13.86483356030658</v>
+        <v>12.85938217677176</v>
       </c>
       <c r="B363">
-        <v>17.50203133919425</v>
+        <v>12.85938217677176</v>
       </c>
       <c r="C363">
-        <v>19.38415121287107</v>
+        <v>12.85938217677176</v>
       </c>
       <c r="D363">
         <v>66866</v>
@@ -5449,13 +5449,13 @@
     </row>
     <row r="364">
       <c r="A364">
-        <v>10.41064474009909</v>
+        <v>14.28650842350908</v>
       </c>
       <c r="B364">
-        <v>14.16227896585909</v>
+        <v>14.28650842350908</v>
       </c>
       <c r="C364">
-        <v>18.97874656890053</v>
+        <v>14.28650842350908</v>
       </c>
       <c r="D364">
         <v>2390</v>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="365">
       <c r="A365">
-        <v>10.26933996984735</v>
+        <v>9.500897078309208</v>
       </c>
       <c r="B365">
-        <v>10.58312544182239</v>
+        <v>9.500897078309208</v>
       </c>
       <c r="C365">
-        <v>10.72499989706557</v>
+        <v>9.500897078309208</v>
       </c>
       <c r="D365">
         <v>31421</v>
@@ -5477,13 +5477,13 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>7.42163375322707</v>
+        <v>6.283037317218259</v>
       </c>
       <c r="B366">
-        <v>13.59200888110422</v>
+        <v>13.80410219984255</v>
       </c>
       <c r="C366">
-        <v>16.63091816473752</v>
+        <v>17.20688831584994</v>
       </c>
       <c r="D366">
         <v>68023</v>
@@ -5491,13 +5491,13 @@
     </row>
     <row r="367">
       <c r="A367">
-        <v>10.23690388631076</v>
+        <v>13.15057435864583</v>
       </c>
       <c r="B367">
-        <v>11.82037748203288</v>
+        <v>17.2831671842613</v>
       </c>
       <c r="C367">
-        <v>12.85182986059226</v>
+        <v>19.15312043449376</v>
       </c>
       <c r="D367">
         <v>54724</v>
@@ -5505,13 +5505,13 @@
     </row>
     <row r="368">
       <c r="A368">
-        <v>6.125334943877533</v>
+        <v>6.048273515654728</v>
       </c>
       <c r="B368">
-        <v>12.0075390444968</v>
+        <v>9.127250173389889</v>
       </c>
       <c r="C368">
-        <v>18.45260907022748</v>
+        <v>12.45517897652462</v>
       </c>
       <c r="D368">
         <v>32729</v>
@@ -5519,13 +5519,13 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>10.59315797011368</v>
+        <v>7.162095807725564</v>
       </c>
       <c r="B369">
-        <v>14.7006599049591</v>
+        <v>13.05196001270718</v>
       </c>
       <c r="C369">
-        <v>17.35313791316003</v>
+        <v>17.33457658730913</v>
       </c>
       <c r="D369">
         <v>31154</v>
@@ -5533,13 +5533,13 @@
     </row>
     <row r="370">
       <c r="A370">
-        <v>9.746029761387035</v>
+        <v>13.25135069503449</v>
       </c>
       <c r="B370">
-        <v>10.94093062440072</v>
+        <v>13.48391155770307</v>
       </c>
       <c r="C370">
-        <v>11.62471961171832</v>
+        <v>13.62553215760272</v>
       </c>
       <c r="D370">
         <v>69959</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>6.372488927096128</v>
+        <v>8.094114068895578</v>
       </c>
       <c r="B371">
-        <v>7.360224046682236</v>
+        <v>8.611996042977538</v>
       </c>
       <c r="C371">
-        <v>8.270865296362899</v>
+        <v>9.224189874948934</v>
       </c>
       <c r="D371">
         <v>10552</v>
@@ -5561,13 +5561,13 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>14.48997817584313</v>
+        <v>7.254635895369574</v>
       </c>
       <c r="B372">
-        <v>16.55647260135682</v>
+        <v>14.95763193295568</v>
       </c>
       <c r="C372">
-        <v>17.84175739332568</v>
+        <v>19.11082609614823</v>
       </c>
       <c r="D372">
         <v>12917</v>
@@ -5575,13 +5575,13 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>14.61462566326372</v>
+        <v>13.77066899696365</v>
       </c>
       <c r="B373">
-        <v>14.61462566326372</v>
+        <v>15.92944254729851</v>
       </c>
       <c r="C373">
-        <v>14.61462566326372</v>
+        <v>18.04013525426853</v>
       </c>
       <c r="D373">
         <v>23368</v>
@@ -5589,13 +5589,13 @@
     </row>
     <row r="374">
       <c r="A374">
-        <v>6.429776867385954</v>
+        <v>11.81770251458511</v>
       </c>
       <c r="B374">
-        <v>7.831391001138575</v>
+        <v>14.79240183991069</v>
       </c>
       <c r="C374">
-        <v>8.57552926056087</v>
+        <v>17.87914300104603</v>
       </c>
       <c r="D374">
         <v>25974</v>
@@ -5603,13 +5603,13 @@
     </row>
     <row r="375">
       <c r="A375">
-        <v>9.007900944678113</v>
+        <v>14.73396407207474</v>
       </c>
       <c r="B375">
-        <v>10.54288463824625</v>
+        <v>14.73396407207474</v>
       </c>
       <c r="C375">
-        <v>12.63305663480423</v>
+        <v>14.73396407207474</v>
       </c>
       <c r="D375">
         <v>1210</v>
@@ -5617,13 +5617,13 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>10.18505699350499</v>
+        <v>14.31396758439951</v>
       </c>
       <c r="B376">
-        <v>12.07519550790231</v>
+        <v>14.31396758439951</v>
       </c>
       <c r="C376">
-        <v>12.90557173371781</v>
+        <v>14.31396758439951</v>
       </c>
       <c r="D376">
         <v>28493</v>
@@ -5631,13 +5631,13 @@
     </row>
     <row r="377">
       <c r="A377">
-        <v>7.728019421221688</v>
+        <v>7.71908971038647</v>
       </c>
       <c r="B377">
-        <v>11.24903252664083</v>
+        <v>8.510497310346032</v>
       </c>
       <c r="C377">
-        <v>16.06571796466596</v>
+        <v>9.139193581650034</v>
       </c>
       <c r="D377">
         <v>1836</v>
@@ -5645,13 +5645,13 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>13.55782277625985</v>
+        <v>9.888500192435458</v>
       </c>
       <c r="B378">
-        <v>13.55782277625985</v>
+        <v>14.21981726195395</v>
       </c>
       <c r="C378">
-        <v>13.55782277625985</v>
+        <v>18.97182746208273</v>
       </c>
       <c r="D378">
         <v>40460</v>
@@ -5659,13 +5659,13 @@
     </row>
     <row r="379">
       <c r="A379">
-        <v>7.183842617785558</v>
+        <v>14.34866077615879</v>
       </c>
       <c r="B379">
-        <v>7.627459607078269</v>
+        <v>14.34866077615879</v>
       </c>
       <c r="C379">
-        <v>7.893683215952478</v>
+        <v>14.34866077615879</v>
       </c>
       <c r="D379">
         <v>17739</v>
@@ -5673,13 +5673,13 @@
     </row>
     <row r="380">
       <c r="A380">
-        <v>10.92727926978841</v>
+        <v>13.39463867805898</v>
       </c>
       <c r="B380">
-        <v>10.92727926978841</v>
+        <v>13.39463867805898</v>
       </c>
       <c r="C380">
-        <v>10.92727926978841</v>
+        <v>13.39463867805898</v>
       </c>
       <c r="D380">
         <v>49669</v>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>13.0085132997483</v>
+        <v>14.8927193779964</v>
       </c>
       <c r="B381">
-        <v>15.16430347755909</v>
+        <v>14.90081832291968</v>
       </c>
       <c r="C381">
-        <v>16.85678626119625</v>
+        <v>14.91015228268225</v>
       </c>
       <c r="D381">
         <v>27153</v>
@@ -5701,13 +5701,13 @@
     </row>
     <row r="382">
       <c r="A382">
-        <v>8.70712509797886</v>
+        <v>12.07300968607888</v>
       </c>
       <c r="B382">
-        <v>9.64926186269445</v>
+        <v>12.07300968607888</v>
       </c>
       <c r="C382">
-        <v>10.49874656484462</v>
+        <v>12.07300968607888</v>
       </c>
       <c r="D382">
         <v>34060</v>
@@ -5715,13 +5715,13 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>10.95776624232531</v>
+        <v>6.606769350590184</v>
       </c>
       <c r="B383">
-        <v>12.36746102212586</v>
+        <v>8.6997324328376</v>
       </c>
       <c r="C383">
-        <v>13.32836813409813</v>
+        <v>10.7073632668471</v>
       </c>
       <c r="D383">
         <v>30669</v>
@@ -5729,13 +5729,13 @@
     </row>
     <row r="384">
       <c r="A384">
-        <v>9.659426066558808</v>
+        <v>8.202049734536558</v>
       </c>
       <c r="B384">
-        <v>9.659426066558808</v>
+        <v>13.97351636278726</v>
       </c>
       <c r="C384">
-        <v>9.659426066558808</v>
+        <v>19.98608975147363</v>
       </c>
       <c r="D384">
         <v>56543</v>
@@ -5743,13 +5743,13 @@
     </row>
     <row r="385">
       <c r="A385">
-        <v>6.999149309238419</v>
+        <v>7.749059112975374</v>
       </c>
       <c r="B385">
-        <v>10.21925977336273</v>
+        <v>14.51798546734288</v>
       </c>
       <c r="C385">
-        <v>14.93330457189586</v>
+        <v>18.22557641891763</v>
       </c>
       <c r="D385">
         <v>46136</v>
@@ -5757,13 +5757,13 @@
     </row>
     <row r="386">
       <c r="A386">
-        <v>7.14274844317697</v>
+        <v>6.550675448030233</v>
       </c>
       <c r="B386">
-        <v>10.1167894766656</v>
+        <v>7.257457398953337</v>
       </c>
       <c r="C386">
-        <v>12.03124337946065</v>
+        <v>7.682739182491787</v>
       </c>
       <c r="D386">
         <v>52800</v>
@@ -5771,13 +5771,13 @@
     </row>
     <row r="387">
       <c r="A387">
-        <v>8.706641642376781</v>
+        <v>9.632962625473738</v>
       </c>
       <c r="B387">
-        <v>11.69511207060532</v>
+        <v>12.34444172367525</v>
       </c>
       <c r="C387">
-        <v>15.39082586416043</v>
+        <v>15.65464831830468</v>
       </c>
       <c r="D387">
         <v>41413</v>
@@ -5785,13 +5785,13 @@
     </row>
     <row r="388">
       <c r="A388">
-        <v>14.66230032965541</v>
+        <v>10.22554092155769</v>
       </c>
       <c r="B388">
-        <v>15.43287655560911</v>
+        <v>13.06170788639647</v>
       </c>
       <c r="C388">
-        <v>15.80070586234797</v>
+        <v>14.51874841179233</v>
       </c>
       <c r="D388">
         <v>15266</v>
@@ -5799,13 +5799,13 @@
     </row>
     <row r="389">
       <c r="A389">
-        <v>8.415531770791858</v>
+        <v>14.33190665510483</v>
       </c>
       <c r="B389">
-        <v>8.998438800229247</v>
+        <v>14.33190665510483</v>
       </c>
       <c r="C389">
-        <v>9.637909241719171</v>
+        <v>14.33190665510483</v>
       </c>
       <c r="D389">
         <v>10460</v>
@@ -5813,13 +5813,13 @@
     </row>
     <row r="390">
       <c r="A390">
-        <v>8.265753326006234</v>
+        <v>9.362650619354099</v>
       </c>
       <c r="B390">
-        <v>9.621552561587912</v>
+        <v>13.39544740051065</v>
       </c>
       <c r="C390">
-        <v>10.20907825033646</v>
+        <v>16.88407828216441</v>
       </c>
       <c r="D390">
         <v>64908</v>
@@ -5827,13 +5827,13 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>12.80425126897171</v>
+        <v>10.52925070049241</v>
       </c>
       <c r="B391">
-        <v>15.40742606921978</v>
+        <v>13.03281869824533</v>
       </c>
       <c r="C391">
-        <v>16.99794148618821</v>
+        <v>14.28341882303357</v>
       </c>
       <c r="D391">
         <v>63884</v>
@@ -5841,13 +5841,13 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>7.55932676140219</v>
+        <v>8.736421525944024</v>
       </c>
       <c r="B392">
-        <v>12.56833434791553</v>
+        <v>9.189834400248815</v>
       </c>
       <c r="C392">
-        <v>19.98315254051704</v>
+        <v>9.402440187404864</v>
       </c>
       <c r="D392">
         <v>37893</v>
@@ -5855,13 +5855,13 @@
     </row>
     <row r="393">
       <c r="A393">
-        <v>11.60831880988553</v>
+        <v>8.862503242911771</v>
       </c>
       <c r="B393">
-        <v>14.01770924618205</v>
+        <v>14.69298960858947</v>
       </c>
       <c r="C393">
-        <v>16.07986910268664</v>
+        <v>17.40484875219408</v>
       </c>
       <c r="D393">
         <v>25774</v>
@@ -5869,13 +5869,13 @@
     </row>
     <row r="394">
       <c r="A394">
-        <v>7.325951445149258</v>
+        <v>13.70039629423991</v>
       </c>
       <c r="B394">
-        <v>8.634768138447363</v>
+        <v>14.3646578386313</v>
       </c>
       <c r="C394">
-        <v>10.0400949496543</v>
+        <v>15.14128821901977</v>
       </c>
       <c r="D394">
         <v>19584</v>
@@ -5883,13 +5883,13 @@
     </row>
     <row r="395">
       <c r="A395">
-        <v>10.17271165084094</v>
+        <v>13.74124010140076</v>
       </c>
       <c r="B395">
-        <v>13.44810516017243</v>
+        <v>13.74124010140076</v>
       </c>
       <c r="C395">
-        <v>15.55497970432043</v>
+        <v>13.74124010140076</v>
       </c>
       <c r="D395">
         <v>24447</v>
@@ -5897,13 +5897,13 @@
     </row>
     <row r="396">
       <c r="A396">
-        <v>13.45811082841828</v>
+        <v>13.10577590460889</v>
       </c>
       <c r="B396">
-        <v>13.45811082841828</v>
+        <v>13.10577590460889</v>
       </c>
       <c r="C396">
-        <v>13.45811082841828</v>
+        <v>13.10577590460889</v>
       </c>
       <c r="D396">
         <v>72911</v>
@@ -5911,13 +5911,13 @@
     </row>
     <row r="397">
       <c r="A397">
-        <v>14.86685619852506</v>
+        <v>6.811805318109691</v>
       </c>
       <c r="B397">
-        <v>15.53582578512947</v>
+        <v>13.03560538183931</v>
       </c>
       <c r="C397">
-        <v>16.28175894904416</v>
+        <v>17.52752361237071</v>
       </c>
       <c r="D397">
         <v>70336</v>
@@ -5925,13 +5925,13 @@
     </row>
     <row r="398">
       <c r="A398">
-        <v>13.47700449102558</v>
+        <v>12.03727918979712</v>
       </c>
       <c r="B398">
-        <v>15.23677784541024</v>
+        <v>14.08328489378159</v>
       </c>
       <c r="C398">
-        <v>17.78021597885527</v>
+        <v>15.56304303405341</v>
       </c>
       <c r="D398">
         <v>66767</v>
@@ -5939,13 +5939,13 @@
     </row>
     <row r="399">
       <c r="A399">
-        <v>10.76837919582613</v>
+        <v>10.31573933805339</v>
       </c>
       <c r="B399">
-        <v>14.74561625234384</v>
+        <v>10.31573933805339</v>
       </c>
       <c r="C399">
-        <v>16.86786959937308</v>
+        <v>10.31573933805339</v>
       </c>
       <c r="D399">
         <v>11577</v>
@@ -5953,13 +5953,13 @@
     </row>
     <row r="400">
       <c r="A400">
-        <v>12.6240229352843</v>
+        <v>9.162333038868383</v>
       </c>
       <c r="B400">
-        <v>15.86293251933037</v>
+        <v>15.77940262766575</v>
       </c>
       <c r="C400">
-        <v>18.6044777877396</v>
+        <v>18.86620852921624</v>
       </c>
       <c r="D400">
         <v>67210</v>
@@ -5967,13 +5967,13 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>14.3613487270195</v>
+        <v>11.62201750511304</v>
       </c>
       <c r="B401">
-        <v>14.3613487270195</v>
+        <v>14.52611202418449</v>
       </c>
       <c r="C401">
-        <v>14.3613487270195</v>
+        <v>17.40387611673214</v>
       </c>
       <c r="D401">
         <v>45222</v>
@@ -5981,13 +5981,13 @@
     </row>
     <row r="402">
       <c r="A402">
-        <v>6.253511311020702</v>
+        <v>11.00710956123658</v>
       </c>
       <c r="B402">
-        <v>12.23332390231994</v>
+        <v>11.52198367746041</v>
       </c>
       <c r="C402">
-        <v>19.47912392672151</v>
+        <v>12.28830907668453</v>
       </c>
       <c r="D402">
         <v>33759</v>
@@ -5995,13 +5995,13 @@
     </row>
     <row r="403">
       <c r="A403">
-        <v>11.63039537868463</v>
+        <v>14.18623934313655</v>
       </c>
       <c r="B403">
-        <v>11.72024830406357</v>
+        <v>14.18623934313655</v>
       </c>
       <c r="C403">
-        <v>11.7853815422859</v>
+        <v>14.18623934313655</v>
       </c>
       <c r="D403">
         <v>26325</v>
@@ -6009,13 +6009,13 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>14.496098337695</v>
+        <v>8.323504904983565</v>
       </c>
       <c r="B404">
-        <v>14.496098337695</v>
+        <v>10.75274980531771</v>
       </c>
       <c r="C404">
-        <v>14.496098337695</v>
+        <v>12.54170109052211</v>
       </c>
       <c r="D404">
         <v>65460</v>
@@ -6023,13 +6023,13 @@
     </row>
     <row r="405">
       <c r="A405">
-        <v>10.70557110174559</v>
+        <v>10.17801782512106</v>
       </c>
       <c r="B405">
-        <v>10.70557110174559</v>
+        <v>14.16511984667512</v>
       </c>
       <c r="C405">
-        <v>10.70557110174559</v>
+        <v>15.87602117680945</v>
       </c>
       <c r="D405">
         <v>36811</v>
@@ -6037,13 +6037,13 @@
     </row>
     <row r="406">
       <c r="A406">
-        <v>11.3451161684934</v>
+        <v>7.985698650358245</v>
       </c>
       <c r="B406">
-        <v>11.3451161684934</v>
+        <v>9.536530089637139</v>
       </c>
       <c r="C406">
-        <v>11.3451161684934</v>
+        <v>11.74462167720776</v>
       </c>
       <c r="D406">
         <v>70970</v>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="407">
       <c r="A407">
-        <v>11.33405541325919</v>
+        <v>9.315918636275455</v>
       </c>
       <c r="B407">
-        <v>15.63376249338086</v>
+        <v>12.62639531752344</v>
       </c>
       <c r="C407">
-        <v>19.91594918246847</v>
+        <v>15.48934041522443</v>
       </c>
       <c r="D407">
         <v>44338</v>
@@ -6065,13 +6065,13 @@
     </row>
     <row r="408">
       <c r="A408">
-        <v>11.70831427979283</v>
+        <v>14.68725598580204</v>
       </c>
       <c r="B408">
-        <v>11.70831427979283</v>
+        <v>15.87067829357092</v>
       </c>
       <c r="C408">
-        <v>11.70831427979283</v>
+        <v>16.60249312291853</v>
       </c>
       <c r="D408">
         <v>20980</v>
@@ -6079,13 +6079,13 @@
     </row>
     <row r="409">
       <c r="A409">
-        <v>14.7543230925221</v>
+        <v>10.39918845961802</v>
       </c>
       <c r="B409">
-        <v>14.7543230925221</v>
+        <v>13.02048921799965</v>
       </c>
       <c r="C409">
-        <v>14.7543230925221</v>
+        <v>14.1889219917357</v>
       </c>
       <c r="D409">
         <v>34974</v>
@@ -6093,13 +6093,13 @@
     </row>
     <row r="410">
       <c r="A410">
-        <v>13.55173263000324</v>
+        <v>8.661289169685915</v>
       </c>
       <c r="B410">
-        <v>13.55173263000324</v>
+        <v>12.30163896809172</v>
       </c>
       <c r="C410">
-        <v>13.55173263000324</v>
+        <v>16.96318116912153</v>
       </c>
       <c r="D410">
         <v>67318</v>
@@ -6107,13 +6107,13 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>7.936346626840532</v>
+        <v>12.31462619430386</v>
       </c>
       <c r="B411">
-        <v>8.403811621559068</v>
+        <v>12.31462619430386</v>
       </c>
       <c r="C411">
-        <v>8.887977137346752</v>
+        <v>12.31462619430386</v>
       </c>
       <c r="D411">
         <v>28526</v>
@@ -6121,13 +6121,13 @@
     </row>
     <row r="412">
       <c r="A412">
-        <v>13.99102319218218</v>
+        <v>6.35519885038957</v>
       </c>
       <c r="B412">
-        <v>16.24354370691922</v>
+        <v>9.856465464333548</v>
       </c>
       <c r="C412">
-        <v>17.81591423088685</v>
+        <v>11.755171288969</v>
       </c>
       <c r="D412">
         <v>8831</v>
@@ -6135,13 +6135,13 @@
     </row>
     <row r="413">
       <c r="A413">
-        <v>13.23097398038954</v>
+        <v>14.00623761839233</v>
       </c>
       <c r="B413">
-        <v>14.93694408461572</v>
+        <v>14.00623761839233</v>
       </c>
       <c r="C413">
-        <v>16.29864920570981</v>
+        <v>14.00623761839233</v>
       </c>
       <c r="D413">
         <v>65199</v>
@@ -6149,13 +6149,13 @@
     </row>
     <row r="414">
       <c r="A414">
-        <v>10.41494434210472</v>
+        <v>12.23343474254943</v>
       </c>
       <c r="B414">
-        <v>10.41494434210472</v>
+        <v>12.23343474254943</v>
       </c>
       <c r="C414">
-        <v>10.41494434210472</v>
+        <v>12.23343474254943</v>
       </c>
       <c r="D414">
         <v>7282</v>
@@ -6163,13 +6163,13 @@
     </row>
     <row r="415">
       <c r="A415">
-        <v>8.057424364378676</v>
+        <v>12.97615333856083</v>
       </c>
       <c r="B415">
-        <v>13.1743001158457</v>
+        <v>12.97615333856083</v>
       </c>
       <c r="C415">
-        <v>17.83479991892818</v>
+        <v>12.97615333856083</v>
       </c>
       <c r="D415">
         <v>49003</v>
@@ -6177,13 +6177,13 @@
     </row>
     <row r="416">
       <c r="A416">
-        <v>14.05168248480186</v>
+        <v>12.89625019161031</v>
       </c>
       <c r="B416">
-        <v>14.963803705603</v>
+        <v>15.80077151253031</v>
       </c>
       <c r="C416">
-        <v>15.46869863988832</v>
+        <v>19.00232960644644</v>
       </c>
       <c r="D416">
         <v>16371</v>
@@ -6191,13 +6191,13 @@
     </row>
     <row r="417">
       <c r="A417">
-        <v>13.96463466645218</v>
+        <v>8.886156145948917</v>
       </c>
       <c r="B417">
-        <v>16.34195274219299</v>
+        <v>14.29931120467316</v>
       </c>
       <c r="C417">
-        <v>17.99621863348875</v>
+        <v>17.52447977953125</v>
       </c>
       <c r="D417">
         <v>40181</v>
@@ -6205,13 +6205,13 @@
     </row>
     <row r="418">
       <c r="A418">
-        <v>14.71208166377619</v>
+        <v>11.98044517985545</v>
       </c>
       <c r="B418">
-        <v>16.06601080257068</v>
+        <v>15.91746701684616</v>
       </c>
       <c r="C418">
-        <v>17.24498929281253</v>
+        <v>18.21767563698813</v>
       </c>
       <c r="D418">
         <v>66174</v>
@@ -6219,13 +6219,13 @@
     </row>
     <row r="419">
       <c r="A419">
-        <v>13.52280363533646</v>
+        <v>6.348039007745683</v>
       </c>
       <c r="B419">
-        <v>15.53798074111681</v>
+        <v>9.142026792224943</v>
       </c>
       <c r="C419">
-        <v>17.25693119398784</v>
+        <v>10.58355457964353</v>
       </c>
       <c r="D419">
         <v>6319</v>
@@ -6233,13 +6233,13 @@
     </row>
     <row r="420">
       <c r="A420">
-        <v>8.106256936211139</v>
+        <v>13.4958491823636</v>
       </c>
       <c r="B420">
-        <v>11.6021412674277</v>
+        <v>13.90831969255779</v>
       </c>
       <c r="C420">
-        <v>15.7835807785159</v>
+        <v>14.4872497319011</v>
       </c>
       <c r="D420">
         <v>55232</v>
@@ -6247,13 +6247,13 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>10.09791547385976</v>
+        <v>10.59082629648037</v>
       </c>
       <c r="B421">
-        <v>14.20334230892041</v>
+        <v>11.28524942578858</v>
       </c>
       <c r="C421">
-        <v>19.19438298093155</v>
+        <v>11.63448609178886</v>
       </c>
       <c r="D421">
         <v>11120</v>
@@ -6261,13 +6261,13 @@
     </row>
     <row r="422">
       <c r="A422">
-        <v>11.26186260720715</v>
+        <v>6.62097303243354</v>
       </c>
       <c r="B422">
-        <v>11.26186260720715</v>
+        <v>8.789088529070147</v>
       </c>
       <c r="C422">
-        <v>11.26186260720715</v>
+        <v>11.07954515784513</v>
       </c>
       <c r="D422">
         <v>72214</v>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="423">
       <c r="A423">
-        <v>6.530766988405958</v>
+        <v>11.29261783836409</v>
       </c>
       <c r="B423">
-        <v>11.54054772350067</v>
+        <v>13.70701347723346</v>
       </c>
       <c r="C423">
-        <v>15.34538349835202</v>
+        <v>15.17056416079868</v>
       </c>
       <c r="D423">
         <v>37089</v>
@@ -6289,13 +6289,13 @@
     </row>
     <row r="424">
       <c r="A424">
-        <v>11.00623022206128</v>
+        <v>9.078346553491428</v>
       </c>
       <c r="B424">
-        <v>14.64617651792021</v>
+        <v>9.078346553491428</v>
       </c>
       <c r="C424">
-        <v>16.58072970923968</v>
+        <v>9.078346553491428</v>
       </c>
       <c r="D424">
         <v>68614</v>
@@ -6303,13 +6303,13 @@
     </row>
     <row r="425">
       <c r="A425">
-        <v>12.39483103947714</v>
+        <v>6.702046846272424</v>
       </c>
       <c r="B425">
-        <v>12.39483103947714</v>
+        <v>8.601457009946223</v>
       </c>
       <c r="C425">
-        <v>12.39483103947714</v>
+        <v>10.07010899658781</v>
       </c>
       <c r="D425">
         <v>1686</v>
@@ -6317,13 +6317,13 @@
     </row>
     <row r="426">
       <c r="A426">
-        <v>8.903234407771379</v>
+        <v>9.953759833937511</v>
       </c>
       <c r="B426">
-        <v>11.3672663288757</v>
+        <v>9.953759833937511</v>
       </c>
       <c r="C426">
-        <v>13.12154965591617</v>
+        <v>9.953759833937511</v>
       </c>
       <c r="D426">
         <v>21956</v>
@@ -6331,13 +6331,13 @@
     </row>
     <row r="427">
       <c r="A427">
-        <v>10.59735692851245</v>
+        <v>9.628769521834329</v>
       </c>
       <c r="B427">
-        <v>15.04920345630774</v>
+        <v>11.53295226560874</v>
       </c>
       <c r="C427">
-        <v>17.85866500751581</v>
+        <v>12.57468914438505</v>
       </c>
       <c r="D427">
         <v>52134</v>
@@ -6345,13 +6345,13 @@
     </row>
     <row r="428">
       <c r="A428">
-        <v>8.727008954621851</v>
+        <v>10.76187513023615</v>
       </c>
       <c r="B428">
-        <v>9.402393483056615</v>
+        <v>15.02027812741338</v>
       </c>
       <c r="C428">
-        <v>10.37502937717363</v>
+        <v>17.88394851493649</v>
       </c>
       <c r="D428">
         <v>30171</v>
@@ -6359,13 +6359,13 @@
     </row>
     <row r="429">
       <c r="A429">
-        <v>10.90036267368123</v>
+        <v>8.879122714977711</v>
       </c>
       <c r="B429">
-        <v>13.41746710585175</v>
+        <v>11.96386084918179</v>
       </c>
       <c r="C429">
-        <v>17.16859357140493</v>
+        <v>16.46765362122096</v>
       </c>
       <c r="D429">
         <v>2982</v>
@@ -6373,13 +6373,13 @@
     </row>
     <row r="430">
       <c r="A430">
-        <v>13.6000971312169</v>
+        <v>11.84055338683538</v>
       </c>
       <c r="B430">
-        <v>15.1961235552117</v>
+        <v>11.84055338683538</v>
       </c>
       <c r="C430">
-        <v>16.70181479013991</v>
+        <v>11.84055338683538</v>
       </c>
       <c r="D430">
         <v>65535</v>
@@ -6387,13 +6387,13 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>13.88326101307757</v>
+        <v>13.88047562283464</v>
       </c>
       <c r="B431">
-        <v>13.88326101307757</v>
+        <v>13.88047562283464</v>
       </c>
       <c r="C431">
-        <v>13.88326101307757</v>
+        <v>13.88047562283464</v>
       </c>
       <c r="D431">
         <v>29865</v>
@@ -6401,13 +6401,13 @@
     </row>
     <row r="432">
       <c r="A432">
-        <v>12.7406123962719</v>
+        <v>10.1200696863234</v>
       </c>
       <c r="B432">
-        <v>12.7406123962719</v>
+        <v>13.2568212137458</v>
       </c>
       <c r="C432">
-        <v>12.7406123962719</v>
+        <v>14.85932542884257</v>
       </c>
       <c r="D432">
         <v>65836</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="433">
       <c r="A433">
-        <v>9.785186182474717</v>
+        <v>12.43878453061916</v>
       </c>
       <c r="B433">
-        <v>12.03428591383565</v>
+        <v>16.13844305637015</v>
       </c>
       <c r="C433">
-        <v>13.58530531171709</v>
+        <v>18.06659711757675</v>
       </c>
       <c r="D433">
         <v>28799</v>
@@ -6429,13 +6429,13 @@
     </row>
     <row r="434">
       <c r="A434">
-        <v>6.918239898048341</v>
+        <v>9.406987121561542</v>
       </c>
       <c r="B434">
-        <v>8.427031284956877</v>
+        <v>12.68349658360225</v>
       </c>
       <c r="C434">
-        <v>10.43786973343231</v>
+        <v>17.28164431580808</v>
       </c>
       <c r="D434">
         <v>32689</v>
@@ -6443,13 +6443,13 @@
     </row>
     <row r="435">
       <c r="A435">
-        <v>9.176507423864678</v>
+        <v>13.12733748718165</v>
       </c>
       <c r="B435">
-        <v>11.95052021370687</v>
+        <v>14.28706323350068</v>
       </c>
       <c r="C435">
-        <v>13.27097222849261</v>
+        <v>15.94274373666849</v>
       </c>
       <c r="D435">
         <v>10449</v>
@@ -6457,13 +6457,13 @@
     </row>
     <row r="436">
       <c r="A436">
-        <v>9.408592103049159</v>
+        <v>11.29050353891216</v>
       </c>
       <c r="B436">
-        <v>11.56359042735222</v>
+        <v>13.4584353729235</v>
       </c>
       <c r="C436">
-        <v>12.72615610098001</v>
+        <v>16.64237482647877</v>
       </c>
       <c r="D436">
         <v>17608</v>
@@ -6471,13 +6471,13 @@
     </row>
     <row r="437">
       <c r="A437">
-        <v>12.66807132214308</v>
+        <v>14.32866455800831</v>
       </c>
       <c r="B437">
-        <v>12.66807132214308</v>
+        <v>14.32866455800831</v>
       </c>
       <c r="C437">
-        <v>12.66807132214308</v>
+        <v>14.32866455800831</v>
       </c>
       <c r="D437">
         <v>28102</v>
@@ -6485,13 +6485,13 @@
     </row>
     <row r="438">
       <c r="A438">
-        <v>9.626821100246161</v>
+        <v>9.175488681066781</v>
       </c>
       <c r="B438">
-        <v>13.28270531828679</v>
+        <v>15.2466974709736</v>
       </c>
       <c r="C438">
-        <v>18.05351209070068</v>
+        <v>19.59671379765496</v>
       </c>
       <c r="D438">
         <v>28333</v>
@@ -6499,13 +6499,13 @@
     </row>
     <row r="439">
       <c r="A439">
-        <v>9.754617794416845</v>
+        <v>13.57682653935626</v>
       </c>
       <c r="B439">
-        <v>13.57438930851644</v>
+        <v>13.57682653935626</v>
       </c>
       <c r="C439">
-        <v>17.66137161059305</v>
+        <v>13.57682653935626</v>
       </c>
       <c r="D439">
         <v>4630</v>
@@ -6513,13 +6513,13 @@
     </row>
     <row r="440">
       <c r="A440">
-        <v>7.353978880215436</v>
+        <v>13.1282383594662</v>
       </c>
       <c r="B440">
-        <v>10.5266926913044</v>
+        <v>13.1282383594662</v>
       </c>
       <c r="C440">
-        <v>12.28708939335775</v>
+        <v>13.1282383594662</v>
       </c>
       <c r="D440">
         <v>21284</v>
@@ -6527,13 +6527,13 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>12.52131024515256</v>
+        <v>6.210523203480989</v>
       </c>
       <c r="B441">
-        <v>15.36965993725029</v>
+        <v>10.20577800964145</v>
       </c>
       <c r="C441">
-        <v>19.27741494320799</v>
+        <v>12.35530878358986</v>
       </c>
       <c r="D441">
         <v>49421</v>
@@ -6541,13 +6541,13 @@
     </row>
     <row r="442">
       <c r="A442">
-        <v>7.769423437071964</v>
+        <v>6.572710937121883</v>
       </c>
       <c r="B442">
-        <v>11.75530022956342</v>
+        <v>10.852946183657</v>
       </c>
       <c r="C442">
-        <v>15.03806333814282</v>
+        <v>12.94405097025447</v>
       </c>
       <c r="D442">
         <v>5973</v>
@@ -6555,13 +6555,13 @@
     </row>
     <row r="443">
       <c r="A443">
-        <v>11.64582424541004</v>
+        <v>11.77712743543088</v>
       </c>
       <c r="B443">
-        <v>14.85447077937534</v>
+        <v>11.77712743543088</v>
       </c>
       <c r="C443">
-        <v>17.45512851222884</v>
+        <v>11.77712743543088</v>
       </c>
       <c r="D443">
         <v>66333</v>
@@ -6569,13 +6569,13 @@
     </row>
     <row r="444">
       <c r="A444">
-        <v>13.49105665739626</v>
+        <v>11.30663897492923</v>
       </c>
       <c r="B444">
-        <v>14.30746290263991</v>
+        <v>14.38340764852074</v>
       </c>
       <c r="C444">
-        <v>14.93146005552262</v>
+        <v>16.24294609238859</v>
       </c>
       <c r="D444">
         <v>46785</v>
@@ -6583,13 +6583,13 @@
     </row>
     <row r="445">
       <c r="A445">
-        <v>6.448674132116139</v>
+        <v>8.159094666363671</v>
       </c>
       <c r="B445">
-        <v>13.84283531780347</v>
+        <v>12.51426113657411</v>
       </c>
       <c r="C445">
-        <v>18.06275186710991</v>
+        <v>14.72095829842146</v>
       </c>
       <c r="D445">
         <v>54312</v>
@@ -6597,13 +6597,13 @@
     </row>
     <row r="446">
       <c r="A446">
-        <v>11.82306921039708</v>
+        <v>7.310048967367038</v>
       </c>
       <c r="B446">
-        <v>13.665606625695</v>
+        <v>11.8152334122732</v>
       </c>
       <c r="C446">
-        <v>14.50095609354321</v>
+        <v>18.49539904971607</v>
       </c>
       <c r="D446">
         <v>21408</v>
@@ -6611,13 +6611,13 @@
     </row>
     <row r="447">
       <c r="A447">
-        <v>10.89663745625876</v>
+        <v>11.6536995798815</v>
       </c>
       <c r="B447">
-        <v>11.21284227827893</v>
+        <v>14.69253379888551</v>
       </c>
       <c r="C447">
-        <v>11.62757172598504</v>
+        <v>17.87829175766092</v>
       </c>
       <c r="D447">
         <v>7559</v>
@@ -6625,13 +6625,13 @@
     </row>
     <row r="448">
       <c r="A448">
-        <v>7.095304704504088</v>
+        <v>14.58345370483585</v>
       </c>
       <c r="B448">
-        <v>8.495081719237493</v>
+        <v>14.58345370483585</v>
       </c>
       <c r="C448">
-        <v>9.110713388072327</v>
+        <v>14.58345370483585</v>
       </c>
       <c r="D448">
         <v>69037</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="449">
       <c r="A449">
-        <v>12.74883180996403</v>
+        <v>14.69751836685464</v>
       </c>
       <c r="B449">
-        <v>12.74883180996403</v>
+        <v>14.69751836685464</v>
       </c>
       <c r="C449">
-        <v>12.74883180996403</v>
+        <v>14.69751836685464</v>
       </c>
       <c r="D449">
         <v>8171</v>
@@ -6653,13 +6653,13 @@
     </row>
     <row r="450">
       <c r="A450">
-        <v>6.283153117401525</v>
+        <v>14.23619261733256</v>
       </c>
       <c r="B450">
-        <v>12.16047035626268</v>
+        <v>14.23619261733256</v>
       </c>
       <c r="C450">
-        <v>14.85279353684746</v>
+        <v>14.23619261733256</v>
       </c>
       <c r="D450">
         <v>43232</v>
@@ -6667,13 +6667,13 @@
     </row>
     <row r="451">
       <c r="A451">
-        <v>7.862019253894687</v>
+        <v>8.632361951982602</v>
       </c>
       <c r="B451">
-        <v>12.78060964266277</v>
+        <v>14.11302069640057</v>
       </c>
       <c r="C451">
-        <v>15.54587685561273</v>
+        <v>16.57776528038085</v>
       </c>
       <c r="D451">
         <v>10159</v>
@@ -6681,13 +6681,13 @@
     </row>
     <row r="452">
       <c r="A452">
-        <v>8.989050342002884</v>
+        <v>7.699257660191506</v>
       </c>
       <c r="B452">
-        <v>12.54093985310021</v>
+        <v>9.619276375533184</v>
       </c>
       <c r="C452">
-        <v>16.4763360330835</v>
+        <v>10.76712560490705</v>
       </c>
       <c r="D452">
         <v>64489</v>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="453">
       <c r="A453">
-        <v>8.387727262917906</v>
+        <v>11.1973334045615</v>
       </c>
       <c r="B453">
-        <v>14.76761697677518</v>
+        <v>12.87325033929556</v>
       </c>
       <c r="C453">
-        <v>18.05166866863146</v>
+        <v>15.26340921584051</v>
       </c>
       <c r="D453">
         <v>22706</v>
@@ -6709,13 +6709,13 @@
     </row>
     <row r="454">
       <c r="A454">
-        <v>12.76394425565377</v>
+        <v>14.77900500409305</v>
       </c>
       <c r="B454">
-        <v>17.32647692021887</v>
+        <v>14.77900500409305</v>
       </c>
       <c r="C454">
-        <v>19.76356606639456</v>
+        <v>14.77900500409305</v>
       </c>
       <c r="D454">
         <v>71539</v>
@@ -6723,13 +6723,13 @@
     </row>
     <row r="455">
       <c r="A455">
-        <v>9.23508767131716</v>
+        <v>12.89202992641367</v>
       </c>
       <c r="B455">
-        <v>9.23508767131716</v>
+        <v>12.89202992641367</v>
       </c>
       <c r="C455">
-        <v>9.23508767131716</v>
+        <v>12.89202992641367</v>
       </c>
       <c r="D455">
         <v>46527</v>
@@ -6737,13 +6737,13 @@
     </row>
     <row r="456">
       <c r="A456">
-        <v>7.82034952333197</v>
+        <v>11.02809990453534</v>
       </c>
       <c r="B456">
-        <v>7.937374954072543</v>
+        <v>13.88350994824076</v>
       </c>
       <c r="C456">
-        <v>8.074846769450232</v>
+        <v>16.13208775408566</v>
       </c>
       <c r="D456">
         <v>22537</v>
@@ -6751,13 +6751,13 @@
     </row>
     <row r="457">
       <c r="A457">
-        <v>8.220157497329637</v>
+        <v>11.32204321981408</v>
       </c>
       <c r="B457">
-        <v>8.757797384637326</v>
+        <v>12.95313964299255</v>
       </c>
       <c r="C457">
-        <v>8.9970344142057</v>
+        <v>13.81748107844032</v>
       </c>
       <c r="D457">
         <v>50611</v>
@@ -6765,13 +6765,13 @@
     </row>
     <row r="458">
       <c r="A458">
-        <v>7.181958592263982</v>
+        <v>10.00814039376564</v>
       </c>
       <c r="B458">
-        <v>12.59895570786301</v>
+        <v>11.68678504311354</v>
       </c>
       <c r="C458">
-        <v>18.05524354160298</v>
+        <v>12.93880701588932</v>
       </c>
       <c r="D458">
         <v>9608</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="459">
       <c r="A459">
-        <v>9.090546048944816</v>
+        <v>9.162607665639371</v>
       </c>
       <c r="B459">
-        <v>9.38576966263121</v>
+        <v>10.20671863289224</v>
       </c>
       <c r="C459">
-        <v>9.734116813633591</v>
+        <v>10.70866539841518</v>
       </c>
       <c r="D459">
         <v>10504</v>
@@ -6793,13 +6793,13 @@
     </row>
     <row r="460">
       <c r="A460">
-        <v>9.206065476173535</v>
+        <v>11.48290899884887</v>
       </c>
       <c r="B460">
-        <v>9.206065476173535</v>
+        <v>13.91719087490007</v>
       </c>
       <c r="C460">
-        <v>9.206065476173535</v>
+        <v>15.76067221642006</v>
       </c>
       <c r="D460">
         <v>37090</v>
@@ -6807,13 +6807,13 @@
     </row>
     <row r="461">
       <c r="A461">
-        <v>7.667211668333039</v>
+        <v>11.38231167057529</v>
       </c>
       <c r="B461">
-        <v>12.37202435298458</v>
+        <v>16.56333980960587</v>
       </c>
       <c r="C461">
-        <v>18.76882576209027</v>
+        <v>19.7069024364464</v>
       </c>
       <c r="D461">
         <v>9637</v>
@@ -6821,13 +6821,13 @@
     </row>
     <row r="462">
       <c r="A462">
-        <v>10.45819204347208</v>
+        <v>9.619576126802713</v>
       </c>
       <c r="B462">
-        <v>12.42132746984618</v>
+        <v>10.35700249832853</v>
       </c>
       <c r="C462">
-        <v>14.47586716269143</v>
+        <v>11.02304785046726</v>
       </c>
       <c r="D462">
         <v>44862</v>
@@ -6835,13 +6835,13 @@
     </row>
     <row r="463">
       <c r="A463">
-        <v>6.046578843612224</v>
+        <v>8.21945922402665</v>
       </c>
       <c r="B463">
-        <v>8.061708894679972</v>
+        <v>9.091706923986944</v>
       </c>
       <c r="C463">
-        <v>10.83340371726081</v>
+        <v>9.492210923344828</v>
       </c>
       <c r="D463">
         <v>52173</v>
@@ -6849,13 +6849,13 @@
     </row>
     <row r="464">
       <c r="A464">
-        <v>12.78701016562991</v>
+        <v>14.02497703512199</v>
       </c>
       <c r="B464">
-        <v>12.78701016562991</v>
+        <v>14.02497703512199</v>
       </c>
       <c r="C464">
-        <v>12.78701016562991</v>
+        <v>14.02497703512199</v>
       </c>
       <c r="D464">
         <v>5708</v>
@@ -6863,13 +6863,13 @@
     </row>
     <row r="465">
       <c r="A465">
-        <v>11.64994610915892</v>
+        <v>7.269086246145889</v>
       </c>
       <c r="B465">
-        <v>13.16129056895353</v>
+        <v>13.13233248008558</v>
       </c>
       <c r="C465">
-        <v>14.69349158171099</v>
+        <v>16.02262739499565</v>
       </c>
       <c r="D465">
         <v>2374</v>
@@ -6877,13 +6877,13 @@
     </row>
     <row r="466">
       <c r="A466">
-        <v>13.90856777247973</v>
+        <v>10.86275432934053</v>
       </c>
       <c r="B466">
-        <v>15.24664147076809</v>
+        <v>10.86275432934053</v>
       </c>
       <c r="C466">
-        <v>16.51746452145744</v>
+        <v>10.86275432934053</v>
       </c>
       <c r="D466">
         <v>15528</v>
@@ -6891,13 +6891,13 @@
     </row>
     <row r="467">
       <c r="A467">
-        <v>13.25629844027571</v>
+        <v>6.816885847365484</v>
       </c>
       <c r="B467">
-        <v>14.84598749982893</v>
+        <v>7.193501548117753</v>
       </c>
       <c r="C467">
-        <v>16.09420463966671</v>
+        <v>7.559473217697814</v>
       </c>
       <c r="D467">
         <v>31143</v>
@@ -6905,13 +6905,13 @@
     </row>
     <row r="468">
       <c r="A468">
-        <v>8.3812861579936</v>
+        <v>6.937103853095323</v>
       </c>
       <c r="B468">
-        <v>12.7537002045403</v>
+        <v>14.1998252923317</v>
       </c>
       <c r="C468">
-        <v>18.37898676341865</v>
+        <v>19.55050716234837</v>
       </c>
       <c r="D468">
         <v>37031</v>
@@ -6919,13 +6919,13 @@
     </row>
     <row r="469">
       <c r="A469">
-        <v>12.69941392354667</v>
+        <v>13.39136717305519</v>
       </c>
       <c r="B469">
-        <v>16.03652570019001</v>
+        <v>15.27296334895936</v>
       </c>
       <c r="C469">
-        <v>19.81397525116336</v>
+        <v>16.77698998420965</v>
       </c>
       <c r="D469">
         <v>34608</v>
@@ -6933,13 +6933,13 @@
     </row>
     <row r="470">
       <c r="A470">
-        <v>8.413070867070928</v>
+        <v>14.78537513525225</v>
       </c>
       <c r="B470">
-        <v>11.62325859735889</v>
+        <v>17.36799400821737</v>
       </c>
       <c r="C470">
-        <v>13.43135189556051</v>
+        <v>18.81009194068611</v>
       </c>
       <c r="D470">
         <v>48298</v>
@@ -6947,13 +6947,13 @@
     </row>
     <row r="471">
       <c r="A471">
-        <v>6.060842730570585</v>
+        <v>10.89649067656137</v>
       </c>
       <c r="B471">
-        <v>6.932499497222501</v>
+        <v>12.95298129210799</v>
       </c>
       <c r="C471">
-        <v>7.80973095272202</v>
+        <v>14.23760581994429</v>
       </c>
       <c r="D471">
         <v>54975</v>
@@ -6961,13 +6961,13 @@
     </row>
     <row r="472">
       <c r="A472">
-        <v>13.42001622891985</v>
+        <v>11.13908519782126</v>
       </c>
       <c r="B472">
-        <v>13.42001622891985</v>
+        <v>11.13908519782126</v>
       </c>
       <c r="C472">
-        <v>13.42001622891985</v>
+        <v>11.13908519782126</v>
       </c>
       <c r="D472">
         <v>44749</v>
@@ -6975,13 +6975,13 @@
     </row>
     <row r="473">
       <c r="A473">
-        <v>14.43659613118507</v>
+        <v>8.25535857793875</v>
       </c>
       <c r="B473">
-        <v>14.96701926422304</v>
+        <v>13.32598275307417</v>
       </c>
       <c r="C473">
-        <v>15.40539204026572</v>
+        <v>17.27527219802141</v>
       </c>
       <c r="D473">
         <v>46468</v>
@@ -6989,13 +6989,13 @@
     </row>
     <row r="474">
       <c r="A474">
-        <v>13.74933315161616</v>
+        <v>7.763202375965193</v>
       </c>
       <c r="B474">
-        <v>15.54788448146162</v>
+        <v>12.68704791021003</v>
       </c>
       <c r="C474">
-        <v>18.20963952806778</v>
+        <v>17.48093825764954</v>
       </c>
       <c r="D474">
         <v>10913</v>
@@ -7003,13 +7003,13 @@
     </row>
     <row r="475">
       <c r="A475">
-        <v>10.79776419536211</v>
+        <v>11.27872958220541</v>
       </c>
       <c r="B475">
-        <v>14.72025776813374</v>
+        <v>13.1279909131682</v>
       </c>
       <c r="C475">
-        <v>18.42219195561484</v>
+        <v>15.25065858324524</v>
       </c>
       <c r="D475">
         <v>51983</v>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="476">
       <c r="A476">
-        <v>10.76059935009107</v>
+        <v>7.894538666121662</v>
       </c>
       <c r="B476">
-        <v>10.76059935009107</v>
+        <v>11.66306141441784</v>
       </c>
       <c r="C476">
-        <v>10.76059935009107</v>
+        <v>16.89524475834332</v>
       </c>
       <c r="D476">
         <v>27029</v>
@@ -7031,13 +7031,13 @@
     </row>
     <row r="477">
       <c r="A477">
-        <v>11.50969467801042</v>
+        <v>10.9494731600862</v>
       </c>
       <c r="B477">
-        <v>12.98933170939177</v>
+        <v>10.9494731600862</v>
       </c>
       <c r="C477">
-        <v>14.34232505445834</v>
+        <v>10.9494731600862</v>
       </c>
       <c r="D477">
         <v>22320</v>
@@ -7045,13 +7045,13 @@
     </row>
     <row r="478">
       <c r="A478">
-        <v>12.7367027560249</v>
+        <v>11.53808264178224</v>
       </c>
       <c r="B478">
-        <v>13.5183596987761</v>
+        <v>11.86628156972043</v>
       </c>
       <c r="C478">
-        <v>14.24679261574056</v>
+        <v>12.04971839208156</v>
       </c>
       <c r="D478">
         <v>20351</v>
@@ -7059,13 +7059,13 @@
     </row>
     <row r="479">
       <c r="A479">
-        <v>10.57645244523883</v>
+        <v>14.53581154346466</v>
       </c>
       <c r="B479">
-        <v>15.52511558113851</v>
+        <v>14.53581154346466</v>
       </c>
       <c r="C479">
-        <v>19.20204918307718</v>
+        <v>14.53581154346466</v>
       </c>
       <c r="D479">
         <v>530</v>
@@ -7073,13 +7073,13 @@
     </row>
     <row r="480">
       <c r="A480">
-        <v>10.22814559168182</v>
+        <v>6.417080255923793</v>
       </c>
       <c r="B480">
-        <v>12.80716886982542</v>
+        <v>8.601740839256742</v>
       </c>
       <c r="C480">
-        <v>16.27341173472814</v>
+        <v>10.11439971218351</v>
       </c>
       <c r="D480">
         <v>55351</v>
@@ -7087,13 +7087,13 @@
     </row>
     <row r="481">
       <c r="A481">
-        <v>6.978288055630401</v>
+        <v>12.5193283923436</v>
       </c>
       <c r="B481">
-        <v>9.997371947339097</v>
+        <v>12.5193283923436</v>
       </c>
       <c r="C481">
-        <v>11.78126197948586</v>
+        <v>12.5193283923436</v>
       </c>
       <c r="D481">
         <v>67431</v>
@@ -7101,13 +7101,13 @@
     </row>
     <row r="482">
       <c r="A482">
-        <v>13.8274019442033</v>
+        <v>6.417505595600232</v>
       </c>
       <c r="B482">
-        <v>13.8274019442033</v>
+        <v>7.575967947571274</v>
       </c>
       <c r="C482">
-        <v>13.8274019442033</v>
+        <v>9.255557619617321</v>
       </c>
       <c r="D482">
         <v>50305</v>
@@ -7115,13 +7115,13 @@
     </row>
     <row r="483">
       <c r="A483">
-        <v>9.616176563082263</v>
+        <v>14.91821013274603</v>
       </c>
       <c r="B483">
-        <v>12.26016386492037</v>
+        <v>15.95385011595089</v>
       </c>
       <c r="C483">
-        <v>15.82291058904957</v>
+        <v>16.57668322033715</v>
       </c>
       <c r="D483">
         <v>52342</v>
@@ -7129,13 +7129,13 @@
     </row>
     <row r="484">
       <c r="A484">
-        <v>10.42507956549525</v>
+        <v>8.531201889971271</v>
       </c>
       <c r="B484">
-        <v>10.42507956549525</v>
+        <v>13.09097346557673</v>
       </c>
       <c r="C484">
-        <v>10.42507956549525</v>
+        <v>16.29277327039745</v>
       </c>
       <c r="D484">
         <v>53144</v>
@@ -7143,13 +7143,13 @@
     </row>
     <row r="485">
       <c r="A485">
-        <v>6.756002594484016</v>
+        <v>12.45438838214613</v>
       </c>
       <c r="B485">
-        <v>7.998505771146694</v>
+        <v>12.45438838214613</v>
       </c>
       <c r="C485">
-        <v>8.809901248896495</v>
+        <v>12.45438838214613</v>
       </c>
       <c r="D485">
         <v>22091</v>
@@ -7157,13 +7157,13 @@
     </row>
     <row r="486">
       <c r="A486">
-        <v>8.299159331945702</v>
+        <v>8.86540841893293</v>
       </c>
       <c r="B486">
-        <v>10.32097100593744</v>
+        <v>8.86540841893293</v>
       </c>
       <c r="C486">
-        <v>11.65249553334434</v>
+        <v>8.86540841893293</v>
       </c>
       <c r="D486">
         <v>5010</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="487">
       <c r="A487">
-        <v>6.647200434934348</v>
+        <v>14.58840455976315</v>
       </c>
       <c r="B487">
-        <v>12.41907714716976</v>
+        <v>15.72139455511172</v>
       </c>
       <c r="C487">
-        <v>15.46649694384541</v>
+        <v>17.32393039739691</v>
       </c>
       <c r="D487">
         <v>58600</v>
@@ -7185,13 +7185,13 @@
     </row>
     <row r="488">
       <c r="A488">
-        <v>14.91582118766382</v>
+        <v>9.633739875163883</v>
       </c>
       <c r="B488">
-        <v>17.34922569058754</v>
+        <v>14.27210630432976</v>
       </c>
       <c r="C488">
-        <v>19.6647334744921</v>
+        <v>17.2934170946246</v>
       </c>
       <c r="D488">
         <v>65946</v>
@@ -7199,13 +7199,13 @@
     </row>
     <row r="489">
       <c r="A489">
-        <v>8.967032894957811</v>
+        <v>9.001175026874989</v>
       </c>
       <c r="B489">
-        <v>10.83313152177561</v>
+        <v>9.716045658958739</v>
       </c>
       <c r="C489">
-        <v>11.64455269637983</v>
+        <v>10.10033227386884</v>
       </c>
       <c r="D489">
         <v>61350</v>
@@ -7213,13 +7213,13 @@
     </row>
     <row r="490">
       <c r="A490">
-        <v>8.04420594801195</v>
+        <v>8.376442909939215</v>
       </c>
       <c r="B490">
-        <v>12.35641537260589</v>
+        <v>9.586859109444765</v>
       </c>
       <c r="C490">
-        <v>18.47485733625945</v>
+        <v>10.13201801863033</v>
       </c>
       <c r="D490">
         <v>18108</v>
@@ -7227,13 +7227,13 @@
     </row>
     <row r="491">
       <c r="A491">
-        <v>13.61674059857614</v>
+        <v>6.94381112116389</v>
       </c>
       <c r="B491">
-        <v>16.07213809566052</v>
+        <v>11.32603702398877</v>
       </c>
       <c r="C491">
-        <v>19.44807123683859</v>
+        <v>15.99485730868764</v>
       </c>
       <c r="D491">
         <v>48368</v>
@@ -7241,13 +7241,13 @@
     </row>
     <row r="492">
       <c r="A492">
-        <v>14.43052946892567</v>
+        <v>6.20322825293988</v>
       </c>
       <c r="B492">
-        <v>15.2371259084636</v>
+        <v>13.79496044480124</v>
       </c>
       <c r="C492">
-        <v>15.98375501518603</v>
+        <v>18.12315062154084</v>
       </c>
       <c r="D492">
         <v>36471</v>
@@ -7255,13 +7255,13 @@
     </row>
     <row r="493">
       <c r="A493">
-        <v>11.64397079288028</v>
+        <v>6.377533751539886</v>
       </c>
       <c r="B493">
-        <v>11.64397079288028</v>
+        <v>10.2153424154004</v>
       </c>
       <c r="C493">
-        <v>11.64397079288028</v>
+        <v>15.37252566078678</v>
       </c>
       <c r="D493">
         <v>15689</v>
@@ -7269,13 +7269,13 @@
     </row>
     <row r="494">
       <c r="A494">
-        <v>10.7924920138903</v>
+        <v>10.16956343315542</v>
       </c>
       <c r="B494">
-        <v>16.27608690024091</v>
+        <v>15.16311282966798</v>
       </c>
       <c r="C494">
-        <v>19.18885869265068</v>
+        <v>19.30220549867954</v>
       </c>
       <c r="D494">
         <v>31830</v>
@@ -7283,13 +7283,13 @@
     </row>
     <row r="495">
       <c r="A495">
-        <v>13.48297474673018</v>
+        <v>14.30178813636303</v>
       </c>
       <c r="B495">
-        <v>17.13291546583426</v>
+        <v>15.91116565451953</v>
       </c>
       <c r="C495">
-        <v>18.93847568309866</v>
+        <v>17.04131273028906</v>
       </c>
       <c r="D495">
         <v>15296</v>
@@ -7297,13 +7297,13 @@
     </row>
     <row r="496">
       <c r="A496">
-        <v>8.324625835753977</v>
+        <v>9.012089203577489</v>
       </c>
       <c r="B496">
-        <v>10.67645031490786</v>
+        <v>9.63224952060507</v>
       </c>
       <c r="C496">
-        <v>13.98624512541573</v>
+        <v>10.41464939946309</v>
       </c>
       <c r="D496">
         <v>66196</v>
@@ -7311,13 +7311,13 @@
     </row>
     <row r="497">
       <c r="A497">
-        <v>11.12076714774594</v>
+        <v>14.6186565309763</v>
       </c>
       <c r="B497">
-        <v>13.32673412452358</v>
+        <v>14.6186565309763</v>
       </c>
       <c r="C497">
-        <v>16.10027844610158</v>
+        <v>14.6186565309763</v>
       </c>
       <c r="D497">
         <v>2893</v>
@@ -7325,13 +7325,13 @@
     </row>
     <row r="498">
       <c r="A498">
-        <v>10.59445580723695</v>
+        <v>11.62722463044338</v>
       </c>
       <c r="B498">
-        <v>15.2559958853023</v>
+        <v>15.03444696758613</v>
       </c>
       <c r="C498">
-        <v>18.08001718774904</v>
+        <v>17.10773186234292</v>
       </c>
       <c r="D498">
         <v>34376</v>
@@ -7339,13 +7339,13 @@
     </row>
     <row r="499">
       <c r="A499">
-        <v>13.65887481858954</v>
+        <v>11.32966185850091</v>
       </c>
       <c r="B499">
-        <v>15.31180920990785</v>
+        <v>11.97149609958724</v>
       </c>
       <c r="C499">
-        <v>17.69804357201792</v>
+        <v>12.5994872697629</v>
       </c>
       <c r="D499">
         <v>18498</v>
@@ -7353,13 +7353,13 @@
     </row>
     <row r="500">
       <c r="A500">
-        <v>10.07586757116951</v>
+        <v>6.986252250848338</v>
       </c>
       <c r="B500">
-        <v>10.52706408811288</v>
+        <v>10.92027362376525</v>
       </c>
       <c r="C500">
-        <v>10.864200759097</v>
+        <v>14.51674738375004</v>
       </c>
       <c r="D500">
         <v>56735</v>
@@ -7367,13 +7367,13 @@
     </row>
     <row r="501">
       <c r="A501">
-        <v>13.69996517943218</v>
+        <v>8.102514028782025</v>
       </c>
       <c r="B501">
-        <v>13.69996517943218</v>
+        <v>11.25878941999288</v>
       </c>
       <c r="C501">
-        <v>13.69996517943218</v>
+        <v>14.89371507079341</v>
       </c>
       <c r="D501">
         <v>621</v>
@@ -7381,13 +7381,13 @@
     </row>
     <row r="502">
       <c r="A502">
-        <v>11.34881629468873</v>
+        <v>8.386297884397209</v>
       </c>
       <c r="B502">
-        <v>12.66271240123925</v>
+        <v>8.510627876856468</v>
       </c>
       <c r="C502">
-        <v>13.22778838395607</v>
+        <v>8.658189412672073</v>
       </c>
       <c r="D502">
         <v>28645</v>
@@ -7395,13 +7395,13 @@
     </row>
     <row r="503">
       <c r="A503">
-        <v>9.499148166971281</v>
+        <v>11.90629934007302</v>
       </c>
       <c r="B503">
-        <v>12.32231390216802</v>
+        <v>17.15057297493844</v>
       </c>
       <c r="C503">
-        <v>15.6000035192119</v>
+        <v>19.43183764116839</v>
       </c>
       <c r="D503">
         <v>5835</v>
@@ -7409,13 +7409,13 @@
     </row>
     <row r="504">
       <c r="A504">
-        <v>13.31635530875064</v>
+        <v>7.619700174545869</v>
       </c>
       <c r="B504">
-        <v>13.31635530875064</v>
+        <v>9.576647257642589</v>
       </c>
       <c r="C504">
-        <v>13.31635530875064</v>
+        <v>11.87030364992097</v>
       </c>
       <c r="D504">
         <v>46474</v>
@@ -7423,13 +7423,13 @@
     </row>
     <row r="505">
       <c r="A505">
-        <v>13.06091857189313</v>
+        <v>12.48944464861415</v>
       </c>
       <c r="B505">
-        <v>13.24824020032432</v>
+        <v>14.52311995200068</v>
       </c>
       <c r="C505">
-        <v>13.43458927469328</v>
+        <v>17.54869931202848</v>
       </c>
       <c r="D505">
         <v>2953</v>
@@ -7437,13 +7437,13 @@
     </row>
     <row r="506">
       <c r="A506">
-        <v>12.38389327190816</v>
+        <v>9.914809389738366</v>
       </c>
       <c r="B506">
-        <v>14.65116892998896</v>
+        <v>9.914809389738366</v>
       </c>
       <c r="C506">
-        <v>15.93090114067309</v>
+        <v>9.914809389738366</v>
       </c>
       <c r="D506">
         <v>63050</v>
@@ -7451,13 +7451,13 @@
     </row>
     <row r="507">
       <c r="A507">
-        <v>13.43460572138429</v>
+        <v>8.637828050879762</v>
       </c>
       <c r="B507">
-        <v>16.15017657071619</v>
+        <v>8.78154330509695</v>
       </c>
       <c r="C507">
-        <v>17.73101461178157</v>
+        <v>8.910816179122776</v>
       </c>
       <c r="D507">
         <v>22470</v>
@@ -7465,13 +7465,13 @@
     </row>
     <row r="508">
       <c r="A508">
-        <v>7.620000992668793</v>
+        <v>6.034191909944639</v>
       </c>
       <c r="B508">
-        <v>8.9247466721375</v>
+        <v>10.457457507503</v>
       </c>
       <c r="C508">
-        <v>9.536351076094434</v>
+        <v>13.5363179189153</v>
       </c>
       <c r="D508">
         <v>71585</v>
@@ -7479,13 +7479,13 @@
     </row>
     <row r="509">
       <c r="A509">
-        <v>9.16249484103173</v>
+        <v>7.238827605033293</v>
       </c>
       <c r="B509">
-        <v>9.830965807413028</v>
+        <v>14.05462051584274</v>
       </c>
       <c r="C509">
-        <v>10.35421825246885</v>
+        <v>18.61744524678215</v>
       </c>
       <c r="D509">
         <v>11974</v>
@@ -7493,13 +7493,13 @@
     </row>
     <row r="510">
       <c r="A510">
-        <v>14.09401682484895</v>
+        <v>12.9922577321995</v>
       </c>
       <c r="B510">
-        <v>15.55722405897282</v>
+        <v>16.96748194726304</v>
       </c>
       <c r="C510">
-        <v>16.79059544287156</v>
+        <v>18.72097616607789</v>
       </c>
       <c r="D510">
         <v>53910</v>
@@ -7507,13 +7507,13 @@
     </row>
     <row r="511">
       <c r="A511">
-        <v>14.54631492728367</v>
+        <v>8.029801641125232</v>
       </c>
       <c r="B511">
-        <v>14.54631492728367</v>
+        <v>8.492937463087065</v>
       </c>
       <c r="C511">
-        <v>14.54631492728367</v>
+        <v>9.080341943190433</v>
       </c>
       <c r="D511">
         <v>50441</v>
@@ -7521,13 +7521,13 @@
     </row>
     <row r="512">
       <c r="A512">
-        <v>14.78295331844129</v>
+        <v>10.96547548728995</v>
       </c>
       <c r="B512">
-        <v>15.02068009174986</v>
+        <v>12.5349998743654</v>
       </c>
       <c r="C512">
-        <v>15.29640915570781</v>
+        <v>13.48313469381537</v>
       </c>
       <c r="D512">
         <v>16927</v>
@@ -7535,13 +7535,13 @@
     </row>
     <row r="513">
       <c r="A513">
-        <v>11.53202433418483</v>
+        <v>12.44124923553318</v>
       </c>
       <c r="B513">
-        <v>11.53202433418483</v>
+        <v>12.44124923553318</v>
       </c>
       <c r="C513">
-        <v>11.53202433418483</v>
+        <v>12.44124923553318</v>
       </c>
       <c r="D513">
         <v>28265</v>
@@ -7549,13 +7549,13 @@
     </row>
     <row r="514">
       <c r="A514">
-        <v>14.22806143993512</v>
+        <v>10.58835179312155</v>
       </c>
       <c r="B514">
-        <v>15.40954066940977</v>
+        <v>12.28366363376406</v>
       </c>
       <c r="C514">
-        <v>16.24114225734957</v>
+        <v>13.44250743451994</v>
       </c>
       <c r="D514">
         <v>33404</v>
@@ -7563,13 +7563,13 @@
     </row>
     <row r="515">
       <c r="A515">
-        <v>14.67568546417169</v>
+        <v>7.934927367372438</v>
       </c>
       <c r="B515">
-        <v>14.67568546417169</v>
+        <v>11.99064246944194</v>
       </c>
       <c r="C515">
-        <v>14.67568546417169</v>
+        <v>15.74429507774767</v>
       </c>
       <c r="D515">
         <v>50965</v>
@@ -7577,13 +7577,13 @@
     </row>
     <row r="516">
       <c r="A516">
-        <v>8.50958600314334</v>
+        <v>7.222003798931837</v>
       </c>
       <c r="B516">
-        <v>14.64247850103171</v>
+        <v>12.41220506484129</v>
       </c>
       <c r="C516">
-        <v>18.62044341571163</v>
+        <v>15.54059250222053</v>
       </c>
       <c r="D516">
         <v>21077</v>
@@ -7591,13 +7591,13 @@
     </row>
     <row r="517">
       <c r="A517">
-        <v>7.050941086839885</v>
+        <v>7.898689131019637</v>
       </c>
       <c r="B517">
-        <v>11.35711114054274</v>
+        <v>12.52871203393919</v>
       </c>
       <c r="C517">
-        <v>15.61801645613741</v>
+        <v>17.52571046119556</v>
       </c>
       <c r="D517">
         <v>34299</v>
@@ -7605,13 +7605,13 @@
     </row>
     <row r="518">
       <c r="A518">
-        <v>8.128355352440849</v>
+        <v>6.521394480485469</v>
       </c>
       <c r="B518">
-        <v>10.8939365924067</v>
+        <v>13.78746734959702</v>
       </c>
       <c r="C518">
-        <v>12.28388121991884</v>
+        <v>18.29153975297231</v>
       </c>
       <c r="D518">
         <v>21058</v>
@@ -7619,13 +7619,13 @@
     </row>
     <row r="519">
       <c r="A519">
-        <v>12.14114140556194</v>
+        <v>7.292993883602321</v>
       </c>
       <c r="B519">
-        <v>12.67015502578246</v>
+        <v>8.489591348155727</v>
       </c>
       <c r="C519">
-        <v>13.08688936580438</v>
+        <v>10.08709047629964</v>
       </c>
       <c r="D519">
         <v>7696</v>
@@ -7633,13 +7633,13 @@
     </row>
     <row r="520">
       <c r="A520">
-        <v>12.22945605427958</v>
+        <v>9.246954545611516</v>
       </c>
       <c r="B520">
-        <v>12.22945605427958</v>
+        <v>9.246954545611516</v>
       </c>
       <c r="C520">
-        <v>12.22945605427958</v>
+        <v>9.246954545611516</v>
       </c>
       <c r="D520">
         <v>51112</v>
@@ -7647,13 +7647,13 @@
     </row>
     <row r="521">
       <c r="A521">
-        <v>10.85738413198851</v>
+        <v>8.358152616536245</v>
       </c>
       <c r="B521">
-        <v>15.09863076704397</v>
+        <v>8.739692023983391</v>
       </c>
       <c r="C521">
-        <v>18.24561462446582</v>
+        <v>9.065614773426205</v>
       </c>
       <c r="D521">
         <v>69673</v>
@@ -7661,13 +7661,13 @@
     </row>
     <row r="522">
       <c r="A522">
-        <v>12.35076072975062</v>
+        <v>12.22543713496998</v>
       </c>
       <c r="B522">
-        <v>15.724209879297</v>
+        <v>12.22543713496998</v>
       </c>
       <c r="C522">
-        <v>19.87266618118156</v>
+        <v>12.22543713496998</v>
       </c>
       <c r="D522">
         <v>71238</v>
@@ -7675,13 +7675,13 @@
     </row>
     <row r="523">
       <c r="A523">
-        <v>9.974961378145963</v>
+        <v>13.79309060052037</v>
       </c>
       <c r="B523">
-        <v>9.974961378145963</v>
+        <v>13.79309060052037</v>
       </c>
       <c r="C523">
-        <v>9.974961378145963</v>
+        <v>13.79309060052037</v>
       </c>
       <c r="D523">
         <v>24892</v>
@@ -7689,13 +7689,13 @@
     </row>
     <row r="524">
       <c r="A524">
-        <v>9.062544444808736</v>
+        <v>12.94341419683769</v>
       </c>
       <c r="B524">
-        <v>10.97812634076952</v>
+        <v>12.94341419683769</v>
       </c>
       <c r="C524">
-        <v>13.18764089548495</v>
+        <v>12.94341419683769</v>
       </c>
       <c r="D524">
         <v>27757</v>
@@ -7703,13 +7703,13 @@
     </row>
     <row r="525">
       <c r="A525">
-        <v>11.16985051659867</v>
+        <v>9.754208608763292</v>
       </c>
       <c r="B525">
-        <v>11.16985051659867</v>
+        <v>10.3745791402214</v>
       </c>
       <c r="C525">
-        <v>11.16985051659867</v>
+        <v>10.74606958311051</v>
       </c>
       <c r="D525">
         <v>9201</v>
@@ -7717,13 +7717,13 @@
     </row>
     <row r="526">
       <c r="A526">
-        <v>9.077618742361665</v>
+        <v>10.35294974735007</v>
       </c>
       <c r="B526">
-        <v>13.00640026809477</v>
+        <v>13.76005936045905</v>
       </c>
       <c r="C526">
-        <v>17.1813472249778</v>
+        <v>17.30129035015125</v>
       </c>
       <c r="D526">
         <v>6726</v>
@@ -7731,13 +7731,13 @@
     </row>
     <row r="527">
       <c r="A527">
-        <v>8.174175583524629</v>
+        <v>9.222927378024906</v>
       </c>
       <c r="B527">
-        <v>8.174175583524629</v>
+        <v>9.666117745545693</v>
       </c>
       <c r="C527">
-        <v>8.174175583524629</v>
+        <v>10.09299075696617</v>
       </c>
       <c r="D527">
         <v>17242</v>
@@ -7745,13 +7745,13 @@
     </row>
     <row r="528">
       <c r="A528">
-        <v>14.64141687238589</v>
+        <v>11.40702779078856</v>
       </c>
       <c r="B528">
-        <v>16.66163108617767</v>
+        <v>11.40702779078856</v>
       </c>
       <c r="C528">
-        <v>19.49876015016343</v>
+        <v>11.40702779078856</v>
       </c>
       <c r="D528">
         <v>56974</v>
@@ -7759,13 +7759,13 @@
     </row>
     <row r="529">
       <c r="A529">
-        <v>12.66762876184657</v>
+        <v>9.851360775763169</v>
       </c>
       <c r="B529">
-        <v>12.66762876184657</v>
+        <v>11.03448068216759</v>
       </c>
       <c r="C529">
-        <v>12.66762876184657</v>
+        <v>12.11914883926511</v>
       </c>
       <c r="D529">
         <v>17019</v>
@@ -7773,13 +7773,13 @@
     </row>
     <row r="530">
       <c r="A530">
-        <v>9.416678950656205</v>
+        <v>13.35725716478191</v>
       </c>
       <c r="B530">
-        <v>9.416678950656205</v>
+        <v>13.35725716478191</v>
       </c>
       <c r="C530">
-        <v>9.416678950656205</v>
+        <v>13.35725716478191</v>
       </c>
       <c r="D530">
         <v>41800</v>
@@ -7787,13 +7787,13 @@
     </row>
     <row r="531">
       <c r="A531">
-        <v>9.742874031420797</v>
+        <v>12.16085371607915</v>
       </c>
       <c r="B531">
-        <v>12.24776685404242</v>
+        <v>12.8406633162983</v>
       </c>
       <c r="C531">
-        <v>15.92066861514468</v>
+        <v>13.46955262299161</v>
       </c>
       <c r="D531">
         <v>61843</v>
@@ -7801,13 +7801,13 @@
     </row>
     <row r="532">
       <c r="A532">
-        <v>6.89135909685865</v>
+        <v>14.42782698827796</v>
       </c>
       <c r="B532">
-        <v>8.219498669432427</v>
+        <v>17.14602746150026</v>
       </c>
       <c r="C532">
-        <v>8.891962644993328</v>
+        <v>19.29406282317359</v>
       </c>
       <c r="D532">
         <v>6855</v>
@@ -7815,13 +7815,13 @@
     </row>
     <row r="533">
       <c r="A533">
-        <v>11.58664358127862</v>
+        <v>7.421003754716367</v>
       </c>
       <c r="B533">
-        <v>11.58664358127862</v>
+        <v>13.27311561549157</v>
       </c>
       <c r="C533">
-        <v>11.58664358127862</v>
+        <v>15.79096598317847</v>
       </c>
       <c r="D533">
         <v>5374</v>
